--- a/scrapy_xc/spiders/tasks.xlsx
+++ b/scrapy_xc/spiders/tasks.xlsx
@@ -1,33 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27610"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yujun/gitPro/tutorial/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19100" windowHeight="7740"/>
+    <workbookView windowWidth="19100" windowHeight="7730"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" calcOnSave="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" calcCompleted="0" calcOnSave="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
   <si>
     <t>name</t>
   </si>
@@ -71,15 +58,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy/m/d;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -91,27 +82,351 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -119,62 +434,354 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="3">
     <dxf>
       <font>
+        <name val="宋体"/>
+        <scheme val="none"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="宋体"/>
+        <scheme val="none"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
         <sz val="11"/>
         <color rgb="FF9C0006"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -184,48 +791,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
       </font>
     </dxf>
   </dxfs>
@@ -490,30 +1056,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="22.83203125" customWidth="1"/>
+    <col min="1" max="1" width="22.8363636363636" customWidth="1"/>
     <col min="2" max="2" width="79" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" customWidth="1"/>
-    <col min="4" max="4" width="22.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.8363636363636" customWidth="1"/>
+    <col min="4" max="4" width="22.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="7" max="7" width="15.83203125" customWidth="1"/>
-    <col min="8" max="8" width="27.33203125" customWidth="1"/>
+    <col min="7" max="7" width="15.8363636363636" customWidth="1"/>
+    <col min="8" max="8" width="27.3363636363636" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" s="1" customFormat="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -536,101 +1102,100 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="6">
-        <v>43195</v>
-      </c>
-      <c r="E2" s="6">
+      <c r="D2" s="5">
         <v>43198</v>
+      </c>
+      <c r="E2" s="5">
+        <v>43202</v>
       </c>
       <c r="F2">
         <v>2500</v>
       </c>
       <c r="G2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="7">
+        <v>43198</v>
+      </c>
+      <c r="E3" s="7">
+        <v>43200</v>
+      </c>
+      <c r="F3" s="1">
+        <v>5000</v>
+      </c>
+      <c r="G3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="9">
-        <v>43196</v>
-      </c>
-      <c r="E3" s="9">
-        <v>43200</v>
-      </c>
-      <c r="F3" s="2">
-        <v>5000</v>
-      </c>
-      <c r="G3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="4:4">
       <c r="D4"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="4:4">
       <c r="D5"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="4:4">
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="4:4">
       <c r="D7"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="4:4">
       <c r="D8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="4:4">
       <c r="D9"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="4:4">
       <c r="D10"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="4:4">
       <c r="D11"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="4:4">
       <c r="D12"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="4:4">
       <c r="D13"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="4:4">
       <c r="D14"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="4:4">
       <c r="D15"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="4:4">
       <c r="D16"/>
     </row>
-    <row r="17" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="18" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="17" customFormat="1"/>
+    <row r="18" customFormat="1"/>
+    <row r="19" customFormat="1"/>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="4" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="9" operator="equal">
       <formula>3000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="10" operator="equal">
       <formula>3000</formula>
     </cfRule>
   </conditionalFormatting>
@@ -638,16 +1203,17 @@
     <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="equal">
       <formula>3000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>3000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>3000</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" location="ctm_ref=hod_dl_map_ htllst_n_9"/>
+    <hyperlink ref="B2" r:id="rId1" display="http://hotels.ctrip.com/hotel/396401.html#ctm_ref=hod_dl_map_ htllst_n_9" tooltip="http://hotels.ctrip.com/hotel/396401.html#ctm_ref=hod_dl_map_ htllst_n_9"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/scrapy_xc/spiders/tasks.xlsx
+++ b/scrapy_xc/spiders/tasks.xlsx
@@ -46,10 +46,10 @@
     <t>豪华景观大床房</t>
   </si>
   <si>
-    <t>武汉香格里拉大酒店</t>
+    <t>北京天坛饭店</t>
   </si>
   <si>
-    <t>http://hotels.ctrip.com/hotel/346492.html#ctm_ref=hod_hp_sb_lst</t>
+    <t>http://hotels.ctrip.com/hotel/608345.html?isFull=F#ctm_ref=hod_sr_lst_dl_n_1_1</t>
   </si>
   <si>
     <t>豪华双床间</t>
@@ -88,6 +88,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -164,14 +172,6 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -540,10 +540,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -552,58 +552,58 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -615,10 +615,10 @@
     <xf numFmtId="0" fontId="21" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -627,58 +627,58 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -701,7 +701,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1064,8 +1064,8 @@
   <sheetPr/>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -1139,13 +1139,13 @@
         <v>43198</v>
       </c>
       <c r="E3" s="7">
-        <v>43200</v>
+        <v>43216</v>
       </c>
       <c r="F3" s="1">
         <v>5000</v>
       </c>
       <c r="G3" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="4:4">
@@ -1212,6 +1212,7 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="http://hotels.ctrip.com/hotel/396401.html#ctm_ref=hod_dl_map_ htllst_n_9" tooltip="http://hotels.ctrip.com/hotel/396401.html#ctm_ref=hod_dl_map_ htllst_n_9"/>
+    <hyperlink ref="B3" r:id="rId2" display="http://hotels.ctrip.com/hotel/608345.html?isFull=F#ctm_ref=hod_sr_lst_dl_n_1_1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/scrapy_xc/spiders/tasks.xlsx
+++ b/scrapy_xc/spiders/tasks.xlsx
@@ -61,10 +61,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -97,28 +97,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,6 +118,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -147,23 +148,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,6 +171,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -186,6 +181,36 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -194,39 +219,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,13 +241,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -259,7 +367,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,157 +409,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,6 +439,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -474,24 +485,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -509,11 +502,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,10 +540,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -552,16 +552,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -570,115 +570,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1065,7 +1065,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -1122,7 +1122,7 @@
         <v>2500</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:7">

--- a/scrapy_xc/spiders/tasks.xlsx
+++ b/scrapy_xc/spiders/tasks.xlsx
@@ -61,10 +61,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -88,16 +88,92 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -119,14 +195,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,101 +210,25 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -241,187 +241,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,8 +437,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -446,10 +448,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -466,21 +466,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,6 +503,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -540,10 +540,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -555,134 +555,134 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -700,9 +700,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1065,7 +1062,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -1113,10 +1110,10 @@
         <v>9</v>
       </c>
       <c r="D2" s="5">
-        <v>43198</v>
+        <v>43201</v>
       </c>
       <c r="E2" s="5">
-        <v>43202</v>
+        <v>43206</v>
       </c>
       <c r="F2">
         <v>2500</v>
@@ -1129,16 +1126,16 @@
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="7">
-        <v>43198</v>
-      </c>
-      <c r="E3" s="7">
+      <c r="D3" s="6">
+        <v>43214</v>
+      </c>
+      <c r="E3" s="6">
         <v>43216</v>
       </c>
       <c r="F3" s="1">

--- a/scrapy_xc/spiders/tasks.xlsx
+++ b/scrapy_xc/spiders/tasks.xlsx
@@ -488,7 +488,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -536,7 +536,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="5">
-        <v>43199</v>
+        <v>43200</v>
       </c>
       <c r="E2" s="5">
         <v>43202</v>
@@ -559,7 +559,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="7">
-        <v>43199</v>
+        <v>43200</v>
       </c>
       <c r="E3" s="7">
         <v>43201</v>

--- a/scrapy_xc/spiders/tasks.xlsx
+++ b/scrapy_xc/spiders/tasks.xlsx
@@ -488,7 +488,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -536,10 +536,10 @@
         <v>9</v>
       </c>
       <c r="D2" s="5">
-        <v>43200</v>
+        <v>43203</v>
       </c>
       <c r="E2" s="5">
-        <v>43202</v>
+        <v>43204</v>
       </c>
       <c r="F2">
         <v>2500</v>
@@ -559,10 +559,10 @@
         <v>12</v>
       </c>
       <c r="D3" s="7">
-        <v>43200</v>
+        <v>43203</v>
       </c>
       <c r="E3" s="7">
-        <v>43201</v>
+        <v>43205</v>
       </c>
       <c r="F3" s="1">
         <v>5000</v>

--- a/scrapy_xc/spiders/tasks.xlsx
+++ b/scrapy_xc/spiders/tasks.xlsx
@@ -1,20 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27610"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yujun/gitPro/tutorial/scrapy_xc/spiders/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="7725"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="62">
   <si>
     <t>name</t>
   </si>
@@ -37,57 +50,224 @@
     <t>day_offset</t>
   </si>
   <si>
-    <t>武汉锦江国际大酒店</t>
-  </si>
-  <si>
-    <t>http://hotels.ctrip.com/hotel/396401.html#ctm_ref=hod_dl_map_ htllst_n_9</t>
-  </si>
-  <si>
-    <t>豪华景观大床房</t>
-  </si>
-  <si>
-    <t>北京天坛饭店</t>
-  </si>
-  <si>
-    <t>http://hotels.ctrip.com/hotel/608345.html?isFull=F#ctm_ref=hod_sr_lst_dl_n_1_1</t>
-  </si>
-  <si>
-    <t>豪华双床间</t>
+    <t>国家会展中心上海洲际酒店</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://hotels.ctrip.com/hotel/5310859.html?isFull=F#ctm_ref=hod_sr_lst_dl_n_1_1</t>
+  </si>
+  <si>
+    <t>洲际高级房</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海虹桥绿地铂骊酒店</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://hotels.ctrip.com/hotel/7077943.html?isFull=F#ctm_ref=hod_sr_lst_dl_n_1_2</t>
+  </si>
+  <si>
+    <t>豪华房</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海虹桥绿地铂瑞酒店</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://hotels.ctrip.com/hotel/11443556.html?isFull=F#ctm_ref=hod_sr_lst_dl_n_1_3</t>
+  </si>
+  <si>
+    <t>超级高级大床房</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海虹桥绿地铂瑞公寓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://hotels.ctrip.com/hotel/8450350.html?isFull=F#ctm_ref=hod_sr_lst_dl_n_1_4</t>
+  </si>
+  <si>
+    <t>高级公寓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海虹桥金古源豪生大酒店</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://hotels.ctrip.com/hotel/375219.html?isFull=F#ctm_ref=hod_sr_lst_dl_n_1_5</t>
+  </si>
+  <si>
+    <t>豪华双床房</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海虹桥新华联索菲特大酒店</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://hotels.ctrip.com/hotel/6035903.html?isFull=F#ctm_ref=hod_sr_lst_dl_n_1_7</t>
+  </si>
+  <si>
+    <t>高级双床房</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海虹桥康得思酒店</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://hotels.ctrip.com/hotel/7344835.html?isFull=F#ctm_ref=hod_sr_lst_dl_n_1_9</t>
+  </si>
+  <si>
+    <t>高级大床房</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海万亨国际酒店</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://hotels.ctrip.com/hotel/7074260.html?isFull=F#ctm_ref=hod_sr_lst_dl_n_1_10</t>
+  </si>
+  <si>
+    <t>豪华大床房</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海雅客国际酒店</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://hotels.ctrip.com/hotel/6313336.html?isFull=F#ctm_ref=hod_sr_lst_dl_n_1_11</t>
+  </si>
+  <si>
+    <t>雅客豪华大床房</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海虹桥高铁瑞铂美居酒店</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://hotels.ctrip.com/hotel/10316109.html?isFull=T#ctm_ref=hod_sr_lst_dl_n_1_12</t>
+  </si>
+  <si>
+    <t>标准大床房</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海虹桥凯莱逸郡酒店</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://hotels.ctrip.com/hotel/438957.html?isFull=F#ctm_ref=hod_sr_lst_dl_n_1_14</t>
+  </si>
+  <si>
+    <t>上海中航虹桥机场泊悦酒店(中国国际航空公司)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://hotels.ctrip.com/hotel/437612.html?isFull=F#ctm_ref=hod_sr_lst_dl_n_1_16</t>
+  </si>
+  <si>
+    <t>上海虹桥美利亚酒店</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://hotels.ctrip.com/hotel/6459046.html?isFull=F#ctm_ref=hod_sr_lst_dl_n_1_17</t>
+  </si>
+  <si>
+    <t>上海虹桥商务区凯悦嘉轩酒店</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://hotels.ctrip.com/hotel/13329054.html#ctm_ref=ctr_hp_sb_lst</t>
+  </si>
+  <si>
+    <t>凯悦嘉轩双床房</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维也纳国际酒店(上海虹桥国展中心天山西路店)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://hotels.ctrip.com/hotel/1564946.html?isFull=F#ctm_ref=hod_sr_lst_dl_n_1_19</t>
+  </si>
+  <si>
+    <t>金巴兰国际酒店(上海虹桥枢纽国家会展中心店)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://hotels.ctrip.com/hotel/2290501.html?isFull=F#ctm_ref=hod_sr_lst_dl_n_2_1</t>
+  </si>
+  <si>
+    <t>特惠双床房</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海新虹桥希尔顿花园酒店</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://hotels.ctrip.com/hotel/7105744.html?isFull=F#ctm_ref=hod_sr_lst_dl_n_2_2</t>
+  </si>
+  <si>
+    <t>花园大床房</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>胜高国际酒店(上海虹桥国家会展中心店)(原上海国展店)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://hotels.ctrip.com/hotel/4694636.html?isFull=F#ctm_ref=hod_sr_lst_dl_n_2_3</t>
+  </si>
+  <si>
+    <t>上海新虹桥智选假日酒店</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://hotels.ctrip.com/hotel/532946.html?isFull=F#ctm_ref=hod_sr_lst_dl_n_2_4</t>
+  </si>
+  <si>
+    <t>智选标准房</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>希岸酒店(上海虹桥机场国展中心店)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://hotels.ctrip.com/hotel/7248211.html?isFull=F#ctm_ref=hod_sr_lst_dl_n_2_5</t>
+  </si>
+  <si>
+    <t>希岸双床房</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
+      <sz val="9"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -95,7 +275,6 @@
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -115,43 +294,36 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
@@ -484,25 +656,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.875" customWidth="1"/>
-    <col min="2" max="2" width="79" customWidth="1"/>
-    <col min="3" max="3" width="17.875" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" customWidth="1"/>
     <col min="4" max="4" width="22.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="7" max="7" width="15.875" customWidth="1"/>
-    <col min="8" max="8" width="27.375" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" customWidth="1"/>
+    <col min="8" max="8" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -525,96 +697,468 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="5">
-        <v>43203</v>
-      </c>
-      <c r="E2" s="5">
-        <v>43204</v>
-      </c>
-      <c r="F2">
-        <v>2500</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="1" customFormat="1">
+      <c r="D2" s="4">
+        <v>43205</v>
+      </c>
+      <c r="E2" s="4">
+        <v>43206</v>
+      </c>
+      <c r="F2" s="5">
+        <v>2500</v>
+      </c>
+      <c r="G2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="7">
-        <v>43203</v>
-      </c>
-      <c r="E3" s="7">
-        <v>43205</v>
-      </c>
-      <c r="F3" s="1">
-        <v>5000</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="D4"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="D5"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="D6"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="D7"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="D8"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="D9"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="D10"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="D11"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="D12"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="D13"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="D14"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="D15"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="D16"/>
-    </row>
-    <row r="17" customFormat="1"/>
-    <row r="18" customFormat="1"/>
-    <row r="19" customFormat="1"/>
+      <c r="D3" s="4">
+        <v>43205</v>
+      </c>
+      <c r="E3" s="4">
+        <v>43206</v>
+      </c>
+      <c r="F3" s="5">
+        <v>2500</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="4">
+        <v>43205</v>
+      </c>
+      <c r="E4" s="4">
+        <v>43206</v>
+      </c>
+      <c r="F4" s="5">
+        <v>2500</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="4">
+        <v>43205</v>
+      </c>
+      <c r="E5" s="4">
+        <v>43206</v>
+      </c>
+      <c r="F5" s="5">
+        <v>2500</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="4">
+        <v>43205</v>
+      </c>
+      <c r="E6" s="4">
+        <v>43206</v>
+      </c>
+      <c r="F6" s="5">
+        <v>2500</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="4">
+        <v>43205</v>
+      </c>
+      <c r="E7" s="4">
+        <v>43206</v>
+      </c>
+      <c r="F7" s="5">
+        <v>2500</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="4">
+        <v>43205</v>
+      </c>
+      <c r="E8" s="4">
+        <v>43206</v>
+      </c>
+      <c r="F8" s="5">
+        <v>2500</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="4">
+        <v>43205</v>
+      </c>
+      <c r="E9" s="4">
+        <v>43206</v>
+      </c>
+      <c r="F9" s="5">
+        <v>2500</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="4">
+        <v>43205</v>
+      </c>
+      <c r="E10" s="4">
+        <v>43206</v>
+      </c>
+      <c r="F10" s="5">
+        <v>2500</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="4">
+        <v>43205</v>
+      </c>
+      <c r="E11" s="4">
+        <v>43206</v>
+      </c>
+      <c r="F11" s="5">
+        <v>2500</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="4">
+        <v>43205</v>
+      </c>
+      <c r="E12" s="4">
+        <v>43206</v>
+      </c>
+      <c r="F12" s="5">
+        <v>2500</v>
+      </c>
+      <c r="G12" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="4">
+        <v>43205</v>
+      </c>
+      <c r="E13" s="4">
+        <v>43206</v>
+      </c>
+      <c r="F13" s="5">
+        <v>2500</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="4">
+        <v>43205</v>
+      </c>
+      <c r="E14" s="4">
+        <v>43206</v>
+      </c>
+      <c r="F14" s="5">
+        <v>2500</v>
+      </c>
+      <c r="G14" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="4">
+        <v>43205</v>
+      </c>
+      <c r="E15" s="4">
+        <v>43206</v>
+      </c>
+      <c r="F15" s="5">
+        <v>2500</v>
+      </c>
+      <c r="G15" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="4">
+        <v>43205</v>
+      </c>
+      <c r="E16" s="4">
+        <v>43206</v>
+      </c>
+      <c r="F16" s="5">
+        <v>2500</v>
+      </c>
+      <c r="G16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="4">
+        <v>43205</v>
+      </c>
+      <c r="E17" s="4">
+        <v>43206</v>
+      </c>
+      <c r="F17" s="5">
+        <v>2500</v>
+      </c>
+      <c r="G17" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="4">
+        <v>43205</v>
+      </c>
+      <c r="E18" s="4">
+        <v>43206</v>
+      </c>
+      <c r="F18" s="5">
+        <v>2500</v>
+      </c>
+      <c r="G18" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="4">
+        <v>43205</v>
+      </c>
+      <c r="E19" s="4">
+        <v>43206</v>
+      </c>
+      <c r="F19" s="5">
+        <v>2500</v>
+      </c>
+      <c r="G19" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="4">
+        <v>43205</v>
+      </c>
+      <c r="E20" s="4">
+        <v>43206</v>
+      </c>
+      <c r="F20" s="5">
+        <v>2500</v>
+      </c>
+      <c r="G20" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="4">
+        <v>43205</v>
+      </c>
+      <c r="E21" s="4">
+        <v>43206</v>
+      </c>
+      <c r="F21" s="5">
+        <v>2500</v>
+      </c>
+      <c r="G21" s="5">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2">
     <cfRule type="cellIs" dxfId="4" priority="9" operator="equal">
       <formula>3000</formula>
@@ -635,8 +1179,8 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" location="ctm_ref=hod_dl_map_ htllst_n_9" tooltip="http://hotels.ctrip.com/hotel/396401.html#ctm_ref=hod_dl_map_ htllst_n_9"/>
-    <hyperlink ref="B3" r:id="rId2" location="ctm_ref=hod_sr_lst_dl_n_1_1"/>
+    <hyperlink ref="B2" r:id="rId1" location="ctm_ref=hod_dl_map_ htllst_n_9" tooltip="http://hotels.ctrip.com/hotel/396401.html#ctm_ref=hod_dl_map_ htllst_n_9" display="http://hotels.ctrip.com/hotel/396401.html#ctm_ref=hod_dl_map_ htllst_n_9"/>
+    <hyperlink ref="B3" r:id="rId2" location="ctm_ref=hod_sr_lst_dl_n_1_1" display="http://hotels.ctrip.com/hotel/608345.html?isFull=F#ctm_ref=hod_sr_lst_dl_n_1_1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>

--- a/scrapy_xc/spiders/tasks.xlsx
+++ b/scrapy_xc/spiders/tasks.xlsx
@@ -1,17 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yujun/gitPro/tutorial/scrapy_xc/spiders/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420"/>
   </bookViews>
   <sheets>
-    <sheet name="task" sheetId="1" r:id="rId4"/>
+    <sheet name="task" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>上海虹桥凯莱逸郡酒店</t>
   </si>
@@ -95,30 +111,28 @@
   </si>
   <si>
     <t>希岸双床房</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>hotel_url</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
+      <sz val="9"/>
+      <color rgb="FFA5C261"/>
+      <name val="Menlo"/>
     </font>
   </fonts>
   <fills count="3">
@@ -160,55 +174,116 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="001FB714"/>
+      <rgbColor rgb="000000D4"/>
+      <rgbColor rgb="00FCF305"/>
+      <rgbColor rgb="00F20884"/>
+      <rgbColor rgb="0000ABEA"/>
+      <rgbColor rgb="00900000"/>
+      <rgbColor rgb="00006411"/>
+      <rgbColor rgb="00000090"/>
+      <rgbColor rgb="0090713A"/>
+      <rgbColor rgb="004600A5"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -410,7 +485,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -429,7 +504,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -459,7 +534,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -485,7 +560,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -511,7 +586,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -537,7 +612,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -563,7 +638,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -589,7 +664,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -615,7 +690,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -641,7 +716,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -667,7 +742,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -680,9 +755,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -699,7 +780,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -718,7 +799,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -744,7 +825,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -770,7 +851,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -796,7 +877,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -822,7 +903,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -848,7 +929,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -874,7 +955,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -900,7 +981,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -926,7 +1007,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -952,7 +1033,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -965,9 +1046,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -981,7 +1068,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1000,7 +1087,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1030,7 +1117,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1056,7 +1143,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1082,7 +1169,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1108,7 +1195,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1134,7 +1221,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1160,7 +1247,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1186,7 +1273,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1212,7 +1299,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1238,7 +1325,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1251,51 +1338,64 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.8516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.1719" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.8516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="40.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="73.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="22.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="19" style="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.8516" style="1" customWidth="1"/>
-    <col min="8" max="256" width="9" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" style="1" customWidth="1"/>
+    <col min="8" max="256" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" t="s" s="2">
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s" s="2">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="3">
@@ -1311,14 +1411,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="s" s="2">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="3">
@@ -1334,14 +1434,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="s" s="2">
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s" s="2">
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="3">
@@ -1357,14 +1457,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="s" s="2">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s" s="2">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="3">
@@ -1380,14 +1480,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="s" s="2">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s" s="2">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s" s="2">
+      <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="3">
@@ -1403,14 +1503,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="s" s="2">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s" s="2">
+      <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s" s="2">
+      <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="3">
@@ -1426,14 +1526,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="s" s="2">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="s" s="2">
+      <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C8" t="s" s="2">
+      <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="3">
@@ -1449,14 +1549,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="s" s="2">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B9" t="s" s="2">
+      <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C9" t="s" s="2">
+      <c r="C9" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="3">
@@ -1472,14 +1572,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="s" s="2">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s" s="2">
+      <c r="C10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="3">
@@ -1495,14 +1595,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="s" s="2">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B11" t="s" s="2">
+      <c r="B11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C11" t="s" s="2">
+      <c r="C11" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="3">
@@ -1519,8 +1619,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511806" footer="0.511806"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180599999999998" footer="0.51180599999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/scrapy_xc/spiders/tasks.xlsx
+++ b/scrapy_xc/spiders/tasks.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yujun/gitPro/tutorial/scrapy_xc/spiders/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -122,8 +117,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -133,6 +128,12 @@
       <sz val="9"/>
       <color rgb="FFA5C261"/>
       <name val="Menlo"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -202,7 +203,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1356,26 +1357,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="40.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="73.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="40.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="73.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="19" style="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" style="1" customWidth="1"/>
     <col min="8" max="256" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="15" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>28</v>
       </c>
@@ -1388,7 +1389,7 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="15" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1399,10 +1400,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="3">
-        <v>43205</v>
+        <v>43208</v>
       </c>
       <c r="E2" s="3">
-        <v>43206</v>
+        <v>43209</v>
       </c>
       <c r="F2" s="5">
         <v>2500</v>
@@ -1411,7 +1412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1422,10 +1423,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="3">
-        <v>43205</v>
+        <v>43208</v>
       </c>
       <c r="E3" s="3">
-        <v>43206</v>
+        <v>43209</v>
       </c>
       <c r="F3" s="5">
         <v>2500</v>
@@ -1434,7 +1435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1445,10 +1446,10 @@
         <v>2</v>
       </c>
       <c r="D4" s="3">
-        <v>43205</v>
+        <v>43208</v>
       </c>
       <c r="E4" s="3">
-        <v>43206</v>
+        <v>43209</v>
       </c>
       <c r="F4" s="5">
         <v>2500</v>
@@ -1457,7 +1458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="15" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -1468,10 +1469,10 @@
         <v>9</v>
       </c>
       <c r="D5" s="3">
-        <v>43205</v>
+        <v>43208</v>
       </c>
       <c r="E5" s="3">
-        <v>43206</v>
+        <v>43209</v>
       </c>
       <c r="F5" s="5">
         <v>2500</v>
@@ -1480,7 +1481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -1491,10 +1492,10 @@
         <v>12</v>
       </c>
       <c r="D6" s="3">
-        <v>43205</v>
+        <v>43208</v>
       </c>
       <c r="E6" s="3">
-        <v>43206</v>
+        <v>43209</v>
       </c>
       <c r="F6" s="5">
         <v>2500</v>
@@ -1503,7 +1504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -1514,10 +1515,10 @@
         <v>15</v>
       </c>
       <c r="D7" s="3">
-        <v>43205</v>
+        <v>43208</v>
       </c>
       <c r="E7" s="3">
-        <v>43206</v>
+        <v>43209</v>
       </c>
       <c r="F7" s="5">
         <v>2500</v>
@@ -1526,7 +1527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -1537,10 +1538,10 @@
         <v>18</v>
       </c>
       <c r="D8" s="3">
-        <v>43205</v>
+        <v>43208</v>
       </c>
       <c r="E8" s="3">
-        <v>43206</v>
+        <v>43209</v>
       </c>
       <c r="F8" s="5">
         <v>2500</v>
@@ -1549,7 +1550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="15" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -1560,10 +1561,10 @@
         <v>21</v>
       </c>
       <c r="D9" s="3">
-        <v>43205</v>
+        <v>43208</v>
       </c>
       <c r="E9" s="3">
-        <v>43206</v>
+        <v>43209</v>
       </c>
       <c r="F9" s="5">
         <v>2500</v>
@@ -1572,7 +1573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -1583,10 +1584,10 @@
         <v>24</v>
       </c>
       <c r="D10" s="3">
-        <v>43205</v>
+        <v>43208</v>
       </c>
       <c r="E10" s="3">
-        <v>43206</v>
+        <v>43209</v>
       </c>
       <c r="F10" s="5">
         <v>2500</v>
@@ -1595,7 +1596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
@@ -1606,10 +1607,10 @@
         <v>27</v>
       </c>
       <c r="D11" s="3">
-        <v>43205</v>
+        <v>43208</v>
       </c>
       <c r="E11" s="3">
-        <v>43206</v>
+        <v>43209</v>
       </c>
       <c r="F11" s="5">
         <v>2500</v>
@@ -1619,8 +1620,9 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180599999999998" footer="0.51180599999999998"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/scrapy_xc/spiders/tasks.xlsx
+++ b/scrapy_xc/spiders/tasks.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yujun/gitPro/tutorial/scrapy_xc/spiders/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="1" r:id="rId1"/>
@@ -117,8 +122,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -203,7 +208,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1357,26 +1362,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="73.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="40.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="73.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="19" style="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" style="1" customWidth="1"/>
     <col min="8" max="256" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>28</v>
       </c>
@@ -1389,7 +1394,7 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1">
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1400,10 +1405,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="3">
-        <v>43208</v>
+        <v>43209</v>
       </c>
       <c r="E2" s="3">
-        <v>43209</v>
+        <v>43210</v>
       </c>
       <c r="F2" s="5">
         <v>2500</v>
@@ -1412,7 +1417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1423,10 +1428,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="3">
-        <v>43208</v>
+        <v>43209</v>
       </c>
       <c r="E3" s="3">
-        <v>43209</v>
+        <v>43210</v>
       </c>
       <c r="F3" s="5">
         <v>2500</v>
@@ -1435,7 +1440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1">
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1446,10 +1451,10 @@
         <v>2</v>
       </c>
       <c r="D4" s="3">
-        <v>43208</v>
+        <v>43209</v>
       </c>
       <c r="E4" s="3">
-        <v>43209</v>
+        <v>43210</v>
       </c>
       <c r="F4" s="5">
         <v>2500</v>
@@ -1458,7 +1463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -1469,10 +1474,10 @@
         <v>9</v>
       </c>
       <c r="D5" s="3">
-        <v>43208</v>
+        <v>43209</v>
       </c>
       <c r="E5" s="3">
-        <v>43209</v>
+        <v>43210</v>
       </c>
       <c r="F5" s="5">
         <v>2500</v>
@@ -1481,7 +1486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -1492,10 +1497,10 @@
         <v>12</v>
       </c>
       <c r="D6" s="3">
-        <v>43208</v>
+        <v>43209</v>
       </c>
       <c r="E6" s="3">
-        <v>43209</v>
+        <v>43210</v>
       </c>
       <c r="F6" s="5">
         <v>2500</v>
@@ -1504,7 +1509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -1515,10 +1520,10 @@
         <v>15</v>
       </c>
       <c r="D7" s="3">
-        <v>43208</v>
+        <v>43209</v>
       </c>
       <c r="E7" s="3">
-        <v>43209</v>
+        <v>43210</v>
       </c>
       <c r="F7" s="5">
         <v>2500</v>
@@ -1527,7 +1532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -1538,10 +1543,10 @@
         <v>18</v>
       </c>
       <c r="D8" s="3">
-        <v>43208</v>
+        <v>43209</v>
       </c>
       <c r="E8" s="3">
-        <v>43209</v>
+        <v>43210</v>
       </c>
       <c r="F8" s="5">
         <v>2500</v>
@@ -1550,7 +1555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -1561,10 +1566,10 @@
         <v>21</v>
       </c>
       <c r="D9" s="3">
-        <v>43208</v>
+        <v>43209</v>
       </c>
       <c r="E9" s="3">
-        <v>43209</v>
+        <v>43210</v>
       </c>
       <c r="F9" s="5">
         <v>2500</v>
@@ -1573,7 +1578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -1584,10 +1589,10 @@
         <v>24</v>
       </c>
       <c r="D10" s="3">
-        <v>43208</v>
+        <v>43209</v>
       </c>
       <c r="E10" s="3">
-        <v>43209</v>
+        <v>43210</v>
       </c>
       <c r="F10" s="5">
         <v>2500</v>
@@ -1596,7 +1601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
@@ -1607,10 +1612,10 @@
         <v>27</v>
       </c>
       <c r="D11" s="3">
-        <v>43208</v>
+        <v>43209</v>
       </c>
       <c r="E11" s="3">
-        <v>43209</v>
+        <v>43210</v>
       </c>
       <c r="F11" s="5">
         <v>2500</v>

--- a/scrapy_xc/spiders/tasks.xlsx
+++ b/scrapy_xc/spiders/tasks.xlsx
@@ -1366,7 +1366,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E11"/>
+      <selection activeCell="D2" sqref="D2:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1405,10 +1405,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="3">
-        <v>43209</v>
+        <v>43210</v>
       </c>
       <c r="E2" s="3">
-        <v>43210</v>
+        <v>43211</v>
       </c>
       <c r="F2" s="5">
         <v>2500</v>
@@ -1428,10 +1428,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="3">
-        <v>43209</v>
+        <v>43210</v>
       </c>
       <c r="E3" s="3">
-        <v>43210</v>
+        <v>43211</v>
       </c>
       <c r="F3" s="5">
         <v>2500</v>
@@ -1451,10 +1451,10 @@
         <v>2</v>
       </c>
       <c r="D4" s="3">
-        <v>43209</v>
+        <v>43210</v>
       </c>
       <c r="E4" s="3">
-        <v>43210</v>
+        <v>43211</v>
       </c>
       <c r="F4" s="5">
         <v>2500</v>
@@ -1474,10 +1474,10 @@
         <v>9</v>
       </c>
       <c r="D5" s="3">
-        <v>43209</v>
+        <v>43210</v>
       </c>
       <c r="E5" s="3">
-        <v>43210</v>
+        <v>43211</v>
       </c>
       <c r="F5" s="5">
         <v>2500</v>
@@ -1497,10 +1497,10 @@
         <v>12</v>
       </c>
       <c r="D6" s="3">
-        <v>43209</v>
+        <v>43210</v>
       </c>
       <c r="E6" s="3">
-        <v>43210</v>
+        <v>43211</v>
       </c>
       <c r="F6" s="5">
         <v>2500</v>
@@ -1520,10 +1520,10 @@
         <v>15</v>
       </c>
       <c r="D7" s="3">
-        <v>43209</v>
+        <v>43210</v>
       </c>
       <c r="E7" s="3">
-        <v>43210</v>
+        <v>43211</v>
       </c>
       <c r="F7" s="5">
         <v>2500</v>
@@ -1543,10 +1543,10 @@
         <v>18</v>
       </c>
       <c r="D8" s="3">
-        <v>43209</v>
+        <v>43210</v>
       </c>
       <c r="E8" s="3">
-        <v>43210</v>
+        <v>43211</v>
       </c>
       <c r="F8" s="5">
         <v>2500</v>
@@ -1566,10 +1566,10 @@
         <v>21</v>
       </c>
       <c r="D9" s="3">
-        <v>43209</v>
+        <v>43210</v>
       </c>
       <c r="E9" s="3">
-        <v>43210</v>
+        <v>43211</v>
       </c>
       <c r="F9" s="5">
         <v>2500</v>
@@ -1589,10 +1589,10 @@
         <v>24</v>
       </c>
       <c r="D10" s="3">
-        <v>43209</v>
+        <v>43210</v>
       </c>
       <c r="E10" s="3">
-        <v>43210</v>
+        <v>43211</v>
       </c>
       <c r="F10" s="5">
         <v>2500</v>
@@ -1612,10 +1612,10 @@
         <v>27</v>
       </c>
       <c r="D11" s="3">
-        <v>43209</v>
+        <v>43210</v>
       </c>
       <c r="E11" s="3">
-        <v>43210</v>
+        <v>43211</v>
       </c>
       <c r="F11" s="5">
         <v>2500</v>

--- a/scrapy_xc/spiders/tasks.xlsx
+++ b/scrapy_xc/spiders/tasks.xlsx
@@ -1365,8 +1365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D11"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1405,10 +1405,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="3">
-        <v>43210</v>
+        <v>43213</v>
       </c>
       <c r="E2" s="3">
-        <v>43211</v>
+        <v>43214</v>
       </c>
       <c r="F2" s="5">
         <v>2500</v>
@@ -1428,10 +1428,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="3">
-        <v>43210</v>
+        <v>43213</v>
       </c>
       <c r="E3" s="3">
-        <v>43211</v>
+        <v>43214</v>
       </c>
       <c r="F3" s="5">
         <v>2500</v>
@@ -1451,10 +1451,10 @@
         <v>2</v>
       </c>
       <c r="D4" s="3">
-        <v>43210</v>
+        <v>43213</v>
       </c>
       <c r="E4" s="3">
-        <v>43211</v>
+        <v>43214</v>
       </c>
       <c r="F4" s="5">
         <v>2500</v>
@@ -1474,10 +1474,10 @@
         <v>9</v>
       </c>
       <c r="D5" s="3">
-        <v>43210</v>
+        <v>43213</v>
       </c>
       <c r="E5" s="3">
-        <v>43211</v>
+        <v>43214</v>
       </c>
       <c r="F5" s="5">
         <v>2500</v>
@@ -1497,10 +1497,10 @@
         <v>12</v>
       </c>
       <c r="D6" s="3">
-        <v>43210</v>
+        <v>43213</v>
       </c>
       <c r="E6" s="3">
-        <v>43211</v>
+        <v>43214</v>
       </c>
       <c r="F6" s="5">
         <v>2500</v>
@@ -1520,10 +1520,10 @@
         <v>15</v>
       </c>
       <c r="D7" s="3">
-        <v>43210</v>
+        <v>43213</v>
       </c>
       <c r="E7" s="3">
-        <v>43211</v>
+        <v>43214</v>
       </c>
       <c r="F7" s="5">
         <v>2500</v>
@@ -1543,10 +1543,10 @@
         <v>18</v>
       </c>
       <c r="D8" s="3">
-        <v>43210</v>
+        <v>43213</v>
       </c>
       <c r="E8" s="3">
-        <v>43211</v>
+        <v>43214</v>
       </c>
       <c r="F8" s="5">
         <v>2500</v>
@@ -1566,10 +1566,10 @@
         <v>21</v>
       </c>
       <c r="D9" s="3">
-        <v>43210</v>
+        <v>43213</v>
       </c>
       <c r="E9" s="3">
-        <v>43211</v>
+        <v>43214</v>
       </c>
       <c r="F9" s="5">
         <v>2500</v>
@@ -1589,10 +1589,10 @@
         <v>24</v>
       </c>
       <c r="D10" s="3">
-        <v>43210</v>
+        <v>43213</v>
       </c>
       <c r="E10" s="3">
-        <v>43211</v>
+        <v>43214</v>
       </c>
       <c r="F10" s="5">
         <v>2500</v>
@@ -1612,10 +1612,10 @@
         <v>27</v>
       </c>
       <c r="D11" s="3">
-        <v>43210</v>
+        <v>43213</v>
       </c>
       <c r="E11" s="3">
-        <v>43211</v>
+        <v>43214</v>
       </c>
       <c r="F11" s="5">
         <v>2500</v>

--- a/scrapy_xc/spiders/tasks.xlsx
+++ b/scrapy_xc/spiders/tasks.xlsx
@@ -494,7 +494,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -542,10 +542,10 @@
         <v>9</v>
       </c>
       <c r="D2" s="6">
-        <v>43215</v>
+        <v>43245</v>
       </c>
       <c r="E2" s="6">
-        <v>43218</v>
+        <v>43248</v>
       </c>
       <c r="F2">
         <v>2500</v>
@@ -565,10 +565,10 @@
         <v>12</v>
       </c>
       <c r="D3" s="9">
-        <v>43216</v>
+        <v>43246</v>
       </c>
       <c r="E3" s="9">
-        <v>43220</v>
+        <v>43250</v>
       </c>
       <c r="F3" s="2">
         <v>5000</v>

--- a/scrapy_xc/spiders/tasks.xlsx
+++ b/scrapy_xc/spiders/tasks.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27610"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yujun/gitPro/tutorial/scrapy_xc/spiders/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="19095" windowHeight="7740"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="1" r:id="rId1"/>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>name</t>
   </si>
@@ -45,32 +50,31 @@
     <t>day_offset</t>
   </si>
   <si>
-    <t>武汉锦江国际大酒店</t>
-  </si>
-  <si>
-    <t>http://hotels.ctrip.com/hotel/396401.html#ctm_ref=hod_dl_map_ htllst_n_9</t>
-  </si>
-  <si>
-    <t>豪华景观大床房</t>
-  </si>
-  <si>
-    <t>武汉香格里拉大酒店</t>
-  </si>
-  <si>
-    <t>http://hotels.ctrip.com/hotel/346492.html#ctm_ref=hod_hp_sb_lst</t>
-  </si>
-  <si>
-    <t>豪华双床间</t>
+    <t>http://hotels.ctrip.com/hotel/485036.html#ctm_ref=hod_hp_sb_lst</t>
+  </si>
+  <si>
+    <t>豪华客房</t>
+    <rPh sb="0" eb="1">
+      <t>hao'hau</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ke'fang</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳四季酒店</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -490,25 +494,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.875" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" customWidth="1"/>
     <col min="2" max="2" width="79" customWidth="1"/>
-    <col min="3" max="3" width="17.875" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" customWidth="1"/>
     <col min="4" max="4" width="22.5" style="3" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="7" max="7" width="15.875" customWidth="1"/>
-    <col min="8" max="8" width="27.375" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" customWidth="1"/>
+    <col min="8" max="8" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -531,21 +535,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="D2" s="6">
-        <v>43245</v>
+        <v>43241</v>
       </c>
       <c r="E2" s="6">
-        <v>43248</v>
+        <v>43244</v>
       </c>
       <c r="F2">
         <v>2500</v>
@@ -554,71 +558,55 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1">
-      <c r="A3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="9">
-        <v>43246</v>
-      </c>
-      <c r="E3" s="9">
-        <v>43250</v>
-      </c>
-      <c r="F3" s="2">
-        <v>5000</v>
-      </c>
-      <c r="G3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D4"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D5"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D7"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D8"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D9"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D10"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D11"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D12"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D13"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D14"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D15"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D16"/>
     </row>
-    <row r="17" customFormat="1"/>
-    <row r="18" customFormat="1"/>
-    <row r="19" customFormat="1"/>
+    <row r="17" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="19" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="B2">
@@ -640,9 +628,6 @@
       <formula>3000</formula>
     </cfRule>
   </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" location="ctm_ref=hod_dl_map_ htllst_n_9"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
--- a/scrapy_xc/spiders/tasks.xlsx
+++ b/scrapy_xc/spiders/tasks.xlsx
@@ -498,7 +498,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -546,10 +546,10 @@
         <v>8</v>
       </c>
       <c r="D2" s="6">
-        <v>43241</v>
+        <v>43272</v>
       </c>
       <c r="E2" s="6">
-        <v>43244</v>
+        <v>43275</v>
       </c>
       <c r="F2">
         <v>2500</v>

--- a/scrapy_xc/spiders/tasks.xlsx
+++ b/scrapy_xc/spiders/tasks.xlsx
@@ -34,13 +34,36 @@
     <t>day_offset</t>
   </si>
   <si>
-    <t>深圳四季酒店</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>汉庭酒店(北京高塔路店)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t> </t>
+    </r>
   </si>
   <si>
-    <t>http://hotels.ctrip.com/hotel/485036.html#ctm_ref=hod_hp_sb_lst</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>http://hotels.ctrip.com/hotel/2313439.html?isFull=F#ctm_ref=hod_sr_lst_dl_n_1_3</t>
+    </r>
   </si>
   <si>
-    <t>商务套房</t>
+    <t>特价大床房(无窗)</t>
   </si>
 </sst>
 </file>
@@ -50,7 +73,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -67,9 +90,14 @@
       <name val="宋体"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color indexed="11"/>
+      <name val="宋体"/>
+    </font>
+    <font>
       <u val="single"/>
       <sz val="11"/>
-      <color indexed="11"/>
+      <color indexed="12"/>
       <name val="宋体"/>
     </font>
   </fonts>
@@ -82,12 +110,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="9"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -97,16 +125,103 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -116,54 +231,60 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="ffff0000"/>
-      </font>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
@@ -176,10 +297,10 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff333333"/>
+      <rgbColor rgb="ff0563c1"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -378,17 +499,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -416,10 +537,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -667,12 +788,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -959,7 +1080,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -987,10 +1108,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1241,23 +1362,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="21" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="22.8516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="79" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.8516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.8516" style="1" customWidth="1"/>
-    <col min="8" max="256" width="9" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.8516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="68.8516" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.8516" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.8516" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.8516" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.8516" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.8516" style="1" customWidth="1"/>
+    <col min="8" max="256" width="10.8516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" customHeight="1">
+    <row r="1" ht="21" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
@@ -1267,7 +1388,7 @@
       <c r="C1" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" t="s" s="2">
         <v>3</v>
       </c>
       <c r="E1" t="s" s="2">
@@ -1280,161 +1401,105 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="16" customHeight="1">
-      <c r="A2" t="s" s="4">
+    <row r="2" ht="21" customHeight="1">
+      <c r="A2" t="s" s="3">
         <v>7</v>
       </c>
-      <c r="B2" t="s" s="5">
+      <c r="B2" t="s" s="4">
         <v>8</v>
       </c>
-      <c r="C2" t="s" s="4">
+      <c r="C2" t="s" s="3">
         <v>9</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
+        <v>43251</v>
+      </c>
+      <c r="E2" s="5">
         <v>43252</v>
       </c>
-      <c r="E2" s="7">
-        <v>43258</v>
-      </c>
-      <c r="F2" s="8">
+      <c r="F2" s="6">
         <v>2500</v>
       </c>
-      <c r="G2" s="8">
-        <v>7</v>
+      <c r="G2" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="3" ht="16" customHeight="1">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" ht="16" customHeight="1">
       <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="11"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="12"/>
     </row>
     <row r="5" ht="16" customHeight="1">
       <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
       <c r="D5" s="11"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="12"/>
     </row>
     <row r="6" ht="16" customHeight="1">
       <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
       <c r="D6" s="11"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="12"/>
     </row>
     <row r="7" ht="16" customHeight="1">
       <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
       <c r="D7" s="11"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="12"/>
     </row>
     <row r="8" ht="16" customHeight="1">
       <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
       <c r="D8" s="11"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="12"/>
     </row>
     <row r="9" ht="16" customHeight="1">
       <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="11"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="12"/>
     </row>
     <row r="10" ht="16" customHeight="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-    </row>
-    <row r="11" ht="16" customHeight="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-    </row>
-    <row r="12" ht="16" customHeight="1">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-    </row>
-    <row r="13" ht="16" customHeight="1">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-    </row>
-    <row r="14" ht="16" customHeight="1">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-    </row>
-    <row r="15" ht="16" customHeight="1">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-    </row>
-    <row r="16" ht="16" customHeight="1">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="15"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B3:C3">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal" stopIfTrue="1">
-      <formula>3000</formula>
-    </cfRule>
-  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" location="" tooltip="" display=""/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511806" footer="0.511806"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>

--- a/scrapy_xc/spiders/tasks.xlsx
+++ b/scrapy_xc/spiders/tasks.xlsx
@@ -59,11 +59,11 @@
         <color indexed="12"/>
         <rFont val="宋体"/>
       </rPr>
-      <t>http://hotels.ctrip.com/hotel/2313439.html?isFull=F#ctm_ref=hod_sr_lst_dl_n_1_3</t>
+      <t>http://hotels.ctrip.com/hotel/374787.html?isFull=F#ctm_ref=hod_sr_lst_dl_n_1_25</t>
     </r>
   </si>
   <si>
-    <t>特价大床房(无窗)</t>
+    <t>高级双床间</t>
   </si>
 </sst>
 </file>
@@ -300,7 +300,7 @@
       <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ff333333"/>
-      <rgbColor rgb="ff0563c1"/>
+      <rgbColor rgb="ff0000ff"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1412,16 +1412,16 @@
         <v>9</v>
       </c>
       <c r="D2" s="5">
-        <v>43251</v>
+        <v>43983</v>
       </c>
       <c r="E2" s="5">
-        <v>43252</v>
+        <v>43987</v>
       </c>
       <c r="F2" s="6">
         <v>2500</v>
       </c>
       <c r="G2" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" ht="16" customHeight="1">

--- a/scrapy_xc/spiders/tasks.xlsx
+++ b/scrapy_xc/spiders/tasks.xlsx
@@ -1,17 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27610"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yujun/Desktop/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16120"/>
   </bookViews>
   <sheets>
-    <sheet name="task" sheetId="1" r:id="rId4"/>
+    <sheet name="task" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>name</t>
   </si>
@@ -34,71 +50,47 @@
     <t>day_offset</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>汉庭酒店(北京高塔路店)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="11"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t> </t>
-    </r>
+    <t>标准房</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="11"/>
-        <color indexed="12"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>http://hotels.ctrip.com/hotel/374787.html?isFull=F#ctm_ref=hod_sr_lst_dl_n_1_25</t>
-    </r>
+    <t>上海海神诺富特大酒店</t>
   </si>
   <si>
-    <t>高级双床间</t>
+    <t>http://hotels.ctrip.com/hotel/425938.html?isFull=F#ctm_ref=hod_sr_lst_dl_n_2_9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="major"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="11"/>
+      <sz val="9"/>
       <name val="宋体"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="11"/>
-      <color indexed="12"/>
-      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -111,11 +103,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
-        <bgColor auto="1"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -138,176 +130,481 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="16">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <dxfs count="67">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+  </dxfs>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff333333"/>
-      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00AAAAAA"/>
+      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -506,10 +803,8 @@
           <a:prstDash val="solid"/>
           <a:round/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -527,8 +822,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -557,8 +851,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -583,8 +876,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -609,8 +901,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -635,8 +926,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -661,8 +951,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -687,8 +976,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -713,8 +1001,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -739,8 +1026,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -765,8 +1051,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -779,9 +1064,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -795,10 +1086,8 @@
           <a:prstDash val="solid"/>
           <a:round/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -816,8 +1105,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -842,8 +1130,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -868,8 +1155,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -894,8 +1180,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -920,8 +1205,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -946,8 +1230,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -972,8 +1255,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -998,8 +1280,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1024,8 +1305,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1050,8 +1330,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1064,9 +1343,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1077,10 +1362,8 @@
           <a:noFill/>
           <a:miter lim="400000"/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1098,8 +1381,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1128,8 +1410,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1154,8 +1435,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1180,8 +1460,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1206,8 +1485,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1232,8 +1510,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1258,8 +1535,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1284,8 +1560,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1310,8 +1585,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1336,8 +1610,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1350,158 +1623,2890 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G276"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="21" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.8516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="68.8516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.8516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.8516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.8516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.8516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.8516" style="1" customWidth="1"/>
-    <col min="8" max="256" width="10.8516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="37.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="68.83203125" style="1" customWidth="1"/>
+    <col min="3" max="7" width="10.83203125" style="1" customWidth="1"/>
+    <col min="8" max="256" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="21" customHeight="1">
-      <c r="A2" t="s" s="3">
+    <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s" s="4">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s" s="3">
-        <v>9</v>
-      </c>
       <c r="D2" s="5">
-        <v>43983</v>
+        <v>43430</v>
       </c>
       <c r="E2" s="5">
-        <v>43987</v>
+        <v>43435</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="4">
         <v>2500</v>
       </c>
-      <c r="G2" s="6">
-        <v>5</v>
+      <c r="G2" s="4">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" ht="16" customHeight="1">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
+    <row r="3" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="F3" s="9"/>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" ht="16" customHeight="1">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="12"/>
-    </row>
-    <row r="5" ht="16" customHeight="1">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="12"/>
-    </row>
-    <row r="6" ht="16" customHeight="1">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="12"/>
-    </row>
-    <row r="7" ht="16" customHeight="1">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="12"/>
-    </row>
-    <row r="8" ht="16" customHeight="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="12"/>
-    </row>
-    <row r="9" ht="16" customHeight="1">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="12"/>
-    </row>
-    <row r="10" ht="16" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="15"/>
+    <row r="4" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+    </row>
+    <row r="18" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+    </row>
+    <row r="24" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+    </row>
+    <row r="25" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+    </row>
+    <row r="26" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+    </row>
+    <row r="28" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+    </row>
+    <row r="29" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+    </row>
+    <row r="30" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+    </row>
+    <row r="31" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+    </row>
+    <row r="32" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+    </row>
+    <row r="33" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+    </row>
+    <row r="34" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+    </row>
+    <row r="35" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+    </row>
+    <row r="36" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+    </row>
+    <row r="37" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+    </row>
+    <row r="38" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+    </row>
+    <row r="39" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+    </row>
+    <row r="40" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+    </row>
+    <row r="41" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+    </row>
+    <row r="42" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+    </row>
+    <row r="43" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+    </row>
+    <row r="44" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="11"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+    </row>
+    <row r="45" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="11"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+    </row>
+    <row r="46" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="11"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+    </row>
+    <row r="47" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="11"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+    </row>
+    <row r="48" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="11"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+    </row>
+    <row r="49" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="11"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+    </row>
+    <row r="50" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="11"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+    </row>
+    <row r="51" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="11"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+    </row>
+    <row r="52" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="11"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+    </row>
+    <row r="53" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="11"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+    </row>
+    <row r="54" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="11"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+    </row>
+    <row r="55" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="11"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+    </row>
+    <row r="56" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="11"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+    </row>
+    <row r="57" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="11"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+    </row>
+    <row r="58" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="11"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+    </row>
+    <row r="59" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="11"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+    </row>
+    <row r="60" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="11"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+    </row>
+    <row r="61" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="11"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+    </row>
+    <row r="62" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="11"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+    </row>
+    <row r="63" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="11"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+    </row>
+    <row r="64" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="11"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+    </row>
+    <row r="65" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="11"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+    </row>
+    <row r="66" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="11"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+    </row>
+    <row r="67" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="11"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+    </row>
+    <row r="68" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="11"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+    </row>
+    <row r="69" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="11"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+    </row>
+    <row r="70" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="11"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+    </row>
+    <row r="71" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="11"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+    </row>
+    <row r="72" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="11"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+    </row>
+    <row r="73" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="11"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+    </row>
+    <row r="74" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="11"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+    </row>
+    <row r="75" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="11"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+    </row>
+    <row r="76" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="11"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+    </row>
+    <row r="77" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="11"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+    </row>
+    <row r="78" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="11"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+    </row>
+    <row r="79" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="11"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+    </row>
+    <row r="80" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="11"/>
+      <c r="B80" s="11"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+    </row>
+    <row r="81" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="11"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+    </row>
+    <row r="82" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="11"/>
+      <c r="B82" s="11"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+    </row>
+    <row r="83" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="11"/>
+      <c r="B83" s="11"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
+    </row>
+    <row r="84" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="11"/>
+      <c r="B84" s="11"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+    </row>
+    <row r="85" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="11"/>
+      <c r="B85" s="11"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
+    </row>
+    <row r="86" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="11"/>
+      <c r="B86" s="11"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
+    </row>
+    <row r="87" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="11"/>
+      <c r="B87" s="11"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="9"/>
+    </row>
+    <row r="88" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="11"/>
+      <c r="B88" s="11"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="9"/>
+    </row>
+    <row r="89" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="11"/>
+      <c r="B89" s="11"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="9"/>
+    </row>
+    <row r="90" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="11"/>
+      <c r="B90" s="11"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
+    </row>
+    <row r="91" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="11"/>
+      <c r="B91" s="11"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="9"/>
+    </row>
+    <row r="92" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="11"/>
+      <c r="B92" s="11"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="9"/>
+      <c r="G92" s="9"/>
+    </row>
+    <row r="93" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="11"/>
+      <c r="B93" s="11"/>
+      <c r="C93" s="9"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="9"/>
+    </row>
+    <row r="94" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="11"/>
+      <c r="B94" s="11"/>
+      <c r="C94" s="9"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="9"/>
+    </row>
+    <row r="95" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="11"/>
+      <c r="B95" s="11"/>
+      <c r="C95" s="9"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="9"/>
+    </row>
+    <row r="96" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="11"/>
+      <c r="B96" s="11"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="9"/>
+    </row>
+    <row r="97" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="11"/>
+      <c r="B97" s="11"/>
+      <c r="C97" s="9"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="9"/>
+    </row>
+    <row r="98" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="11"/>
+      <c r="B98" s="11"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="9"/>
+    </row>
+    <row r="99" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="11"/>
+      <c r="B99" s="11"/>
+      <c r="C99" s="9"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="14"/>
+      <c r="F99" s="9"/>
+      <c r="G99" s="9"/>
+    </row>
+    <row r="100" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="11"/>
+      <c r="B100" s="11"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="9"/>
+    </row>
+    <row r="101" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="6"/>
+      <c r="B101" s="6"/>
+      <c r="C101" s="7"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="9"/>
+      <c r="G101" s="9"/>
+    </row>
+    <row r="102" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="6"/>
+      <c r="B102" s="6"/>
+      <c r="C102" s="7"/>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="9"/>
+      <c r="G102" s="9"/>
+    </row>
+    <row r="103" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="6"/>
+      <c r="B103" s="6"/>
+      <c r="C103" s="10"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="9"/>
+      <c r="G103" s="9"/>
+    </row>
+    <row r="104" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="11"/>
+      <c r="B104" s="11"/>
+      <c r="C104" s="13"/>
+      <c r="D104" s="15"/>
+      <c r="E104" s="15"/>
+      <c r="F104" s="11"/>
+      <c r="G104" s="11"/>
+    </row>
+    <row r="105" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="11"/>
+      <c r="B105" s="11"/>
+      <c r="C105" s="13"/>
+      <c r="D105" s="15"/>
+      <c r="E105" s="15"/>
+      <c r="F105" s="11"/>
+      <c r="G105" s="11"/>
+    </row>
+    <row r="106" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="11"/>
+      <c r="B106" s="11"/>
+      <c r="C106" s="13"/>
+      <c r="D106" s="15"/>
+      <c r="E106" s="15"/>
+      <c r="F106" s="11"/>
+      <c r="G106" s="11"/>
+    </row>
+    <row r="107" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="11"/>
+      <c r="B107" s="11"/>
+      <c r="C107" s="13"/>
+      <c r="D107" s="15"/>
+      <c r="E107" s="15"/>
+      <c r="F107" s="11"/>
+      <c r="G107" s="11"/>
+    </row>
+    <row r="108" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="11"/>
+      <c r="B108" s="11"/>
+      <c r="C108" s="13"/>
+      <c r="D108" s="15"/>
+      <c r="E108" s="15"/>
+      <c r="F108" s="11"/>
+      <c r="G108" s="11"/>
+    </row>
+    <row r="109" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="11"/>
+      <c r="B109" s="11"/>
+      <c r="C109" s="13"/>
+      <c r="D109" s="15"/>
+      <c r="E109" s="15"/>
+      <c r="F109" s="11"/>
+      <c r="G109" s="11"/>
+    </row>
+    <row r="110" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="11"/>
+      <c r="B110" s="11"/>
+      <c r="C110" s="13"/>
+      <c r="D110" s="15"/>
+      <c r="E110" s="15"/>
+      <c r="F110" s="11"/>
+      <c r="G110" s="11"/>
+    </row>
+    <row r="111" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="11"/>
+      <c r="B111" s="11"/>
+      <c r="C111" s="13"/>
+      <c r="D111" s="15"/>
+      <c r="E111" s="15"/>
+      <c r="F111" s="11"/>
+      <c r="G111" s="11"/>
+    </row>
+    <row r="112" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="11"/>
+      <c r="B112" s="11"/>
+      <c r="C112" s="13"/>
+      <c r="D112" s="15"/>
+      <c r="E112" s="15"/>
+      <c r="F112" s="11"/>
+      <c r="G112" s="11"/>
+    </row>
+    <row r="113" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A113" s="6"/>
+      <c r="B113" s="6"/>
+      <c r="C113" s="6"/>
+      <c r="D113" s="12"/>
+      <c r="E113" s="12"/>
+      <c r="F113" s="13"/>
+      <c r="G113" s="13"/>
+    </row>
+    <row r="114" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A114" s="6"/>
+      <c r="B114" s="6"/>
+      <c r="C114" s="6"/>
+      <c r="D114" s="12"/>
+      <c r="E114" s="12"/>
+      <c r="F114" s="13"/>
+      <c r="G114" s="13"/>
+    </row>
+    <row r="115" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A115" s="6"/>
+      <c r="B115" s="6"/>
+      <c r="C115" s="6"/>
+      <c r="D115" s="12"/>
+      <c r="E115" s="12"/>
+      <c r="F115" s="13"/>
+      <c r="G115" s="13"/>
+    </row>
+    <row r="116" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A116" s="6"/>
+      <c r="B116" s="6"/>
+      <c r="C116" s="6"/>
+      <c r="D116" s="12"/>
+      <c r="E116" s="12"/>
+      <c r="F116" s="13"/>
+      <c r="G116" s="13"/>
+    </row>
+    <row r="117" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A117" s="6"/>
+      <c r="B117" s="6"/>
+      <c r="C117" s="6"/>
+      <c r="D117" s="12"/>
+      <c r="E117" s="12"/>
+      <c r="F117" s="13"/>
+      <c r="G117" s="13"/>
+    </row>
+    <row r="118" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A118" s="11"/>
+      <c r="B118" s="6"/>
+      <c r="C118" s="11"/>
+      <c r="D118" s="12"/>
+      <c r="E118" s="12"/>
+      <c r="F118" s="13"/>
+      <c r="G118" s="13"/>
+    </row>
+    <row r="119" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A119" s="11"/>
+      <c r="B119" s="6"/>
+      <c r="C119" s="11"/>
+      <c r="D119" s="12"/>
+      <c r="E119" s="12"/>
+      <c r="F119" s="13"/>
+      <c r="G119" s="13"/>
+    </row>
+    <row r="120" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A120" s="11"/>
+      <c r="B120" s="6"/>
+      <c r="C120" s="11"/>
+      <c r="D120" s="12"/>
+      <c r="E120" s="12"/>
+      <c r="F120" s="13"/>
+      <c r="G120" s="13"/>
+    </row>
+    <row r="121" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A121" s="11"/>
+      <c r="B121" s="6"/>
+      <c r="C121" s="11"/>
+      <c r="D121" s="12"/>
+      <c r="E121" s="12"/>
+      <c r="F121" s="13"/>
+      <c r="G121" s="13"/>
+    </row>
+    <row r="122" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A122" s="11"/>
+      <c r="B122" s="6"/>
+      <c r="C122" s="11"/>
+      <c r="D122" s="12"/>
+      <c r="E122" s="12"/>
+      <c r="F122" s="13"/>
+      <c r="G122" s="13"/>
+    </row>
+    <row r="123" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A123" s="11"/>
+      <c r="B123" s="6"/>
+      <c r="C123" s="11"/>
+      <c r="D123" s="12"/>
+      <c r="E123" s="12"/>
+      <c r="F123" s="13"/>
+      <c r="G123" s="13"/>
+    </row>
+    <row r="124" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A124" s="6"/>
+      <c r="B124" s="6"/>
+      <c r="C124" s="7"/>
+      <c r="D124" s="15"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="9"/>
+      <c r="G124" s="9"/>
+    </row>
+    <row r="125" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A125" s="6"/>
+      <c r="B125" s="6"/>
+      <c r="C125" s="7"/>
+      <c r="D125" s="15"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="9"/>
+      <c r="G125" s="9"/>
+    </row>
+    <row r="126" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A126" s="6"/>
+      <c r="B126" s="6"/>
+      <c r="C126" s="7"/>
+      <c r="D126" s="15"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="9"/>
+      <c r="G126" s="9"/>
+    </row>
+    <row r="127" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A127" s="6"/>
+      <c r="B127" s="6"/>
+      <c r="C127" s="7"/>
+      <c r="D127" s="15"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="9"/>
+      <c r="G127" s="9"/>
+    </row>
+    <row r="128" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A128" s="6"/>
+      <c r="B128" s="6"/>
+      <c r="C128" s="10"/>
+      <c r="D128" s="15"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="9"/>
+      <c r="G128" s="9"/>
+    </row>
+    <row r="129" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A129" s="6"/>
+      <c r="B129" s="6"/>
+      <c r="C129" s="7"/>
+      <c r="D129" s="15"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="9"/>
+      <c r="G129" s="9"/>
+    </row>
+    <row r="130" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A130" s="6"/>
+      <c r="B130" s="6"/>
+      <c r="C130" s="7"/>
+      <c r="D130" s="15"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="9"/>
+      <c r="G130" s="9"/>
+    </row>
+    <row r="131" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A131" s="6"/>
+      <c r="B131" s="6"/>
+      <c r="C131" s="7"/>
+      <c r="D131" s="15"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="9"/>
+      <c r="G131" s="9"/>
+    </row>
+    <row r="132" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A132" s="6"/>
+      <c r="B132" s="6"/>
+      <c r="C132" s="7"/>
+      <c r="D132" s="15"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="9"/>
+      <c r="G132" s="9"/>
+    </row>
+    <row r="133" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A133" s="6"/>
+      <c r="B133" s="6"/>
+      <c r="C133" s="7"/>
+      <c r="D133" s="15"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="9"/>
+      <c r="G133" s="9"/>
+    </row>
+    <row r="134" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A134" s="6"/>
+      <c r="B134" s="6"/>
+      <c r="C134" s="7"/>
+      <c r="D134" s="15"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="9"/>
+      <c r="G134" s="9"/>
+    </row>
+    <row r="135" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A135" s="6"/>
+      <c r="B135" s="6"/>
+      <c r="C135" s="7"/>
+      <c r="D135" s="15"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="9"/>
+      <c r="G135" s="9"/>
+    </row>
+    <row r="136" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A136" s="6"/>
+      <c r="B136" s="6"/>
+      <c r="C136" s="7"/>
+      <c r="D136" s="15"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="9"/>
+      <c r="G136" s="9"/>
+    </row>
+    <row r="137" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A137" s="6"/>
+      <c r="B137" s="6"/>
+      <c r="C137" s="7"/>
+      <c r="D137" s="15"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="9"/>
+      <c r="G137" s="9"/>
+    </row>
+    <row r="138" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A138" s="6"/>
+      <c r="B138" s="6"/>
+      <c r="C138" s="7"/>
+      <c r="D138" s="15"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="9"/>
+      <c r="G138" s="9"/>
+    </row>
+    <row r="139" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A139" s="6"/>
+      <c r="B139" s="6"/>
+      <c r="C139" s="7"/>
+      <c r="D139" s="15"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="9"/>
+      <c r="G139" s="9"/>
+    </row>
+    <row r="140" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A140" s="6"/>
+      <c r="B140" s="6"/>
+      <c r="C140" s="7"/>
+      <c r="D140" s="15"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="9"/>
+      <c r="G140" s="9"/>
+    </row>
+    <row r="141" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A141" s="6"/>
+      <c r="B141" s="6"/>
+      <c r="C141" s="7"/>
+      <c r="D141" s="15"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="9"/>
+      <c r="G141" s="9"/>
+    </row>
+    <row r="142" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A142" s="6"/>
+      <c r="B142" s="6"/>
+      <c r="C142" s="10"/>
+      <c r="D142" s="15"/>
+      <c r="E142" s="8"/>
+      <c r="F142" s="9"/>
+      <c r="G142" s="9"/>
+    </row>
+    <row r="143" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A143" s="6"/>
+      <c r="B143" s="6"/>
+      <c r="C143" s="7"/>
+      <c r="D143" s="15"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="9"/>
+      <c r="G143" s="9"/>
+    </row>
+    <row r="144" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A144" s="6"/>
+      <c r="B144" s="6"/>
+      <c r="C144" s="7"/>
+      <c r="D144" s="15"/>
+      <c r="E144" s="8"/>
+      <c r="F144" s="9"/>
+      <c r="G144" s="9"/>
+    </row>
+    <row r="145" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A145" s="6"/>
+      <c r="B145" s="6"/>
+      <c r="C145" s="7"/>
+      <c r="D145" s="15"/>
+      <c r="E145" s="8"/>
+      <c r="F145" s="9"/>
+      <c r="G145" s="9"/>
+    </row>
+    <row r="146" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A146" s="6"/>
+      <c r="B146" s="6"/>
+      <c r="C146" s="7"/>
+      <c r="D146" s="15"/>
+      <c r="E146" s="8"/>
+      <c r="F146" s="9"/>
+      <c r="G146" s="9"/>
+    </row>
+    <row r="147" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A147" s="6"/>
+      <c r="B147" s="6"/>
+      <c r="C147" s="10"/>
+      <c r="D147" s="15"/>
+      <c r="E147" s="8"/>
+      <c r="F147" s="9"/>
+      <c r="G147" s="9"/>
+    </row>
+    <row r="148" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A148" s="6"/>
+      <c r="B148" s="6"/>
+      <c r="C148" s="7"/>
+      <c r="D148" s="15"/>
+      <c r="E148" s="8"/>
+      <c r="F148" s="9"/>
+      <c r="G148" s="9"/>
+    </row>
+    <row r="149" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A149" s="6"/>
+      <c r="B149" s="6"/>
+      <c r="C149" s="7"/>
+      <c r="D149" s="15"/>
+      <c r="E149" s="8"/>
+      <c r="F149" s="9"/>
+      <c r="G149" s="9"/>
+    </row>
+    <row r="150" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A150" s="6"/>
+      <c r="B150" s="6"/>
+      <c r="C150" s="7"/>
+      <c r="D150" s="15"/>
+      <c r="E150" s="8"/>
+      <c r="F150" s="9"/>
+      <c r="G150" s="9"/>
+    </row>
+    <row r="151" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A151" s="6"/>
+      <c r="B151" s="6"/>
+      <c r="C151" s="7"/>
+      <c r="D151" s="15"/>
+      <c r="E151" s="8"/>
+      <c r="F151" s="9"/>
+      <c r="G151" s="9"/>
+    </row>
+    <row r="152" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A152" s="6"/>
+      <c r="B152" s="6"/>
+      <c r="C152" s="7"/>
+      <c r="D152" s="15"/>
+      <c r="E152" s="8"/>
+      <c r="F152" s="9"/>
+      <c r="G152" s="9"/>
+    </row>
+    <row r="153" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A153" s="6"/>
+      <c r="B153" s="6"/>
+      <c r="C153" s="7"/>
+      <c r="D153" s="15"/>
+      <c r="E153" s="8"/>
+      <c r="F153" s="9"/>
+      <c r="G153" s="9"/>
+    </row>
+    <row r="154" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A154" s="11"/>
+      <c r="B154" s="11"/>
+      <c r="C154" s="13"/>
+      <c r="D154" s="15"/>
+      <c r="E154" s="15"/>
+      <c r="F154" s="11"/>
+      <c r="G154" s="11"/>
+    </row>
+    <row r="155" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A155" s="11"/>
+      <c r="B155" s="11"/>
+      <c r="C155" s="13"/>
+      <c r="D155" s="15"/>
+      <c r="E155" s="15"/>
+      <c r="F155" s="11"/>
+      <c r="G155" s="11"/>
+    </row>
+    <row r="156" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A156" s="11"/>
+      <c r="B156" s="11"/>
+      <c r="C156" s="13"/>
+      <c r="D156" s="15"/>
+      <c r="E156" s="15"/>
+      <c r="F156" s="11"/>
+      <c r="G156" s="11"/>
+    </row>
+    <row r="157" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A157" s="11"/>
+      <c r="B157" s="11"/>
+      <c r="C157" s="13"/>
+      <c r="D157" s="15"/>
+      <c r="E157" s="15"/>
+      <c r="F157" s="11"/>
+      <c r="G157" s="11"/>
+    </row>
+    <row r="158" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A158" s="11"/>
+      <c r="B158" s="11"/>
+      <c r="C158" s="13"/>
+      <c r="D158" s="15"/>
+      <c r="E158" s="15"/>
+      <c r="F158" s="11"/>
+      <c r="G158" s="11"/>
+    </row>
+    <row r="159" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A159" s="11"/>
+      <c r="B159" s="11"/>
+      <c r="C159" s="13"/>
+      <c r="D159" s="15"/>
+      <c r="E159" s="15"/>
+      <c r="F159" s="11"/>
+      <c r="G159" s="11"/>
+    </row>
+    <row r="160" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A160" s="11"/>
+      <c r="B160" s="11"/>
+      <c r="C160" s="13"/>
+      <c r="D160" s="15"/>
+      <c r="E160" s="15"/>
+      <c r="F160" s="11"/>
+      <c r="G160" s="11"/>
+    </row>
+    <row r="161" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A161" s="11"/>
+      <c r="B161" s="11"/>
+      <c r="C161" s="13"/>
+      <c r="D161" s="15"/>
+      <c r="E161" s="15"/>
+      <c r="F161" s="11"/>
+      <c r="G161" s="11"/>
+    </row>
+    <row r="162" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A162" s="11"/>
+      <c r="B162" s="11"/>
+      <c r="C162" s="13"/>
+      <c r="D162" s="15"/>
+      <c r="E162" s="15"/>
+      <c r="F162" s="11"/>
+      <c r="G162" s="11"/>
+    </row>
+    <row r="163" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A163" s="11"/>
+      <c r="B163" s="11"/>
+      <c r="C163" s="13"/>
+      <c r="D163" s="15"/>
+      <c r="E163" s="15"/>
+      <c r="F163" s="11"/>
+      <c r="G163" s="11"/>
+    </row>
+    <row r="164" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A164" s="11"/>
+      <c r="B164" s="11"/>
+      <c r="C164" s="13"/>
+      <c r="D164" s="15"/>
+      <c r="E164" s="15"/>
+      <c r="F164" s="11"/>
+      <c r="G164" s="11"/>
+    </row>
+    <row r="165" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A165" s="11"/>
+      <c r="B165" s="11"/>
+      <c r="C165" s="13"/>
+      <c r="D165" s="15"/>
+      <c r="E165" s="15"/>
+      <c r="F165" s="11"/>
+      <c r="G165" s="11"/>
+    </row>
+    <row r="166" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A166" s="11"/>
+      <c r="B166" s="11"/>
+      <c r="C166" s="13"/>
+      <c r="D166" s="15"/>
+      <c r="E166" s="15"/>
+      <c r="F166" s="11"/>
+      <c r="G166" s="11"/>
+    </row>
+    <row r="167" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A167" s="11"/>
+      <c r="B167" s="11"/>
+      <c r="C167" s="13"/>
+      <c r="D167" s="15"/>
+      <c r="E167" s="15"/>
+      <c r="F167" s="11"/>
+      <c r="G167" s="11"/>
+    </row>
+    <row r="168" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A168" s="11"/>
+      <c r="B168" s="11"/>
+      <c r="C168" s="13"/>
+      <c r="D168" s="15"/>
+      <c r="E168" s="15"/>
+      <c r="F168" s="11"/>
+      <c r="G168" s="11"/>
+    </row>
+    <row r="169" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A169" s="11"/>
+      <c r="B169" s="11"/>
+      <c r="C169" s="13"/>
+      <c r="D169" s="15"/>
+      <c r="E169" s="15"/>
+      <c r="F169" s="11"/>
+      <c r="G169" s="11"/>
+    </row>
+    <row r="170" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A170" s="11"/>
+      <c r="B170" s="11"/>
+      <c r="C170" s="13"/>
+      <c r="D170" s="15"/>
+      <c r="E170" s="15"/>
+      <c r="F170" s="11"/>
+      <c r="G170" s="11"/>
+    </row>
+    <row r="171" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A171" s="11"/>
+      <c r="B171" s="11"/>
+      <c r="C171" s="13"/>
+      <c r="D171" s="15"/>
+      <c r="E171" s="15"/>
+      <c r="F171" s="11"/>
+      <c r="G171" s="11"/>
+    </row>
+    <row r="172" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A172" s="11"/>
+      <c r="B172" s="11"/>
+      <c r="C172" s="13"/>
+      <c r="D172" s="15"/>
+      <c r="E172" s="15"/>
+      <c r="F172" s="11"/>
+      <c r="G172" s="11"/>
+    </row>
+    <row r="173" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A173" s="11"/>
+      <c r="B173" s="11"/>
+      <c r="C173" s="13"/>
+      <c r="D173" s="15"/>
+      <c r="E173" s="15"/>
+      <c r="F173" s="11"/>
+      <c r="G173" s="11"/>
+    </row>
+    <row r="174" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A174" s="11"/>
+      <c r="B174" s="11"/>
+      <c r="C174" s="13"/>
+      <c r="D174" s="15"/>
+      <c r="E174" s="15"/>
+      <c r="F174" s="11"/>
+      <c r="G174" s="11"/>
+    </row>
+    <row r="175" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A175" s="11"/>
+      <c r="B175" s="11"/>
+      <c r="C175" s="13"/>
+      <c r="D175" s="15"/>
+      <c r="E175" s="15"/>
+      <c r="F175" s="11"/>
+      <c r="G175" s="11"/>
+    </row>
+    <row r="176" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A176" s="11"/>
+      <c r="B176" s="11"/>
+      <c r="C176" s="13"/>
+      <c r="D176" s="15"/>
+      <c r="E176" s="15"/>
+      <c r="F176" s="11"/>
+      <c r="G176" s="11"/>
+    </row>
+    <row r="177" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A177" s="11"/>
+      <c r="B177" s="11"/>
+      <c r="C177" s="13"/>
+      <c r="D177" s="15"/>
+      <c r="E177" s="15"/>
+      <c r="F177" s="11"/>
+      <c r="G177" s="11"/>
+    </row>
+    <row r="178" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A178" s="11"/>
+      <c r="B178" s="13"/>
+      <c r="C178" s="13"/>
+      <c r="D178" s="15"/>
+      <c r="E178" s="15"/>
+      <c r="F178" s="11"/>
+      <c r="G178" s="11"/>
+    </row>
+    <row r="179" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A179" s="11"/>
+      <c r="B179" s="11"/>
+      <c r="C179" s="13"/>
+      <c r="D179" s="15"/>
+      <c r="E179" s="15"/>
+      <c r="F179" s="11"/>
+      <c r="G179" s="11"/>
+    </row>
+    <row r="180" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A180" s="11"/>
+      <c r="B180" s="11"/>
+      <c r="C180" s="13"/>
+      <c r="D180" s="15"/>
+      <c r="E180" s="15"/>
+      <c r="F180" s="11"/>
+      <c r="G180" s="11"/>
+    </row>
+    <row r="181" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A181" s="11"/>
+      <c r="B181" s="11"/>
+      <c r="C181" s="13"/>
+      <c r="D181" s="15"/>
+      <c r="E181" s="15"/>
+      <c r="F181" s="11"/>
+      <c r="G181" s="11"/>
+    </row>
+    <row r="182" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A182" s="11"/>
+      <c r="B182" s="11"/>
+      <c r="C182" s="13"/>
+      <c r="D182" s="15"/>
+      <c r="E182" s="15"/>
+      <c r="F182" s="11"/>
+      <c r="G182" s="11"/>
+    </row>
+    <row r="183" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A183" s="11"/>
+      <c r="B183" s="11"/>
+      <c r="C183" s="13"/>
+      <c r="D183" s="15"/>
+      <c r="E183" s="15"/>
+      <c r="F183" s="11"/>
+      <c r="G183" s="11"/>
+    </row>
+    <row r="184" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A184" s="11"/>
+      <c r="B184" s="11"/>
+      <c r="C184" s="13"/>
+      <c r="D184" s="15"/>
+      <c r="E184" s="15"/>
+      <c r="F184" s="11"/>
+      <c r="G184" s="11"/>
+    </row>
+    <row r="185" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A185" s="11"/>
+      <c r="B185" s="11"/>
+      <c r="C185" s="13"/>
+      <c r="D185" s="15"/>
+      <c r="E185" s="15"/>
+      <c r="F185" s="11"/>
+      <c r="G185" s="11"/>
+    </row>
+    <row r="186" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A186" s="11"/>
+      <c r="B186" s="11"/>
+      <c r="C186" s="13"/>
+      <c r="D186" s="15"/>
+      <c r="E186" s="15"/>
+      <c r="F186" s="11"/>
+      <c r="G186" s="11"/>
+    </row>
+    <row r="187" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A187" s="11"/>
+      <c r="B187" s="11"/>
+      <c r="C187" s="13"/>
+      <c r="D187" s="15"/>
+      <c r="E187" s="15"/>
+      <c r="F187" s="11"/>
+      <c r="G187" s="11"/>
+    </row>
+    <row r="188" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A188" s="11"/>
+      <c r="B188" s="11"/>
+      <c r="C188" s="13"/>
+      <c r="D188" s="15"/>
+      <c r="E188" s="15"/>
+      <c r="F188" s="11"/>
+      <c r="G188" s="11"/>
+    </row>
+    <row r="189" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A189" s="11"/>
+      <c r="B189" s="11"/>
+      <c r="C189" s="13"/>
+      <c r="D189" s="15"/>
+      <c r="E189" s="15"/>
+      <c r="F189" s="11"/>
+      <c r="G189" s="11"/>
+    </row>
+    <row r="190" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A190" s="11"/>
+      <c r="B190" s="11"/>
+      <c r="C190" s="13"/>
+      <c r="D190" s="15"/>
+      <c r="E190" s="15"/>
+      <c r="F190" s="11"/>
+      <c r="G190" s="11"/>
+    </row>
+    <row r="191" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A191" s="11"/>
+      <c r="B191" s="11"/>
+      <c r="C191" s="13"/>
+      <c r="D191" s="15"/>
+      <c r="E191" s="15"/>
+      <c r="F191" s="11"/>
+      <c r="G191" s="11"/>
+    </row>
+    <row r="192" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A192" s="6"/>
+      <c r="B192" s="6"/>
+      <c r="C192" s="7"/>
+      <c r="D192" s="8"/>
+      <c r="E192" s="8"/>
+      <c r="F192" s="9"/>
+      <c r="G192" s="9"/>
+    </row>
+    <row r="193" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A193" s="6"/>
+      <c r="B193" s="6"/>
+      <c r="C193" s="7"/>
+      <c r="D193" s="8"/>
+      <c r="E193" s="8"/>
+      <c r="F193" s="9"/>
+      <c r="G193" s="9"/>
+    </row>
+    <row r="194" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A194" s="6"/>
+      <c r="B194" s="6"/>
+      <c r="C194" s="7"/>
+      <c r="D194" s="8"/>
+      <c r="E194" s="8"/>
+      <c r="F194" s="9"/>
+      <c r="G194" s="9"/>
+    </row>
+    <row r="195" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A195" s="6"/>
+      <c r="B195" s="6"/>
+      <c r="C195" s="7"/>
+      <c r="D195" s="8"/>
+      <c r="E195" s="8"/>
+      <c r="F195" s="9"/>
+      <c r="G195" s="9"/>
+    </row>
+    <row r="196" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A196" s="6"/>
+      <c r="B196" s="6"/>
+      <c r="C196" s="7"/>
+      <c r="D196" s="8"/>
+      <c r="E196" s="8"/>
+      <c r="F196" s="9"/>
+      <c r="G196" s="9"/>
+    </row>
+    <row r="197" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A197" s="6"/>
+      <c r="B197" s="6"/>
+      <c r="C197" s="7"/>
+      <c r="D197" s="8"/>
+      <c r="E197" s="8"/>
+      <c r="F197" s="9"/>
+      <c r="G197" s="9"/>
+    </row>
+    <row r="198" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A198" s="11"/>
+      <c r="B198" s="11"/>
+      <c r="C198" s="13"/>
+      <c r="D198" s="15"/>
+      <c r="E198" s="15"/>
+      <c r="F198" s="11"/>
+      <c r="G198" s="11"/>
+    </row>
+    <row r="199" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A199" s="11"/>
+      <c r="B199" s="11"/>
+      <c r="C199" s="13"/>
+      <c r="D199" s="15"/>
+      <c r="E199" s="15"/>
+      <c r="F199" s="11"/>
+      <c r="G199" s="11"/>
+    </row>
+    <row r="200" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A200" s="11"/>
+      <c r="B200" s="13"/>
+      <c r="C200" s="13"/>
+      <c r="D200" s="15"/>
+      <c r="E200" s="15"/>
+      <c r="F200" s="11"/>
+      <c r="G200" s="11"/>
+    </row>
+    <row r="201" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A201" s="11"/>
+      <c r="B201" s="11"/>
+      <c r="C201" s="13"/>
+      <c r="D201" s="15"/>
+      <c r="E201" s="15"/>
+      <c r="F201" s="11"/>
+      <c r="G201" s="11"/>
+    </row>
+    <row r="202" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A202" s="11"/>
+      <c r="B202" s="11"/>
+      <c r="C202" s="13"/>
+      <c r="D202" s="15"/>
+      <c r="E202" s="15"/>
+      <c r="F202" s="11"/>
+      <c r="G202" s="11"/>
+    </row>
+    <row r="203" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A203" s="11"/>
+      <c r="B203" s="11"/>
+      <c r="C203" s="13"/>
+      <c r="D203" s="15"/>
+      <c r="E203" s="15"/>
+      <c r="F203" s="11"/>
+      <c r="G203" s="11"/>
+    </row>
+    <row r="204" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A204" s="11"/>
+      <c r="B204" s="11"/>
+      <c r="C204" s="13"/>
+      <c r="D204" s="15"/>
+      <c r="E204" s="15"/>
+      <c r="F204" s="11"/>
+      <c r="G204" s="11"/>
+    </row>
+    <row r="205" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A205" s="11"/>
+      <c r="B205" s="11"/>
+      <c r="C205" s="13"/>
+      <c r="D205" s="15"/>
+      <c r="E205" s="15"/>
+      <c r="F205" s="11"/>
+      <c r="G205" s="11"/>
+    </row>
+    <row r="206" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A206" s="11"/>
+      <c r="B206" s="11"/>
+      <c r="C206" s="13"/>
+      <c r="D206" s="15"/>
+      <c r="E206" s="15"/>
+      <c r="F206" s="11"/>
+      <c r="G206" s="11"/>
+    </row>
+    <row r="207" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A207" s="11"/>
+      <c r="B207" s="11"/>
+      <c r="C207" s="13"/>
+      <c r="D207" s="15"/>
+      <c r="E207" s="15"/>
+      <c r="F207" s="11"/>
+      <c r="G207" s="11"/>
+    </row>
+    <row r="208" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A208" s="11"/>
+      <c r="B208" s="11"/>
+      <c r="C208" s="13"/>
+      <c r="D208" s="15"/>
+      <c r="E208" s="15"/>
+      <c r="F208" s="11"/>
+      <c r="G208" s="11"/>
+    </row>
+    <row r="209" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A209" s="11"/>
+      <c r="B209" s="11"/>
+      <c r="C209" s="13"/>
+      <c r="D209" s="15"/>
+      <c r="E209" s="15"/>
+      <c r="F209" s="11"/>
+      <c r="G209" s="11"/>
+    </row>
+    <row r="210" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A210" s="11"/>
+      <c r="B210" s="11"/>
+      <c r="C210" s="13"/>
+      <c r="D210" s="15"/>
+      <c r="E210" s="15"/>
+      <c r="F210" s="11"/>
+      <c r="G210" s="11"/>
+    </row>
+    <row r="211" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A211" s="11"/>
+      <c r="B211" s="11"/>
+      <c r="C211" s="13"/>
+      <c r="D211" s="15"/>
+      <c r="E211" s="15"/>
+      <c r="F211" s="11"/>
+      <c r="G211" s="11"/>
+    </row>
+    <row r="212" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A212" s="11"/>
+      <c r="B212" s="11"/>
+      <c r="C212" s="13"/>
+      <c r="D212" s="15"/>
+      <c r="E212" s="15"/>
+      <c r="F212" s="11"/>
+      <c r="G212" s="11"/>
+    </row>
+    <row r="213" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A213" s="11"/>
+      <c r="B213" s="11"/>
+      <c r="C213" s="13"/>
+      <c r="D213" s="15"/>
+      <c r="E213" s="15"/>
+      <c r="F213" s="11"/>
+      <c r="G213" s="11"/>
+    </row>
+    <row r="214" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A214" s="11"/>
+      <c r="B214" s="11"/>
+      <c r="C214" s="11"/>
+      <c r="D214" s="8"/>
+      <c r="E214" s="8"/>
+      <c r="F214" s="9"/>
+      <c r="G214" s="9"/>
+    </row>
+    <row r="215" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A215" s="11"/>
+      <c r="B215" s="11"/>
+      <c r="C215" s="11"/>
+      <c r="D215" s="8"/>
+      <c r="E215" s="8"/>
+      <c r="F215" s="9"/>
+      <c r="G215" s="9"/>
+    </row>
+    <row r="216" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A216" s="11"/>
+      <c r="B216" s="11"/>
+      <c r="C216" s="11"/>
+      <c r="D216" s="8"/>
+      <c r="E216" s="8"/>
+      <c r="F216" s="9"/>
+      <c r="G216" s="9"/>
+    </row>
+    <row r="217" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A217" s="11"/>
+      <c r="B217" s="11"/>
+      <c r="C217" s="11"/>
+      <c r="D217" s="8"/>
+      <c r="E217" s="8"/>
+      <c r="F217" s="9"/>
+      <c r="G217" s="9"/>
+    </row>
+    <row r="218" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A218" s="11"/>
+      <c r="B218" s="11"/>
+      <c r="C218" s="11"/>
+      <c r="D218" s="8"/>
+      <c r="E218" s="8"/>
+      <c r="F218" s="9"/>
+      <c r="G218" s="9"/>
+    </row>
+    <row r="219" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A219" s="11"/>
+      <c r="B219" s="11"/>
+      <c r="C219" s="11"/>
+      <c r="D219" s="8"/>
+      <c r="E219" s="8"/>
+      <c r="F219" s="9"/>
+      <c r="G219" s="9"/>
+    </row>
+    <row r="220" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A220" s="11"/>
+      <c r="B220" s="11"/>
+      <c r="C220" s="11"/>
+      <c r="D220" s="8"/>
+      <c r="E220" s="8"/>
+      <c r="F220" s="9"/>
+      <c r="G220" s="9"/>
+    </row>
+    <row r="221" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A221" s="11"/>
+      <c r="B221" s="11"/>
+      <c r="C221" s="11"/>
+      <c r="D221" s="8"/>
+      <c r="E221" s="8"/>
+      <c r="F221" s="9"/>
+      <c r="G221" s="9"/>
+    </row>
+    <row r="222" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A222" s="11"/>
+      <c r="B222" s="11"/>
+      <c r="C222" s="11"/>
+      <c r="D222" s="8"/>
+      <c r="E222" s="8"/>
+      <c r="F222" s="9"/>
+      <c r="G222" s="9"/>
+    </row>
+    <row r="223" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A223" s="11"/>
+      <c r="B223" s="11"/>
+      <c r="C223" s="11"/>
+      <c r="D223" s="8"/>
+      <c r="E223" s="8"/>
+      <c r="F223" s="9"/>
+      <c r="G223" s="9"/>
+    </row>
+    <row r="224" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A224" s="11"/>
+      <c r="B224" s="11"/>
+      <c r="C224" s="11"/>
+      <c r="D224" s="8"/>
+      <c r="E224" s="8"/>
+      <c r="F224" s="9"/>
+      <c r="G224" s="9"/>
+    </row>
+    <row r="225" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A225" s="11"/>
+      <c r="B225" s="11"/>
+      <c r="C225" s="11"/>
+      <c r="D225" s="8"/>
+      <c r="E225" s="8"/>
+      <c r="F225" s="9"/>
+      <c r="G225" s="9"/>
+    </row>
+    <row r="226" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A226" s="11"/>
+      <c r="B226" s="11"/>
+      <c r="C226" s="11"/>
+      <c r="D226" s="8"/>
+      <c r="E226" s="8"/>
+      <c r="F226" s="9"/>
+      <c r="G226" s="9"/>
+    </row>
+    <row r="227" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A227" s="11"/>
+      <c r="B227" s="11"/>
+      <c r="C227" s="11"/>
+      <c r="D227" s="8"/>
+      <c r="E227" s="8"/>
+      <c r="F227" s="9"/>
+      <c r="G227" s="9"/>
+    </row>
+    <row r="228" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A228" s="11"/>
+      <c r="B228" s="11"/>
+      <c r="C228" s="11"/>
+      <c r="D228" s="8"/>
+      <c r="E228" s="8"/>
+      <c r="F228" s="9"/>
+      <c r="G228" s="9"/>
+    </row>
+    <row r="229" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A229" s="11"/>
+      <c r="B229" s="11"/>
+      <c r="C229" s="11"/>
+      <c r="D229" s="8"/>
+      <c r="E229" s="8"/>
+      <c r="F229" s="9"/>
+      <c r="G229" s="9"/>
+    </row>
+    <row r="230" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A230" s="11"/>
+      <c r="B230" s="11"/>
+      <c r="C230" s="11"/>
+      <c r="D230" s="8"/>
+      <c r="E230" s="8"/>
+      <c r="F230" s="9"/>
+      <c r="G230" s="9"/>
+    </row>
+    <row r="231" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A231" s="11"/>
+      <c r="B231" s="11"/>
+      <c r="C231" s="11"/>
+      <c r="D231" s="8"/>
+      <c r="E231" s="8"/>
+      <c r="F231" s="9"/>
+      <c r="G231" s="9"/>
+    </row>
+    <row r="232" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A232" s="11"/>
+      <c r="B232" s="11"/>
+      <c r="C232" s="11"/>
+      <c r="D232" s="8"/>
+      <c r="E232" s="8"/>
+      <c r="F232" s="9"/>
+      <c r="G232" s="9"/>
+    </row>
+    <row r="233" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A233" s="11"/>
+      <c r="B233" s="11"/>
+      <c r="C233" s="11"/>
+      <c r="D233" s="8"/>
+      <c r="E233" s="8"/>
+      <c r="F233" s="9"/>
+      <c r="G233" s="9"/>
+    </row>
+    <row r="234" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A234" s="11"/>
+      <c r="B234" s="11"/>
+      <c r="C234" s="11"/>
+      <c r="D234" s="8"/>
+      <c r="E234" s="8"/>
+      <c r="F234" s="9"/>
+      <c r="G234" s="9"/>
+    </row>
+    <row r="235" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A235" s="11"/>
+      <c r="B235" s="11"/>
+      <c r="C235" s="11"/>
+      <c r="D235" s="8"/>
+      <c r="E235" s="8"/>
+      <c r="F235" s="9"/>
+      <c r="G235" s="9"/>
+    </row>
+    <row r="236" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A236" s="11"/>
+      <c r="B236" s="11"/>
+      <c r="C236" s="11"/>
+      <c r="D236" s="8"/>
+      <c r="E236" s="8"/>
+      <c r="F236" s="9"/>
+      <c r="G236" s="9"/>
+    </row>
+    <row r="237" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A237" s="11"/>
+      <c r="B237" s="11"/>
+      <c r="C237" s="11"/>
+      <c r="D237" s="8"/>
+      <c r="E237" s="8"/>
+      <c r="F237" s="9"/>
+      <c r="G237" s="9"/>
+    </row>
+    <row r="238" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A238" s="11"/>
+      <c r="B238" s="11"/>
+      <c r="C238" s="11"/>
+      <c r="D238" s="8"/>
+      <c r="E238" s="8"/>
+      <c r="F238" s="9"/>
+      <c r="G238" s="9"/>
+    </row>
+    <row r="239" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A239" s="11"/>
+      <c r="B239" s="11"/>
+      <c r="C239" s="11"/>
+      <c r="D239" s="8"/>
+      <c r="E239" s="8"/>
+      <c r="F239" s="9"/>
+      <c r="G239" s="9"/>
+    </row>
+    <row r="240" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A240" s="11"/>
+      <c r="B240" s="11"/>
+      <c r="C240" s="11"/>
+      <c r="D240" s="8"/>
+      <c r="E240" s="8"/>
+      <c r="F240" s="9"/>
+      <c r="G240" s="9"/>
+    </row>
+    <row r="241" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A241" s="11"/>
+      <c r="B241" s="11"/>
+      <c r="C241" s="11"/>
+      <c r="D241" s="8"/>
+      <c r="E241" s="8"/>
+      <c r="F241" s="9"/>
+      <c r="G241" s="9"/>
+    </row>
+    <row r="242" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A242" s="11"/>
+      <c r="B242" s="11"/>
+      <c r="C242" s="11"/>
+      <c r="D242" s="8"/>
+      <c r="E242" s="8"/>
+      <c r="F242" s="9"/>
+      <c r="G242" s="9"/>
+    </row>
+    <row r="243" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A243" s="11"/>
+      <c r="B243" s="11"/>
+      <c r="C243" s="11"/>
+      <c r="D243" s="8"/>
+      <c r="E243" s="8"/>
+      <c r="F243" s="9"/>
+      <c r="G243" s="9"/>
+    </row>
+    <row r="244" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A244" s="11"/>
+      <c r="B244" s="11"/>
+      <c r="C244" s="11"/>
+      <c r="D244" s="8"/>
+      <c r="E244" s="8"/>
+      <c r="F244" s="9"/>
+      <c r="G244" s="9"/>
+    </row>
+    <row r="245" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A245" s="11"/>
+      <c r="B245" s="11"/>
+      <c r="C245" s="11"/>
+      <c r="D245" s="8"/>
+      <c r="E245" s="8"/>
+      <c r="F245" s="9"/>
+      <c r="G245" s="9"/>
+    </row>
+    <row r="246" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A246" s="11"/>
+      <c r="B246" s="11"/>
+      <c r="C246" s="11"/>
+      <c r="D246" s="8"/>
+      <c r="E246" s="8"/>
+      <c r="F246" s="9"/>
+      <c r="G246" s="9"/>
+    </row>
+    <row r="247" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A247" s="11"/>
+      <c r="B247" s="11"/>
+      <c r="C247" s="11"/>
+      <c r="D247" s="8"/>
+      <c r="E247" s="8"/>
+      <c r="F247" s="9"/>
+      <c r="G247" s="9"/>
+    </row>
+    <row r="248" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A248" s="11"/>
+      <c r="B248" s="11"/>
+      <c r="C248" s="11"/>
+      <c r="D248" s="8"/>
+      <c r="E248" s="8"/>
+      <c r="F248" s="9"/>
+      <c r="G248" s="9"/>
+    </row>
+    <row r="249" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A249" s="11"/>
+      <c r="B249" s="11"/>
+      <c r="C249" s="11"/>
+      <c r="D249" s="8"/>
+      <c r="E249" s="8"/>
+      <c r="F249" s="9"/>
+      <c r="G249" s="9"/>
+    </row>
+    <row r="250" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A250" s="11"/>
+      <c r="B250" s="11"/>
+      <c r="C250" s="11"/>
+      <c r="D250" s="8"/>
+      <c r="E250" s="8"/>
+      <c r="F250" s="9"/>
+      <c r="G250" s="9"/>
+    </row>
+    <row r="251" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A251" s="11"/>
+      <c r="B251" s="11"/>
+      <c r="C251" s="11"/>
+      <c r="D251" s="8"/>
+      <c r="E251" s="8"/>
+      <c r="F251" s="9"/>
+      <c r="G251" s="9"/>
+    </row>
+    <row r="252" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A252" s="11"/>
+      <c r="B252" s="11"/>
+      <c r="C252" s="11"/>
+      <c r="D252" s="8"/>
+      <c r="E252" s="8"/>
+      <c r="F252" s="9"/>
+      <c r="G252" s="9"/>
+    </row>
+    <row r="253" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A253" s="11"/>
+      <c r="B253" s="11"/>
+      <c r="C253" s="11"/>
+      <c r="D253" s="8"/>
+      <c r="E253" s="8"/>
+      <c r="F253" s="9"/>
+      <c r="G253" s="9"/>
+    </row>
+    <row r="254" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A254" s="11"/>
+      <c r="B254" s="11"/>
+      <c r="C254" s="11"/>
+      <c r="D254" s="8"/>
+      <c r="E254" s="8"/>
+      <c r="F254" s="9"/>
+      <c r="G254" s="9"/>
+    </row>
+    <row r="255" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A255" s="11"/>
+      <c r="B255" s="11"/>
+      <c r="C255" s="11"/>
+      <c r="D255" s="8"/>
+      <c r="E255" s="8"/>
+      <c r="F255" s="9"/>
+      <c r="G255" s="9"/>
+    </row>
+    <row r="256" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A256" s="11"/>
+      <c r="B256" s="11"/>
+      <c r="C256" s="11"/>
+      <c r="D256" s="8"/>
+      <c r="E256" s="8"/>
+      <c r="F256" s="9"/>
+      <c r="G256" s="9"/>
+    </row>
+    <row r="257" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A257" s="11"/>
+      <c r="B257" s="11"/>
+      <c r="C257" s="11"/>
+      <c r="D257" s="8"/>
+      <c r="E257" s="8"/>
+      <c r="F257" s="9"/>
+      <c r="G257" s="9"/>
+    </row>
+    <row r="258" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A258" s="11"/>
+      <c r="B258" s="11"/>
+      <c r="C258" s="11"/>
+      <c r="D258" s="8"/>
+      <c r="E258" s="8"/>
+      <c r="F258" s="9"/>
+      <c r="G258" s="9"/>
+    </row>
+    <row r="259" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A259" s="11"/>
+      <c r="B259" s="11"/>
+      <c r="C259" s="11"/>
+      <c r="D259" s="8"/>
+      <c r="E259" s="8"/>
+      <c r="F259" s="9"/>
+      <c r="G259" s="9"/>
+    </row>
+    <row r="260" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A260" s="11"/>
+      <c r="B260" s="11"/>
+      <c r="C260" s="11"/>
+      <c r="D260" s="8"/>
+      <c r="E260" s="8"/>
+      <c r="F260" s="9"/>
+      <c r="G260" s="9"/>
+    </row>
+    <row r="261" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A261" s="11"/>
+      <c r="B261" s="11"/>
+      <c r="C261" s="11"/>
+      <c r="D261" s="8"/>
+      <c r="E261" s="8"/>
+      <c r="F261" s="9"/>
+      <c r="G261" s="9"/>
+    </row>
+    <row r="262" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A262" s="11"/>
+      <c r="B262" s="11"/>
+      <c r="C262" s="11"/>
+      <c r="D262" s="8"/>
+      <c r="E262" s="8"/>
+      <c r="F262" s="9"/>
+      <c r="G262" s="9"/>
+    </row>
+    <row r="263" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A263" s="11"/>
+      <c r="B263" s="11"/>
+      <c r="C263" s="11"/>
+      <c r="D263" s="8"/>
+      <c r="E263" s="8"/>
+      <c r="F263" s="9"/>
+      <c r="G263" s="9"/>
+    </row>
+    <row r="264" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A264" s="11"/>
+      <c r="B264" s="11"/>
+      <c r="C264" s="11"/>
+      <c r="D264" s="8"/>
+      <c r="E264" s="8"/>
+      <c r="F264" s="9"/>
+      <c r="G264" s="9"/>
+    </row>
+    <row r="265" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A265" s="11"/>
+      <c r="B265" s="11"/>
+      <c r="C265" s="11"/>
+      <c r="D265" s="8"/>
+      <c r="E265" s="8"/>
+      <c r="F265" s="9"/>
+      <c r="G265" s="9"/>
+    </row>
+    <row r="266" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A266" s="11"/>
+      <c r="B266" s="11"/>
+      <c r="C266" s="11"/>
+      <c r="D266" s="8"/>
+      <c r="E266" s="8"/>
+      <c r="F266" s="9"/>
+      <c r="G266" s="9"/>
+    </row>
+    <row r="267" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A267" s="11"/>
+      <c r="B267" s="11"/>
+      <c r="C267" s="11"/>
+      <c r="D267" s="8"/>
+      <c r="E267" s="8"/>
+      <c r="F267" s="9"/>
+      <c r="G267" s="9"/>
+    </row>
+    <row r="268" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A268" s="11"/>
+      <c r="B268" s="11"/>
+      <c r="C268" s="11"/>
+      <c r="D268" s="8"/>
+      <c r="E268" s="8"/>
+      <c r="F268" s="9"/>
+      <c r="G268" s="9"/>
+    </row>
+    <row r="269" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A269" s="11"/>
+      <c r="B269" s="11"/>
+      <c r="C269" s="11"/>
+      <c r="D269" s="8"/>
+      <c r="E269" s="8"/>
+      <c r="F269" s="9"/>
+      <c r="G269" s="9"/>
+    </row>
+    <row r="270" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A270" s="11"/>
+      <c r="B270" s="11"/>
+      <c r="C270" s="11"/>
+      <c r="D270" s="8"/>
+      <c r="E270" s="8"/>
+      <c r="F270" s="9"/>
+      <c r="G270" s="9"/>
+    </row>
+    <row r="271" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A271" s="11"/>
+      <c r="B271" s="11"/>
+      <c r="C271" s="11"/>
+      <c r="D271" s="8"/>
+      <c r="E271" s="8"/>
+      <c r="F271" s="9"/>
+      <c r="G271" s="9"/>
+    </row>
+    <row r="272" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A272" s="11"/>
+      <c r="B272" s="11"/>
+      <c r="C272" s="11"/>
+      <c r="D272" s="8"/>
+      <c r="E272" s="8"/>
+      <c r="F272" s="9"/>
+      <c r="G272" s="9"/>
+    </row>
+    <row r="273" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A273" s="11"/>
+      <c r="B273" s="11"/>
+      <c r="C273" s="11"/>
+      <c r="D273" s="8"/>
+      <c r="E273" s="8"/>
+      <c r="F273" s="9"/>
+      <c r="G273" s="9"/>
+    </row>
+    <row r="274" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A274" s="11"/>
+      <c r="B274" s="11"/>
+      <c r="C274" s="11"/>
+      <c r="D274" s="8"/>
+      <c r="E274" s="8"/>
+      <c r="F274" s="9"/>
+      <c r="G274" s="9"/>
+    </row>
+    <row r="275" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A275" s="11"/>
+      <c r="B275" s="11"/>
+      <c r="C275" s="11"/>
+      <c r="D275" s="8"/>
+      <c r="E275" s="8"/>
+      <c r="F275" s="9"/>
+      <c r="G275" s="9"/>
+    </row>
+    <row r="276" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A276" s="11"/>
+      <c r="B276" s="11"/>
+      <c r="C276" s="11"/>
+      <c r="D276" s="8"/>
+      <c r="E276" s="8"/>
+      <c r="F276" s="9"/>
+      <c r="G276" s="9"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" location="" tooltip="" display=""/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511806" footer="0.511806"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="D104">
+    <cfRule type="cellIs" dxfId="66" priority="277" operator="equal">
+      <formula>2500</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D105">
+    <cfRule type="cellIs" dxfId="65" priority="276" operator="equal">
+      <formula>2500</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D106">
+    <cfRule type="cellIs" dxfId="64" priority="275" operator="equal">
+      <formula>2500</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D107">
+    <cfRule type="cellIs" dxfId="63" priority="274" operator="equal">
+      <formula>2500</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D108">
+    <cfRule type="cellIs" dxfId="62" priority="273" operator="equal">
+      <formula>2500</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D109">
+    <cfRule type="cellIs" dxfId="61" priority="272" operator="equal">
+      <formula>2500</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D110">
+    <cfRule type="cellIs" dxfId="60" priority="271" operator="equal">
+      <formula>2500</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D111">
+    <cfRule type="cellIs" dxfId="59" priority="270" operator="equal">
+      <formula>2500</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D112">
+    <cfRule type="cellIs" dxfId="58" priority="269" operator="equal">
+      <formula>2500</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D154">
+    <cfRule type="cellIs" dxfId="57" priority="611" operator="equal">
+      <formula>2500</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D155">
+    <cfRule type="cellIs" dxfId="56" priority="610" operator="equal">
+      <formula>2500</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D156">
+    <cfRule type="cellIs" dxfId="55" priority="609" operator="equal">
+      <formula>2500</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D157">
+    <cfRule type="cellIs" dxfId="54" priority="608" operator="equal">
+      <formula>2500</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D158">
+    <cfRule type="cellIs" dxfId="53" priority="607" operator="equal">
+      <formula>2500</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D159">
+    <cfRule type="cellIs" dxfId="52" priority="606" operator="equal">
+      <formula>2500</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D160">
+    <cfRule type="cellIs" dxfId="51" priority="605" operator="equal">
+      <formula>2500</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D161">
+    <cfRule type="cellIs" dxfId="50" priority="604" operator="equal">
+      <formula>2500</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D162">
+    <cfRule type="cellIs" dxfId="49" priority="603" operator="equal">
+      <formula>2500</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D163">
+    <cfRule type="cellIs" dxfId="48" priority="602" operator="equal">
+      <formula>2500</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D164">
+    <cfRule type="cellIs" dxfId="47" priority="601" operator="equal">
+      <formula>2500</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D165">
+    <cfRule type="cellIs" dxfId="46" priority="600" operator="equal">
+      <formula>2500</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D166">
+    <cfRule type="cellIs" dxfId="45" priority="599" operator="equal">
+      <formula>2500</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D167">
+    <cfRule type="cellIs" dxfId="44" priority="598" operator="equal">
+      <formula>2500</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D168">
+    <cfRule type="cellIs" dxfId="43" priority="597" operator="equal">
+      <formula>2500</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D169">
+    <cfRule type="cellIs" dxfId="42" priority="596" operator="equal">
+      <formula>2500</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D170">
+    <cfRule type="cellIs" dxfId="41" priority="595" operator="equal">
+      <formula>2500</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D171">
+    <cfRule type="cellIs" dxfId="40" priority="594" operator="equal">
+      <formula>2500</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D172">
+    <cfRule type="cellIs" dxfId="39" priority="593" operator="equal">
+      <formula>2500</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D173">
+    <cfRule type="cellIs" dxfId="38" priority="592" operator="equal">
+      <formula>2500</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D174">
+    <cfRule type="cellIs" dxfId="37" priority="591" operator="equal">
+      <formula>2500</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D175">
+    <cfRule type="cellIs" dxfId="36" priority="590" operator="equal">
+      <formula>2500</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D176">
+    <cfRule type="cellIs" dxfId="35" priority="589" operator="equal">
+      <formula>2500</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D177">
+    <cfRule type="cellIs" dxfId="34" priority="588" operator="equal">
+      <formula>2500</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D178">
+    <cfRule type="cellIs" dxfId="33" priority="587" operator="equal">
+      <formula>2500</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D179">
+    <cfRule type="cellIs" dxfId="32" priority="586" operator="equal">
+      <formula>2500</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D180">
+    <cfRule type="cellIs" dxfId="31" priority="585" operator="equal">
+      <formula>2500</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D181">
+    <cfRule type="cellIs" dxfId="30" priority="584" operator="equal">
+      <formula>2500</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D182">
+    <cfRule type="cellIs" dxfId="29" priority="583" operator="equal">
+      <formula>2500</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D183">
+    <cfRule type="cellIs" dxfId="28" priority="582" operator="equal">
+      <formula>2500</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D184">
+    <cfRule type="cellIs" dxfId="27" priority="581" operator="equal">
+      <formula>2500</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D185">
+    <cfRule type="cellIs" dxfId="26" priority="580" operator="equal">
+      <formula>2500</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D186">
+    <cfRule type="cellIs" dxfId="25" priority="579" operator="equal">
+      <formula>2500</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D187">
+    <cfRule type="cellIs" dxfId="24" priority="578" operator="equal">
+      <formula>2500</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D188">
+    <cfRule type="cellIs" dxfId="23" priority="577" operator="equal">
+      <formula>2500</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D189">
+    <cfRule type="cellIs" dxfId="22" priority="576" operator="equal">
+      <formula>2500</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D190">
+    <cfRule type="cellIs" dxfId="21" priority="575" operator="equal">
+      <formula>2500</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D191">
+    <cfRule type="cellIs" dxfId="20" priority="574" operator="equal">
+      <formula>2500</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D198">
+    <cfRule type="cellIs" dxfId="19" priority="2581" operator="equal">
+      <formula>2500</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D199">
+    <cfRule type="cellIs" dxfId="18" priority="2580" operator="equal">
+      <formula>2500</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D200">
+    <cfRule type="cellIs" dxfId="17" priority="2579" operator="equal">
+      <formula>2500</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D201">
+    <cfRule type="cellIs" dxfId="16" priority="2578" operator="equal">
+      <formula>2500</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D202">
+    <cfRule type="cellIs" dxfId="15" priority="2577" operator="equal">
+      <formula>2500</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D203">
+    <cfRule type="cellIs" dxfId="14" priority="2576" operator="equal">
+      <formula>2500</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D204">
+    <cfRule type="cellIs" dxfId="13" priority="2575" operator="equal">
+      <formula>2500</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D205">
+    <cfRule type="cellIs" dxfId="12" priority="2574" operator="equal">
+      <formula>2500</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D206">
+    <cfRule type="cellIs" dxfId="11" priority="2573" operator="equal">
+      <formula>2500</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D207">
+    <cfRule type="cellIs" dxfId="10" priority="2572" operator="equal">
+      <formula>2500</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D208">
+    <cfRule type="cellIs" dxfId="9" priority="2571" operator="equal">
+      <formula>2500</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D209">
+    <cfRule type="cellIs" dxfId="8" priority="2570" operator="equal">
+      <formula>2500</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D210">
+    <cfRule type="cellIs" dxfId="7" priority="2569" operator="equal">
+      <formula>2500</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D211">
+    <cfRule type="cellIs" dxfId="6" priority="2568" operator="equal">
+      <formula>2500</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D212">
+    <cfRule type="cellIs" dxfId="5" priority="2567" operator="equal">
+      <formula>2500</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D213">
+    <cfRule type="cellIs" dxfId="4" priority="2566" operator="equal">
+      <formula>2500</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A44:A49">
+    <cfRule type="cellIs" dxfId="3" priority="121" operator="equal">
+      <formula>2500</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A118:A123">
+    <cfRule type="cellIs" dxfId="2" priority="310" operator="equal">
+      <formula>2500</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C44:C49">
+    <cfRule type="cellIs" dxfId="1" priority="120" operator="equal">
+      <formula>2500</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C118:C123">
+    <cfRule type="cellIs" dxfId="0" priority="309" operator="equal">
+      <formula>2500</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/scrapy_xc/spiders/tasks.xlsx
+++ b/scrapy_xc/spiders/tasks.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16120"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="1" r:id="rId1"/>
@@ -50,13 +50,14 @@
     <t>day_offset</t>
   </si>
   <si>
-    <t>标准房</t>
+    <t>国家会展中心上海洲际酒店</t>
   </si>
   <si>
-    <t>上海海神诺富特大酒店</t>
+    <t>洲际高级房</t>
   </si>
   <si>
-    <t>http://hotels.ctrip.com/hotel/425938.html?isFull=F#ctm_ref=hod_sr_lst_dl_n_2_9</t>
+    <t>http://hotels.ctrip.com/hotel/5310859.html#ctm_ref=www_hp_bs_lst</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -64,9 +65,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -77,19 +78,41 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="SimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -131,12 +154,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -145,15 +171,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -179,15 +196,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="67">
     <dxf>
@@ -598,6 +628,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1642,10 +1675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G276"/>
+  <dimension ref="A1:IV276"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1656,7 +1689,7 @@
     <col min="8" max="256" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:256" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1679,2494 +1712,2743 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:256" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
+      <c r="D2" s="14">
+        <v>43542</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>7</v>
+      <c r="E2" s="14">
+        <v>43543</v>
       </c>
-      <c r="D2" s="5">
-        <v>43430</v>
-      </c>
-      <c r="E2" s="5">
-        <v>43435</v>
-      </c>
-      <c r="F2" s="4">
+      <c r="F2" s="13">
         <v>2500</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="15"/>
+      <c r="AD2" s="15"/>
+      <c r="AE2" s="15"/>
+      <c r="AF2" s="15"/>
+      <c r="AG2" s="15"/>
+      <c r="AH2" s="15"/>
+      <c r="AI2" s="15"/>
+      <c r="AJ2" s="15"/>
+      <c r="AK2" s="15"/>
+      <c r="AL2" s="15"/>
+      <c r="AM2" s="15"/>
+      <c r="AN2" s="15"/>
+      <c r="AO2" s="15"/>
+      <c r="AP2" s="15"/>
+      <c r="AQ2" s="15"/>
+      <c r="AR2" s="15"/>
+      <c r="AS2" s="15"/>
+      <c r="AT2" s="15"/>
+      <c r="AU2" s="15"/>
+      <c r="AV2" s="15"/>
+      <c r="AW2" s="15"/>
+      <c r="AX2" s="15"/>
+      <c r="AY2" s="15"/>
+      <c r="AZ2" s="15"/>
+      <c r="BA2" s="15"/>
+      <c r="BB2" s="15"/>
+      <c r="BC2" s="15"/>
+      <c r="BD2" s="15"/>
+      <c r="BE2" s="15"/>
+      <c r="BF2" s="15"/>
+      <c r="BG2" s="15"/>
+      <c r="BH2" s="15"/>
+      <c r="BI2" s="15"/>
+      <c r="BJ2" s="15"/>
+      <c r="BK2" s="15"/>
+      <c r="BL2" s="15"/>
+      <c r="BM2" s="15"/>
+      <c r="BN2" s="15"/>
+      <c r="BO2" s="15"/>
+      <c r="BP2" s="15"/>
+      <c r="BQ2" s="15"/>
+      <c r="BR2" s="15"/>
+      <c r="BS2" s="15"/>
+      <c r="BT2" s="15"/>
+      <c r="BU2" s="15"/>
+      <c r="BV2" s="15"/>
+      <c r="BW2" s="15"/>
+      <c r="BX2" s="15"/>
+      <c r="BY2" s="15"/>
+      <c r="BZ2" s="15"/>
+      <c r="CA2" s="15"/>
+      <c r="CB2" s="15"/>
+      <c r="CC2" s="15"/>
+      <c r="CD2" s="15"/>
+      <c r="CE2" s="15"/>
+      <c r="CF2" s="15"/>
+      <c r="CG2" s="15"/>
+      <c r="CH2" s="15"/>
+      <c r="CI2" s="15"/>
+      <c r="CJ2" s="15"/>
+      <c r="CK2" s="15"/>
+      <c r="CL2" s="15"/>
+      <c r="CM2" s="15"/>
+      <c r="CN2" s="15"/>
+      <c r="CO2" s="15"/>
+      <c r="CP2" s="15"/>
+      <c r="CQ2" s="15"/>
+      <c r="CR2" s="15"/>
+      <c r="CS2" s="15"/>
+      <c r="CT2" s="15"/>
+      <c r="CU2" s="15"/>
+      <c r="CV2" s="15"/>
+      <c r="CW2" s="15"/>
+      <c r="CX2" s="15"/>
+      <c r="CY2" s="15"/>
+      <c r="CZ2" s="15"/>
+      <c r="DA2" s="15"/>
+      <c r="DB2" s="15"/>
+      <c r="DC2" s="15"/>
+      <c r="DD2" s="15"/>
+      <c r="DE2" s="15"/>
+      <c r="DF2" s="15"/>
+      <c r="DG2" s="15"/>
+      <c r="DH2" s="15"/>
+      <c r="DI2" s="15"/>
+      <c r="DJ2" s="15"/>
+      <c r="DK2" s="15"/>
+      <c r="DL2" s="15"/>
+      <c r="DM2" s="15"/>
+      <c r="DN2" s="15"/>
+      <c r="DO2" s="15"/>
+      <c r="DP2" s="15"/>
+      <c r="DQ2" s="15"/>
+      <c r="DR2" s="15"/>
+      <c r="DS2" s="15"/>
+      <c r="DT2" s="15"/>
+      <c r="DU2" s="15"/>
+      <c r="DV2" s="15"/>
+      <c r="DW2" s="15"/>
+      <c r="DX2" s="15"/>
+      <c r="DY2" s="15"/>
+      <c r="DZ2" s="15"/>
+      <c r="EA2" s="15"/>
+      <c r="EB2" s="15"/>
+      <c r="EC2" s="15"/>
+      <c r="ED2" s="15"/>
+      <c r="EE2" s="15"/>
+      <c r="EF2" s="15"/>
+      <c r="EG2" s="15"/>
+      <c r="EH2" s="15"/>
+      <c r="EI2" s="15"/>
+      <c r="EJ2" s="15"/>
+      <c r="EK2" s="15"/>
+      <c r="EL2" s="15"/>
+      <c r="EM2" s="15"/>
+      <c r="EN2" s="15"/>
+      <c r="EO2" s="15"/>
+      <c r="EP2" s="15"/>
+      <c r="EQ2" s="15"/>
+      <c r="ER2" s="15"/>
+      <c r="ES2" s="15"/>
+      <c r="ET2" s="15"/>
+      <c r="EU2" s="15"/>
+      <c r="EV2" s="15"/>
+      <c r="EW2" s="15"/>
+      <c r="EX2" s="15"/>
+      <c r="EY2" s="15"/>
+      <c r="EZ2" s="15"/>
+      <c r="FA2" s="15"/>
+      <c r="FB2" s="15"/>
+      <c r="FC2" s="15"/>
+      <c r="FD2" s="15"/>
+      <c r="FE2" s="15"/>
+      <c r="FF2" s="15"/>
+      <c r="FG2" s="15"/>
+      <c r="FH2" s="15"/>
+      <c r="FI2" s="15"/>
+      <c r="FJ2" s="15"/>
+      <c r="FK2" s="15"/>
+      <c r="FL2" s="15"/>
+      <c r="FM2" s="15"/>
+      <c r="FN2" s="15"/>
+      <c r="FO2" s="15"/>
+      <c r="FP2" s="15"/>
+      <c r="FQ2" s="15"/>
+      <c r="FR2" s="15"/>
+      <c r="FS2" s="15"/>
+      <c r="FT2" s="15"/>
+      <c r="FU2" s="15"/>
+      <c r="FV2" s="15"/>
+      <c r="FW2" s="15"/>
+      <c r="FX2" s="15"/>
+      <c r="FY2" s="15"/>
+      <c r="FZ2" s="15"/>
+      <c r="GA2" s="15"/>
+      <c r="GB2" s="15"/>
+      <c r="GC2" s="15"/>
+      <c r="GD2" s="15"/>
+      <c r="GE2" s="15"/>
+      <c r="GF2" s="15"/>
+      <c r="GG2" s="15"/>
+      <c r="GH2" s="15"/>
+      <c r="GI2" s="15"/>
+      <c r="GJ2" s="15"/>
+      <c r="GK2" s="15"/>
+      <c r="GL2" s="15"/>
+      <c r="GM2" s="15"/>
+      <c r="GN2" s="15"/>
+      <c r="GO2" s="15"/>
+      <c r="GP2" s="15"/>
+      <c r="GQ2" s="15"/>
+      <c r="GR2" s="15"/>
+      <c r="GS2" s="15"/>
+      <c r="GT2" s="15"/>
+      <c r="GU2" s="15"/>
+      <c r="GV2" s="15"/>
+      <c r="GW2" s="15"/>
+      <c r="GX2" s="15"/>
+      <c r="GY2" s="15"/>
+      <c r="GZ2" s="15"/>
+      <c r="HA2" s="15"/>
+      <c r="HB2" s="15"/>
+      <c r="HC2" s="15"/>
+      <c r="HD2" s="15"/>
+      <c r="HE2" s="15"/>
+      <c r="HF2" s="15"/>
+      <c r="HG2" s="15"/>
+      <c r="HH2" s="15"/>
+      <c r="HI2" s="15"/>
+      <c r="HJ2" s="15"/>
+      <c r="HK2" s="15"/>
+      <c r="HL2" s="15"/>
+      <c r="HM2" s="15"/>
+      <c r="HN2" s="15"/>
+      <c r="HO2" s="15"/>
+      <c r="HP2" s="15"/>
+      <c r="HQ2" s="15"/>
+      <c r="HR2" s="15"/>
+      <c r="HS2" s="15"/>
+      <c r="HT2" s="15"/>
+      <c r="HU2" s="15"/>
+      <c r="HV2" s="15"/>
+      <c r="HW2" s="15"/>
+      <c r="HX2" s="15"/>
+      <c r="HY2" s="15"/>
+      <c r="HZ2" s="15"/>
+      <c r="IA2" s="15"/>
+      <c r="IB2" s="15"/>
+      <c r="IC2" s="15"/>
+      <c r="ID2" s="15"/>
+      <c r="IE2" s="15"/>
+      <c r="IF2" s="15"/>
+      <c r="IG2" s="15"/>
+      <c r="IH2" s="15"/>
+      <c r="II2" s="15"/>
+      <c r="IJ2" s="15"/>
+      <c r="IK2" s="15"/>
+      <c r="IL2" s="15"/>
+      <c r="IM2" s="15"/>
+      <c r="IN2" s="15"/>
+      <c r="IO2" s="15"/>
+      <c r="IP2" s="15"/>
+      <c r="IQ2" s="15"/>
+      <c r="IR2" s="15"/>
+      <c r="IS2" s="15"/>
+      <c r="IT2" s="15"/>
+      <c r="IU2" s="15"/>
+      <c r="IV2" s="15"/>
+    </row>
+    <row r="3" spans="1:256" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:256" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:256" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:256" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:256" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:256" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:256" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:256" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:256" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:256" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:256" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="1:256" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:256" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:256" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
     </row>
     <row r="20" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
     </row>
     <row r="21" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
     </row>
     <row r="22" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
     </row>
     <row r="23" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
     </row>
     <row r="24" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
     </row>
     <row r="25" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
     </row>
     <row r="26" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
     </row>
     <row r="27" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
     </row>
     <row r="28" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
     </row>
     <row r="29" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
     </row>
     <row r="30" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
     </row>
     <row r="31" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
     </row>
     <row r="32" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
     </row>
     <row r="33" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
     </row>
     <row r="34" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
     </row>
     <row r="35" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
     </row>
     <row r="36" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
     </row>
     <row r="37" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
     </row>
     <row r="38" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
     </row>
     <row r="39" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
     </row>
     <row r="40" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
     </row>
     <row r="41" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
     </row>
     <row r="42" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
     </row>
     <row r="43" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
     </row>
     <row r="44" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="11"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
+      <c r="A44" s="8"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
     </row>
     <row r="45" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="11"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
+      <c r="A45" s="8"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
     </row>
     <row r="46" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="11"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
+      <c r="A46" s="8"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
     </row>
     <row r="47" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="11"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
+      <c r="A47" s="8"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
     </row>
     <row r="48" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="11"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
+      <c r="A48" s="8"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
     </row>
     <row r="49" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="11"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
+      <c r="A49" s="8"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
     </row>
     <row r="50" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="11"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
     </row>
     <row r="51" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="11"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
     </row>
     <row r="52" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="11"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
     </row>
     <row r="53" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="11"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
     </row>
     <row r="54" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="11"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
+      <c r="A54" s="8"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
     </row>
     <row r="55" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="11"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
     </row>
     <row r="56" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="11"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
     </row>
     <row r="57" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="11"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
+      <c r="A57" s="8"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
     </row>
     <row r="58" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="11"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
+      <c r="A58" s="8"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
     </row>
     <row r="59" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="11"/>
-      <c r="B59" s="11"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
+      <c r="A59" s="8"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
     </row>
     <row r="60" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="11"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
+      <c r="A60" s="8"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
     </row>
     <row r="61" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="11"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
+      <c r="A61" s="8"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
     </row>
     <row r="62" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="11"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
+      <c r="A62" s="8"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
     </row>
     <row r="63" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="11"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
+      <c r="A63" s="8"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
     </row>
     <row r="64" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="11"/>
-      <c r="B64" s="11"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
+      <c r="A64" s="8"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
     </row>
     <row r="65" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="11"/>
-      <c r="B65" s="11"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
+      <c r="A65" s="8"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
     </row>
     <row r="66" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="11"/>
-      <c r="B66" s="11"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
+      <c r="A66" s="8"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
     </row>
     <row r="67" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="11"/>
-      <c r="B67" s="11"/>
-      <c r="C67" s="9"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
+      <c r="A67" s="8"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
     </row>
     <row r="68" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="11"/>
-      <c r="B68" s="11"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
+      <c r="A68" s="8"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
     </row>
     <row r="69" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="11"/>
-      <c r="B69" s="11"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
+      <c r="A69" s="8"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
     </row>
     <row r="70" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="11"/>
-      <c r="B70" s="11"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
+      <c r="A70" s="8"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
     </row>
     <row r="71" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="11"/>
-      <c r="B71" s="11"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
+      <c r="A71" s="8"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
     </row>
     <row r="72" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="11"/>
-      <c r="B72" s="11"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
+      <c r="A72" s="8"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
     </row>
     <row r="73" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="11"/>
-      <c r="B73" s="11"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="9"/>
+      <c r="A73" s="8"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
     </row>
     <row r="74" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="11"/>
-      <c r="B74" s="11"/>
-      <c r="C74" s="9"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
+      <c r="A74" s="8"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
     </row>
     <row r="75" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="11"/>
-      <c r="B75" s="11"/>
-      <c r="C75" s="9"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
+      <c r="A75" s="8"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
     </row>
     <row r="76" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="11"/>
-      <c r="B76" s="11"/>
-      <c r="C76" s="9"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="9"/>
-      <c r="G76" s="9"/>
+      <c r="A76" s="8"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
     </row>
     <row r="77" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="11"/>
-      <c r="B77" s="11"/>
-      <c r="C77" s="9"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
+      <c r="A77" s="8"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
     </row>
     <row r="78" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="11"/>
-      <c r="B78" s="11"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
+      <c r="A78" s="8"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
     </row>
     <row r="79" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="11"/>
-      <c r="B79" s="11"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="9"/>
+      <c r="A79" s="8"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
     </row>
     <row r="80" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="11"/>
-      <c r="B80" s="11"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
+      <c r="A80" s="8"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
     </row>
     <row r="81" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="11"/>
-      <c r="B81" s="11"/>
-      <c r="C81" s="9"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="9"/>
-      <c r="G81" s="9"/>
+      <c r="A81" s="8"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
     </row>
     <row r="82" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="11"/>
-      <c r="B82" s="11"/>
-      <c r="C82" s="9"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="9"/>
-      <c r="G82" s="9"/>
+      <c r="A82" s="8"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
     </row>
     <row r="83" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="11"/>
-      <c r="B83" s="11"/>
-      <c r="C83" s="9"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="9"/>
-      <c r="G83" s="9"/>
+      <c r="A83" s="8"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
     </row>
     <row r="84" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="11"/>
-      <c r="B84" s="11"/>
-      <c r="C84" s="9"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="9"/>
-      <c r="G84" s="9"/>
+      <c r="A84" s="8"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
     </row>
     <row r="85" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="11"/>
-      <c r="B85" s="11"/>
-      <c r="C85" s="9"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="9"/>
-      <c r="G85" s="9"/>
+      <c r="A85" s="8"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
     </row>
     <row r="86" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="11"/>
-      <c r="B86" s="11"/>
-      <c r="C86" s="9"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="9"/>
-      <c r="G86" s="9"/>
+      <c r="A86" s="8"/>
+      <c r="B86" s="8"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
     </row>
     <row r="87" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="11"/>
-      <c r="B87" s="11"/>
-      <c r="C87" s="9"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="9"/>
-      <c r="G87" s="9"/>
+      <c r="A87" s="8"/>
+      <c r="B87" s="8"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
     </row>
     <row r="88" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="11"/>
-      <c r="B88" s="11"/>
-      <c r="C88" s="9"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="9"/>
-      <c r="G88" s="9"/>
+      <c r="A88" s="8"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
     </row>
     <row r="89" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="11"/>
-      <c r="B89" s="11"/>
-      <c r="C89" s="9"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="9"/>
-      <c r="G89" s="9"/>
+      <c r="A89" s="8"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
     </row>
     <row r="90" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="11"/>
-      <c r="B90" s="11"/>
-      <c r="C90" s="9"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="9"/>
-      <c r="G90" s="9"/>
+      <c r="A90" s="8"/>
+      <c r="B90" s="8"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
     </row>
     <row r="91" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="11"/>
-      <c r="B91" s="11"/>
-      <c r="C91" s="9"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="9"/>
-      <c r="G91" s="9"/>
+      <c r="A91" s="8"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
     </row>
     <row r="92" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="11"/>
-      <c r="B92" s="11"/>
-      <c r="C92" s="9"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="9"/>
-      <c r="G92" s="9"/>
+      <c r="A92" s="8"/>
+      <c r="B92" s="8"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="6"/>
     </row>
     <row r="93" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="11"/>
-      <c r="B93" s="11"/>
-      <c r="C93" s="9"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="9"/>
-      <c r="G93" s="9"/>
+      <c r="A93" s="8"/>
+      <c r="B93" s="8"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
     </row>
     <row r="94" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="11"/>
-      <c r="B94" s="11"/>
-      <c r="C94" s="9"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="9"/>
-      <c r="G94" s="9"/>
+      <c r="A94" s="8"/>
+      <c r="B94" s="8"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
     </row>
     <row r="95" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="11"/>
-      <c r="B95" s="11"/>
-      <c r="C95" s="9"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="9"/>
-      <c r="G95" s="9"/>
+      <c r="A95" s="8"/>
+      <c r="B95" s="8"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
     </row>
     <row r="96" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="11"/>
-      <c r="B96" s="11"/>
-      <c r="C96" s="9"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="9"/>
-      <c r="G96" s="9"/>
+      <c r="A96" s="8"/>
+      <c r="B96" s="8"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
     </row>
     <row r="97" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="11"/>
-      <c r="B97" s="11"/>
-      <c r="C97" s="9"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="9"/>
-      <c r="G97" s="9"/>
+      <c r="A97" s="8"/>
+      <c r="B97" s="8"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
     </row>
     <row r="98" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="11"/>
-      <c r="B98" s="11"/>
-      <c r="C98" s="9"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="9"/>
-      <c r="G98" s="9"/>
+      <c r="A98" s="8"/>
+      <c r="B98" s="8"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6"/>
     </row>
     <row r="99" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="11"/>
-      <c r="B99" s="11"/>
-      <c r="C99" s="9"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="9"/>
-      <c r="G99" s="9"/>
+      <c r="A99" s="8"/>
+      <c r="B99" s="8"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
     </row>
     <row r="100" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="11"/>
-      <c r="B100" s="11"/>
-      <c r="C100" s="9"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="9"/>
-      <c r="G100" s="9"/>
+      <c r="A100" s="8"/>
+      <c r="B100" s="8"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="6"/>
+      <c r="G100" s="6"/>
     </row>
     <row r="101" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="6"/>
-      <c r="B101" s="6"/>
-      <c r="C101" s="7"/>
-      <c r="D101" s="8"/>
-      <c r="E101" s="8"/>
-      <c r="F101" s="9"/>
-      <c r="G101" s="9"/>
+      <c r="A101" s="3"/>
+      <c r="B101" s="3"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6"/>
     </row>
     <row r="102" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="6"/>
-      <c r="B102" s="6"/>
-      <c r="C102" s="7"/>
-      <c r="D102" s="8"/>
-      <c r="E102" s="8"/>
-      <c r="F102" s="9"/>
-      <c r="G102" s="9"/>
+      <c r="A102" s="3"/>
+      <c r="B102" s="3"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="6"/>
     </row>
     <row r="103" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="6"/>
-      <c r="B103" s="6"/>
-      <c r="C103" s="10"/>
-      <c r="D103" s="8"/>
-      <c r="E103" s="8"/>
-      <c r="F103" s="9"/>
-      <c r="G103" s="9"/>
+      <c r="A103" s="3"/>
+      <c r="B103" s="3"/>
+      <c r="C103" s="7"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
     </row>
     <row r="104" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="11"/>
-      <c r="B104" s="11"/>
-      <c r="C104" s="13"/>
-      <c r="D104" s="15"/>
-      <c r="E104" s="15"/>
-      <c r="F104" s="11"/>
-      <c r="G104" s="11"/>
+      <c r="A104" s="8"/>
+      <c r="B104" s="8"/>
+      <c r="C104" s="10"/>
+      <c r="D104" s="12"/>
+      <c r="E104" s="12"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
     </row>
     <row r="105" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="11"/>
-      <c r="B105" s="11"/>
-      <c r="C105" s="13"/>
-      <c r="D105" s="15"/>
-      <c r="E105" s="15"/>
-      <c r="F105" s="11"/>
-      <c r="G105" s="11"/>
+      <c r="A105" s="8"/>
+      <c r="B105" s="8"/>
+      <c r="C105" s="10"/>
+      <c r="D105" s="12"/>
+      <c r="E105" s="12"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
     </row>
     <row r="106" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="11"/>
-      <c r="B106" s="11"/>
-      <c r="C106" s="13"/>
-      <c r="D106" s="15"/>
-      <c r="E106" s="15"/>
-      <c r="F106" s="11"/>
-      <c r="G106" s="11"/>
+      <c r="A106" s="8"/>
+      <c r="B106" s="8"/>
+      <c r="C106" s="10"/>
+      <c r="D106" s="12"/>
+      <c r="E106" s="12"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
     </row>
     <row r="107" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="11"/>
-      <c r="B107" s="11"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="15"/>
-      <c r="E107" s="15"/>
-      <c r="F107" s="11"/>
-      <c r="G107" s="11"/>
+      <c r="A107" s="8"/>
+      <c r="B107" s="8"/>
+      <c r="C107" s="10"/>
+      <c r="D107" s="12"/>
+      <c r="E107" s="12"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
     </row>
     <row r="108" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="11"/>
-      <c r="B108" s="11"/>
-      <c r="C108" s="13"/>
-      <c r="D108" s="15"/>
-      <c r="E108" s="15"/>
-      <c r="F108" s="11"/>
-      <c r="G108" s="11"/>
+      <c r="A108" s="8"/>
+      <c r="B108" s="8"/>
+      <c r="C108" s="10"/>
+      <c r="D108" s="12"/>
+      <c r="E108" s="12"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
     </row>
     <row r="109" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="11"/>
-      <c r="B109" s="11"/>
-      <c r="C109" s="13"/>
-      <c r="D109" s="15"/>
-      <c r="E109" s="15"/>
-      <c r="F109" s="11"/>
-      <c r="G109" s="11"/>
+      <c r="A109" s="8"/>
+      <c r="B109" s="8"/>
+      <c r="C109" s="10"/>
+      <c r="D109" s="12"/>
+      <c r="E109" s="12"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
     </row>
     <row r="110" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="11"/>
-      <c r="B110" s="11"/>
-      <c r="C110" s="13"/>
-      <c r="D110" s="15"/>
-      <c r="E110" s="15"/>
-      <c r="F110" s="11"/>
-      <c r="G110" s="11"/>
+      <c r="A110" s="8"/>
+      <c r="B110" s="8"/>
+      <c r="C110" s="10"/>
+      <c r="D110" s="12"/>
+      <c r="E110" s="12"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
     </row>
     <row r="111" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="11"/>
-      <c r="B111" s="11"/>
-      <c r="C111" s="13"/>
-      <c r="D111" s="15"/>
-      <c r="E111" s="15"/>
-      <c r="F111" s="11"/>
-      <c r="G111" s="11"/>
+      <c r="A111" s="8"/>
+      <c r="B111" s="8"/>
+      <c r="C111" s="10"/>
+      <c r="D111" s="12"/>
+      <c r="E111" s="12"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
     </row>
     <row r="112" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="11"/>
-      <c r="B112" s="11"/>
-      <c r="C112" s="13"/>
-      <c r="D112" s="15"/>
-      <c r="E112" s="15"/>
-      <c r="F112" s="11"/>
-      <c r="G112" s="11"/>
+      <c r="A112" s="8"/>
+      <c r="B112" s="8"/>
+      <c r="C112" s="10"/>
+      <c r="D112" s="12"/>
+      <c r="E112" s="12"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
     </row>
     <row r="113" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="6"/>
-      <c r="B113" s="6"/>
-      <c r="C113" s="6"/>
-      <c r="D113" s="12"/>
-      <c r="E113" s="12"/>
-      <c r="F113" s="13"/>
-      <c r="G113" s="13"/>
+      <c r="A113" s="3"/>
+      <c r="B113" s="3"/>
+      <c r="C113" s="3"/>
+      <c r="D113" s="9"/>
+      <c r="E113" s="9"/>
+      <c r="F113" s="10"/>
+      <c r="G113" s="10"/>
     </row>
     <row r="114" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="6"/>
-      <c r="B114" s="6"/>
-      <c r="C114" s="6"/>
-      <c r="D114" s="12"/>
-      <c r="E114" s="12"/>
-      <c r="F114" s="13"/>
-      <c r="G114" s="13"/>
+      <c r="A114" s="3"/>
+      <c r="B114" s="3"/>
+      <c r="C114" s="3"/>
+      <c r="D114" s="9"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="10"/>
+      <c r="G114" s="10"/>
     </row>
     <row r="115" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="6"/>
-      <c r="B115" s="6"/>
-      <c r="C115" s="6"/>
-      <c r="D115" s="12"/>
-      <c r="E115" s="12"/>
-      <c r="F115" s="13"/>
-      <c r="G115" s="13"/>
+      <c r="A115" s="3"/>
+      <c r="B115" s="3"/>
+      <c r="C115" s="3"/>
+      <c r="D115" s="9"/>
+      <c r="E115" s="9"/>
+      <c r="F115" s="10"/>
+      <c r="G115" s="10"/>
     </row>
     <row r="116" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="6"/>
-      <c r="B116" s="6"/>
-      <c r="C116" s="6"/>
-      <c r="D116" s="12"/>
-      <c r="E116" s="12"/>
-      <c r="F116" s="13"/>
-      <c r="G116" s="13"/>
+      <c r="A116" s="3"/>
+      <c r="B116" s="3"/>
+      <c r="C116" s="3"/>
+      <c r="D116" s="9"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="10"/>
+      <c r="G116" s="10"/>
     </row>
     <row r="117" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="6"/>
-      <c r="B117" s="6"/>
-      <c r="C117" s="6"/>
-      <c r="D117" s="12"/>
-      <c r="E117" s="12"/>
-      <c r="F117" s="13"/>
-      <c r="G117" s="13"/>
+      <c r="A117" s="3"/>
+      <c r="B117" s="3"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="9"/>
+      <c r="E117" s="9"/>
+      <c r="F117" s="10"/>
+      <c r="G117" s="10"/>
     </row>
     <row r="118" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="11"/>
-      <c r="B118" s="6"/>
-      <c r="C118" s="11"/>
-      <c r="D118" s="12"/>
-      <c r="E118" s="12"/>
-      <c r="F118" s="13"/>
-      <c r="G118" s="13"/>
+      <c r="A118" s="8"/>
+      <c r="B118" s="3"/>
+      <c r="C118" s="8"/>
+      <c r="D118" s="9"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="10"/>
+      <c r="G118" s="10"/>
     </row>
     <row r="119" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A119" s="11"/>
-      <c r="B119" s="6"/>
-      <c r="C119" s="11"/>
-      <c r="D119" s="12"/>
-      <c r="E119" s="12"/>
-      <c r="F119" s="13"/>
-      <c r="G119" s="13"/>
+      <c r="A119" s="8"/>
+      <c r="B119" s="3"/>
+      <c r="C119" s="8"/>
+      <c r="D119" s="9"/>
+      <c r="E119" s="9"/>
+      <c r="F119" s="10"/>
+      <c r="G119" s="10"/>
     </row>
     <row r="120" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="11"/>
-      <c r="B120" s="6"/>
-      <c r="C120" s="11"/>
-      <c r="D120" s="12"/>
-      <c r="E120" s="12"/>
-      <c r="F120" s="13"/>
-      <c r="G120" s="13"/>
+      <c r="A120" s="8"/>
+      <c r="B120" s="3"/>
+      <c r="C120" s="8"/>
+      <c r="D120" s="9"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="10"/>
+      <c r="G120" s="10"/>
     </row>
     <row r="121" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="11"/>
-      <c r="B121" s="6"/>
-      <c r="C121" s="11"/>
-      <c r="D121" s="12"/>
-      <c r="E121" s="12"/>
-      <c r="F121" s="13"/>
-      <c r="G121" s="13"/>
+      <c r="A121" s="8"/>
+      <c r="B121" s="3"/>
+      <c r="C121" s="8"/>
+      <c r="D121" s="9"/>
+      <c r="E121" s="9"/>
+      <c r="F121" s="10"/>
+      <c r="G121" s="10"/>
     </row>
     <row r="122" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="11"/>
-      <c r="B122" s="6"/>
-      <c r="C122" s="11"/>
-      <c r="D122" s="12"/>
-      <c r="E122" s="12"/>
-      <c r="F122" s="13"/>
-      <c r="G122" s="13"/>
+      <c r="A122" s="8"/>
+      <c r="B122" s="3"/>
+      <c r="C122" s="8"/>
+      <c r="D122" s="9"/>
+      <c r="E122" s="9"/>
+      <c r="F122" s="10"/>
+      <c r="G122" s="10"/>
     </row>
     <row r="123" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="11"/>
-      <c r="B123" s="6"/>
-      <c r="C123" s="11"/>
-      <c r="D123" s="12"/>
-      <c r="E123" s="12"/>
-      <c r="F123" s="13"/>
-      <c r="G123" s="13"/>
+      <c r="A123" s="8"/>
+      <c r="B123" s="3"/>
+      <c r="C123" s="8"/>
+      <c r="D123" s="9"/>
+      <c r="E123" s="9"/>
+      <c r="F123" s="10"/>
+      <c r="G123" s="10"/>
     </row>
     <row r="124" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="6"/>
-      <c r="B124" s="6"/>
-      <c r="C124" s="7"/>
-      <c r="D124" s="15"/>
-      <c r="E124" s="8"/>
-      <c r="F124" s="9"/>
-      <c r="G124" s="9"/>
+      <c r="A124" s="3"/>
+      <c r="B124" s="3"/>
+      <c r="C124" s="4"/>
+      <c r="D124" s="12"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="6"/>
+      <c r="G124" s="6"/>
     </row>
     <row r="125" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="6"/>
-      <c r="B125" s="6"/>
-      <c r="C125" s="7"/>
-      <c r="D125" s="15"/>
-      <c r="E125" s="8"/>
-      <c r="F125" s="9"/>
-      <c r="G125" s="9"/>
+      <c r="A125" s="3"/>
+      <c r="B125" s="3"/>
+      <c r="C125" s="4"/>
+      <c r="D125" s="12"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="6"/>
+      <c r="G125" s="6"/>
     </row>
     <row r="126" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="6"/>
-      <c r="B126" s="6"/>
-      <c r="C126" s="7"/>
-      <c r="D126" s="15"/>
-      <c r="E126" s="8"/>
-      <c r="F126" s="9"/>
-      <c r="G126" s="9"/>
+      <c r="A126" s="3"/>
+      <c r="B126" s="3"/>
+      <c r="C126" s="4"/>
+      <c r="D126" s="12"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="6"/>
+      <c r="G126" s="6"/>
     </row>
     <row r="127" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="6"/>
-      <c r="B127" s="6"/>
-      <c r="C127" s="7"/>
-      <c r="D127" s="15"/>
-      <c r="E127" s="8"/>
-      <c r="F127" s="9"/>
-      <c r="G127" s="9"/>
+      <c r="A127" s="3"/>
+      <c r="B127" s="3"/>
+      <c r="C127" s="4"/>
+      <c r="D127" s="12"/>
+      <c r="E127" s="5"/>
+      <c r="F127" s="6"/>
+      <c r="G127" s="6"/>
     </row>
     <row r="128" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A128" s="6"/>
-      <c r="B128" s="6"/>
-      <c r="C128" s="10"/>
-      <c r="D128" s="15"/>
-      <c r="E128" s="8"/>
-      <c r="F128" s="9"/>
-      <c r="G128" s="9"/>
+      <c r="A128" s="3"/>
+      <c r="B128" s="3"/>
+      <c r="C128" s="7"/>
+      <c r="D128" s="12"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="6"/>
+      <c r="G128" s="6"/>
     </row>
     <row r="129" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A129" s="6"/>
-      <c r="B129" s="6"/>
-      <c r="C129" s="7"/>
-      <c r="D129" s="15"/>
-      <c r="E129" s="8"/>
-      <c r="F129" s="9"/>
-      <c r="G129" s="9"/>
+      <c r="A129" s="3"/>
+      <c r="B129" s="3"/>
+      <c r="C129" s="4"/>
+      <c r="D129" s="12"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="6"/>
+      <c r="G129" s="6"/>
     </row>
     <row r="130" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A130" s="6"/>
-      <c r="B130" s="6"/>
-      <c r="C130" s="7"/>
-      <c r="D130" s="15"/>
-      <c r="E130" s="8"/>
-      <c r="F130" s="9"/>
-      <c r="G130" s="9"/>
+      <c r="A130" s="3"/>
+      <c r="B130" s="3"/>
+      <c r="C130" s="4"/>
+      <c r="D130" s="12"/>
+      <c r="E130" s="5"/>
+      <c r="F130" s="6"/>
+      <c r="G130" s="6"/>
     </row>
     <row r="131" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A131" s="6"/>
-      <c r="B131" s="6"/>
-      <c r="C131" s="7"/>
-      <c r="D131" s="15"/>
-      <c r="E131" s="8"/>
-      <c r="F131" s="9"/>
-      <c r="G131" s="9"/>
+      <c r="A131" s="3"/>
+      <c r="B131" s="3"/>
+      <c r="C131" s="4"/>
+      <c r="D131" s="12"/>
+      <c r="E131" s="5"/>
+      <c r="F131" s="6"/>
+      <c r="G131" s="6"/>
     </row>
     <row r="132" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A132" s="6"/>
-      <c r="B132" s="6"/>
-      <c r="C132" s="7"/>
-      <c r="D132" s="15"/>
-      <c r="E132" s="8"/>
-      <c r="F132" s="9"/>
-      <c r="G132" s="9"/>
+      <c r="A132" s="3"/>
+      <c r="B132" s="3"/>
+      <c r="C132" s="4"/>
+      <c r="D132" s="12"/>
+      <c r="E132" s="5"/>
+      <c r="F132" s="6"/>
+      <c r="G132" s="6"/>
     </row>
     <row r="133" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="6"/>
-      <c r="B133" s="6"/>
-      <c r="C133" s="7"/>
-      <c r="D133" s="15"/>
-      <c r="E133" s="8"/>
-      <c r="F133" s="9"/>
-      <c r="G133" s="9"/>
+      <c r="A133" s="3"/>
+      <c r="B133" s="3"/>
+      <c r="C133" s="4"/>
+      <c r="D133" s="12"/>
+      <c r="E133" s="5"/>
+      <c r="F133" s="6"/>
+      <c r="G133" s="6"/>
     </row>
     <row r="134" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A134" s="6"/>
-      <c r="B134" s="6"/>
-      <c r="C134" s="7"/>
-      <c r="D134" s="15"/>
-      <c r="E134" s="8"/>
-      <c r="F134" s="9"/>
-      <c r="G134" s="9"/>
+      <c r="A134" s="3"/>
+      <c r="B134" s="3"/>
+      <c r="C134" s="4"/>
+      <c r="D134" s="12"/>
+      <c r="E134" s="5"/>
+      <c r="F134" s="6"/>
+      <c r="G134" s="6"/>
     </row>
     <row r="135" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A135" s="6"/>
-      <c r="B135" s="6"/>
-      <c r="C135" s="7"/>
-      <c r="D135" s="15"/>
-      <c r="E135" s="8"/>
-      <c r="F135" s="9"/>
-      <c r="G135" s="9"/>
+      <c r="A135" s="3"/>
+      <c r="B135" s="3"/>
+      <c r="C135" s="4"/>
+      <c r="D135" s="12"/>
+      <c r="E135" s="5"/>
+      <c r="F135" s="6"/>
+      <c r="G135" s="6"/>
     </row>
     <row r="136" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A136" s="6"/>
-      <c r="B136" s="6"/>
-      <c r="C136" s="7"/>
-      <c r="D136" s="15"/>
-      <c r="E136" s="8"/>
-      <c r="F136" s="9"/>
-      <c r="G136" s="9"/>
+      <c r="A136" s="3"/>
+      <c r="B136" s="3"/>
+      <c r="C136" s="4"/>
+      <c r="D136" s="12"/>
+      <c r="E136" s="5"/>
+      <c r="F136" s="6"/>
+      <c r="G136" s="6"/>
     </row>
     <row r="137" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A137" s="6"/>
-      <c r="B137" s="6"/>
-      <c r="C137" s="7"/>
-      <c r="D137" s="15"/>
-      <c r="E137" s="8"/>
-      <c r="F137" s="9"/>
-      <c r="G137" s="9"/>
+      <c r="A137" s="3"/>
+      <c r="B137" s="3"/>
+      <c r="C137" s="4"/>
+      <c r="D137" s="12"/>
+      <c r="E137" s="5"/>
+      <c r="F137" s="6"/>
+      <c r="G137" s="6"/>
     </row>
     <row r="138" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A138" s="6"/>
-      <c r="B138" s="6"/>
-      <c r="C138" s="7"/>
-      <c r="D138" s="15"/>
-      <c r="E138" s="8"/>
-      <c r="F138" s="9"/>
-      <c r="G138" s="9"/>
+      <c r="A138" s="3"/>
+      <c r="B138" s="3"/>
+      <c r="C138" s="4"/>
+      <c r="D138" s="12"/>
+      <c r="E138" s="5"/>
+      <c r="F138" s="6"/>
+      <c r="G138" s="6"/>
     </row>
     <row r="139" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A139" s="6"/>
-      <c r="B139" s="6"/>
-      <c r="C139" s="7"/>
-      <c r="D139" s="15"/>
-      <c r="E139" s="8"/>
-      <c r="F139" s="9"/>
-      <c r="G139" s="9"/>
+      <c r="A139" s="3"/>
+      <c r="B139" s="3"/>
+      <c r="C139" s="4"/>
+      <c r="D139" s="12"/>
+      <c r="E139" s="5"/>
+      <c r="F139" s="6"/>
+      <c r="G139" s="6"/>
     </row>
     <row r="140" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A140" s="6"/>
-      <c r="B140" s="6"/>
-      <c r="C140" s="7"/>
-      <c r="D140" s="15"/>
-      <c r="E140" s="8"/>
-      <c r="F140" s="9"/>
-      <c r="G140" s="9"/>
+      <c r="A140" s="3"/>
+      <c r="B140" s="3"/>
+      <c r="C140" s="4"/>
+      <c r="D140" s="12"/>
+      <c r="E140" s="5"/>
+      <c r="F140" s="6"/>
+      <c r="G140" s="6"/>
     </row>
     <row r="141" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A141" s="6"/>
-      <c r="B141" s="6"/>
-      <c r="C141" s="7"/>
-      <c r="D141" s="15"/>
-      <c r="E141" s="8"/>
-      <c r="F141" s="9"/>
-      <c r="G141" s="9"/>
+      <c r="A141" s="3"/>
+      <c r="B141" s="3"/>
+      <c r="C141" s="4"/>
+      <c r="D141" s="12"/>
+      <c r="E141" s="5"/>
+      <c r="F141" s="6"/>
+      <c r="G141" s="6"/>
     </row>
     <row r="142" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A142" s="6"/>
-      <c r="B142" s="6"/>
-      <c r="C142" s="10"/>
-      <c r="D142" s="15"/>
-      <c r="E142" s="8"/>
-      <c r="F142" s="9"/>
-      <c r="G142" s="9"/>
+      <c r="A142" s="3"/>
+      <c r="B142" s="3"/>
+      <c r="C142" s="7"/>
+      <c r="D142" s="12"/>
+      <c r="E142" s="5"/>
+      <c r="F142" s="6"/>
+      <c r="G142" s="6"/>
     </row>
     <row r="143" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A143" s="6"/>
-      <c r="B143" s="6"/>
-      <c r="C143" s="7"/>
-      <c r="D143" s="15"/>
-      <c r="E143" s="8"/>
-      <c r="F143" s="9"/>
-      <c r="G143" s="9"/>
+      <c r="A143" s="3"/>
+      <c r="B143" s="3"/>
+      <c r="C143" s="4"/>
+      <c r="D143" s="12"/>
+      <c r="E143" s="5"/>
+      <c r="F143" s="6"/>
+      <c r="G143" s="6"/>
     </row>
     <row r="144" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A144" s="6"/>
-      <c r="B144" s="6"/>
-      <c r="C144" s="7"/>
-      <c r="D144" s="15"/>
-      <c r="E144" s="8"/>
-      <c r="F144" s="9"/>
-      <c r="G144" s="9"/>
+      <c r="A144" s="3"/>
+      <c r="B144" s="3"/>
+      <c r="C144" s="4"/>
+      <c r="D144" s="12"/>
+      <c r="E144" s="5"/>
+      <c r="F144" s="6"/>
+      <c r="G144" s="6"/>
     </row>
     <row r="145" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A145" s="6"/>
-      <c r="B145" s="6"/>
-      <c r="C145" s="7"/>
-      <c r="D145" s="15"/>
-      <c r="E145" s="8"/>
-      <c r="F145" s="9"/>
-      <c r="G145" s="9"/>
+      <c r="A145" s="3"/>
+      <c r="B145" s="3"/>
+      <c r="C145" s="4"/>
+      <c r="D145" s="12"/>
+      <c r="E145" s="5"/>
+      <c r="F145" s="6"/>
+      <c r="G145" s="6"/>
     </row>
     <row r="146" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A146" s="6"/>
-      <c r="B146" s="6"/>
-      <c r="C146" s="7"/>
-      <c r="D146" s="15"/>
-      <c r="E146" s="8"/>
-      <c r="F146" s="9"/>
-      <c r="G146" s="9"/>
+      <c r="A146" s="3"/>
+      <c r="B146" s="3"/>
+      <c r="C146" s="4"/>
+      <c r="D146" s="12"/>
+      <c r="E146" s="5"/>
+      <c r="F146" s="6"/>
+      <c r="G146" s="6"/>
     </row>
     <row r="147" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A147" s="6"/>
-      <c r="B147" s="6"/>
-      <c r="C147" s="10"/>
-      <c r="D147" s="15"/>
-      <c r="E147" s="8"/>
-      <c r="F147" s="9"/>
-      <c r="G147" s="9"/>
+      <c r="A147" s="3"/>
+      <c r="B147" s="3"/>
+      <c r="C147" s="7"/>
+      <c r="D147" s="12"/>
+      <c r="E147" s="5"/>
+      <c r="F147" s="6"/>
+      <c r="G147" s="6"/>
     </row>
     <row r="148" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A148" s="6"/>
-      <c r="B148" s="6"/>
-      <c r="C148" s="7"/>
-      <c r="D148" s="15"/>
-      <c r="E148" s="8"/>
-      <c r="F148" s="9"/>
-      <c r="G148" s="9"/>
+      <c r="A148" s="3"/>
+      <c r="B148" s="3"/>
+      <c r="C148" s="4"/>
+      <c r="D148" s="12"/>
+      <c r="E148" s="5"/>
+      <c r="F148" s="6"/>
+      <c r="G148" s="6"/>
     </row>
     <row r="149" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A149" s="6"/>
-      <c r="B149" s="6"/>
-      <c r="C149" s="7"/>
-      <c r="D149" s="15"/>
-      <c r="E149" s="8"/>
-      <c r="F149" s="9"/>
-      <c r="G149" s="9"/>
+      <c r="A149" s="3"/>
+      <c r="B149" s="3"/>
+      <c r="C149" s="4"/>
+      <c r="D149" s="12"/>
+      <c r="E149" s="5"/>
+      <c r="F149" s="6"/>
+      <c r="G149" s="6"/>
     </row>
     <row r="150" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A150" s="6"/>
-      <c r="B150" s="6"/>
-      <c r="C150" s="7"/>
-      <c r="D150" s="15"/>
-      <c r="E150" s="8"/>
-      <c r="F150" s="9"/>
-      <c r="G150" s="9"/>
+      <c r="A150" s="3"/>
+      <c r="B150" s="3"/>
+      <c r="C150" s="4"/>
+      <c r="D150" s="12"/>
+      <c r="E150" s="5"/>
+      <c r="F150" s="6"/>
+      <c r="G150" s="6"/>
     </row>
     <row r="151" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A151" s="6"/>
-      <c r="B151" s="6"/>
-      <c r="C151" s="7"/>
-      <c r="D151" s="15"/>
-      <c r="E151" s="8"/>
-      <c r="F151" s="9"/>
-      <c r="G151" s="9"/>
+      <c r="A151" s="3"/>
+      <c r="B151" s="3"/>
+      <c r="C151" s="4"/>
+      <c r="D151" s="12"/>
+      <c r="E151" s="5"/>
+      <c r="F151" s="6"/>
+      <c r="G151" s="6"/>
     </row>
     <row r="152" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A152" s="6"/>
-      <c r="B152" s="6"/>
-      <c r="C152" s="7"/>
-      <c r="D152" s="15"/>
-      <c r="E152" s="8"/>
-      <c r="F152" s="9"/>
-      <c r="G152" s="9"/>
+      <c r="A152" s="3"/>
+      <c r="B152" s="3"/>
+      <c r="C152" s="4"/>
+      <c r="D152" s="12"/>
+      <c r="E152" s="5"/>
+      <c r="F152" s="6"/>
+      <c r="G152" s="6"/>
     </row>
     <row r="153" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A153" s="6"/>
-      <c r="B153" s="6"/>
-      <c r="C153" s="7"/>
-      <c r="D153" s="15"/>
-      <c r="E153" s="8"/>
-      <c r="F153" s="9"/>
-      <c r="G153" s="9"/>
+      <c r="A153" s="3"/>
+      <c r="B153" s="3"/>
+      <c r="C153" s="4"/>
+      <c r="D153" s="12"/>
+      <c r="E153" s="5"/>
+      <c r="F153" s="6"/>
+      <c r="G153" s="6"/>
     </row>
     <row r="154" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A154" s="11"/>
-      <c r="B154" s="11"/>
-      <c r="C154" s="13"/>
-      <c r="D154" s="15"/>
-      <c r="E154" s="15"/>
-      <c r="F154" s="11"/>
-      <c r="G154" s="11"/>
+      <c r="A154" s="8"/>
+      <c r="B154" s="8"/>
+      <c r="C154" s="10"/>
+      <c r="D154" s="12"/>
+      <c r="E154" s="12"/>
+      <c r="F154" s="8"/>
+      <c r="G154" s="8"/>
     </row>
     <row r="155" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A155" s="11"/>
-      <c r="B155" s="11"/>
-      <c r="C155" s="13"/>
-      <c r="D155" s="15"/>
-      <c r="E155" s="15"/>
-      <c r="F155" s="11"/>
-      <c r="G155" s="11"/>
+      <c r="A155" s="8"/>
+      <c r="B155" s="8"/>
+      <c r="C155" s="10"/>
+      <c r="D155" s="12"/>
+      <c r="E155" s="12"/>
+      <c r="F155" s="8"/>
+      <c r="G155" s="8"/>
     </row>
     <row r="156" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A156" s="11"/>
-      <c r="B156" s="11"/>
-      <c r="C156" s="13"/>
-      <c r="D156" s="15"/>
-      <c r="E156" s="15"/>
-      <c r="F156" s="11"/>
-      <c r="G156" s="11"/>
+      <c r="A156" s="8"/>
+      <c r="B156" s="8"/>
+      <c r="C156" s="10"/>
+      <c r="D156" s="12"/>
+      <c r="E156" s="12"/>
+      <c r="F156" s="8"/>
+      <c r="G156" s="8"/>
     </row>
     <row r="157" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A157" s="11"/>
-      <c r="B157" s="11"/>
-      <c r="C157" s="13"/>
-      <c r="D157" s="15"/>
-      <c r="E157" s="15"/>
-      <c r="F157" s="11"/>
-      <c r="G157" s="11"/>
+      <c r="A157" s="8"/>
+      <c r="B157" s="8"/>
+      <c r="C157" s="10"/>
+      <c r="D157" s="12"/>
+      <c r="E157" s="12"/>
+      <c r="F157" s="8"/>
+      <c r="G157" s="8"/>
     </row>
     <row r="158" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A158" s="11"/>
-      <c r="B158" s="11"/>
-      <c r="C158" s="13"/>
-      <c r="D158" s="15"/>
-      <c r="E158" s="15"/>
-      <c r="F158" s="11"/>
-      <c r="G158" s="11"/>
+      <c r="A158" s="8"/>
+      <c r="B158" s="8"/>
+      <c r="C158" s="10"/>
+      <c r="D158" s="12"/>
+      <c r="E158" s="12"/>
+      <c r="F158" s="8"/>
+      <c r="G158" s="8"/>
     </row>
     <row r="159" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A159" s="11"/>
-      <c r="B159" s="11"/>
-      <c r="C159" s="13"/>
-      <c r="D159" s="15"/>
-      <c r="E159" s="15"/>
-      <c r="F159" s="11"/>
-      <c r="G159" s="11"/>
+      <c r="A159" s="8"/>
+      <c r="B159" s="8"/>
+      <c r="C159" s="10"/>
+      <c r="D159" s="12"/>
+      <c r="E159" s="12"/>
+      <c r="F159" s="8"/>
+      <c r="G159" s="8"/>
     </row>
     <row r="160" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A160" s="11"/>
-      <c r="B160" s="11"/>
-      <c r="C160" s="13"/>
-      <c r="D160" s="15"/>
-      <c r="E160" s="15"/>
-      <c r="F160" s="11"/>
-      <c r="G160" s="11"/>
+      <c r="A160" s="8"/>
+      <c r="B160" s="8"/>
+      <c r="C160" s="10"/>
+      <c r="D160" s="12"/>
+      <c r="E160" s="12"/>
+      <c r="F160" s="8"/>
+      <c r="G160" s="8"/>
     </row>
     <row r="161" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A161" s="11"/>
-      <c r="B161" s="11"/>
-      <c r="C161" s="13"/>
-      <c r="D161" s="15"/>
-      <c r="E161" s="15"/>
-      <c r="F161" s="11"/>
-      <c r="G161" s="11"/>
+      <c r="A161" s="8"/>
+      <c r="B161" s="8"/>
+      <c r="C161" s="10"/>
+      <c r="D161" s="12"/>
+      <c r="E161" s="12"/>
+      <c r="F161" s="8"/>
+      <c r="G161" s="8"/>
     </row>
     <row r="162" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A162" s="11"/>
-      <c r="B162" s="11"/>
-      <c r="C162" s="13"/>
-      <c r="D162" s="15"/>
-      <c r="E162" s="15"/>
-      <c r="F162" s="11"/>
-      <c r="G162" s="11"/>
+      <c r="A162" s="8"/>
+      <c r="B162" s="8"/>
+      <c r="C162" s="10"/>
+      <c r="D162" s="12"/>
+      <c r="E162" s="12"/>
+      <c r="F162" s="8"/>
+      <c r="G162" s="8"/>
     </row>
     <row r="163" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A163" s="11"/>
-      <c r="B163" s="11"/>
-      <c r="C163" s="13"/>
-      <c r="D163" s="15"/>
-      <c r="E163" s="15"/>
-      <c r="F163" s="11"/>
-      <c r="G163" s="11"/>
+      <c r="A163" s="8"/>
+      <c r="B163" s="8"/>
+      <c r="C163" s="10"/>
+      <c r="D163" s="12"/>
+      <c r="E163" s="12"/>
+      <c r="F163" s="8"/>
+      <c r="G163" s="8"/>
     </row>
     <row r="164" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A164" s="11"/>
-      <c r="B164" s="11"/>
-      <c r="C164" s="13"/>
-      <c r="D164" s="15"/>
-      <c r="E164" s="15"/>
-      <c r="F164" s="11"/>
-      <c r="G164" s="11"/>
+      <c r="A164" s="8"/>
+      <c r="B164" s="8"/>
+      <c r="C164" s="10"/>
+      <c r="D164" s="12"/>
+      <c r="E164" s="12"/>
+      <c r="F164" s="8"/>
+      <c r="G164" s="8"/>
     </row>
     <row r="165" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A165" s="11"/>
-      <c r="B165" s="11"/>
-      <c r="C165" s="13"/>
-      <c r="D165" s="15"/>
-      <c r="E165" s="15"/>
-      <c r="F165" s="11"/>
-      <c r="G165" s="11"/>
+      <c r="A165" s="8"/>
+      <c r="B165" s="8"/>
+      <c r="C165" s="10"/>
+      <c r="D165" s="12"/>
+      <c r="E165" s="12"/>
+      <c r="F165" s="8"/>
+      <c r="G165" s="8"/>
     </row>
     <row r="166" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A166" s="11"/>
-      <c r="B166" s="11"/>
-      <c r="C166" s="13"/>
-      <c r="D166" s="15"/>
-      <c r="E166" s="15"/>
-      <c r="F166" s="11"/>
-      <c r="G166" s="11"/>
+      <c r="A166" s="8"/>
+      <c r="B166" s="8"/>
+      <c r="C166" s="10"/>
+      <c r="D166" s="12"/>
+      <c r="E166" s="12"/>
+      <c r="F166" s="8"/>
+      <c r="G166" s="8"/>
     </row>
     <row r="167" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A167" s="11"/>
-      <c r="B167" s="11"/>
-      <c r="C167" s="13"/>
-      <c r="D167" s="15"/>
-      <c r="E167" s="15"/>
-      <c r="F167" s="11"/>
-      <c r="G167" s="11"/>
+      <c r="A167" s="8"/>
+      <c r="B167" s="8"/>
+      <c r="C167" s="10"/>
+      <c r="D167" s="12"/>
+      <c r="E167" s="12"/>
+      <c r="F167" s="8"/>
+      <c r="G167" s="8"/>
     </row>
     <row r="168" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A168" s="11"/>
-      <c r="B168" s="11"/>
-      <c r="C168" s="13"/>
-      <c r="D168" s="15"/>
-      <c r="E168" s="15"/>
-      <c r="F168" s="11"/>
-      <c r="G168" s="11"/>
+      <c r="A168" s="8"/>
+      <c r="B168" s="8"/>
+      <c r="C168" s="10"/>
+      <c r="D168" s="12"/>
+      <c r="E168" s="12"/>
+      <c r="F168" s="8"/>
+      <c r="G168" s="8"/>
     </row>
     <row r="169" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A169" s="11"/>
-      <c r="B169" s="11"/>
-      <c r="C169" s="13"/>
-      <c r="D169" s="15"/>
-      <c r="E169" s="15"/>
-      <c r="F169" s="11"/>
-      <c r="G169" s="11"/>
+      <c r="A169" s="8"/>
+      <c r="B169" s="8"/>
+      <c r="C169" s="10"/>
+      <c r="D169" s="12"/>
+      <c r="E169" s="12"/>
+      <c r="F169" s="8"/>
+      <c r="G169" s="8"/>
     </row>
     <row r="170" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A170" s="11"/>
-      <c r="B170" s="11"/>
-      <c r="C170" s="13"/>
-      <c r="D170" s="15"/>
-      <c r="E170" s="15"/>
-      <c r="F170" s="11"/>
-      <c r="G170" s="11"/>
+      <c r="A170" s="8"/>
+      <c r="B170" s="8"/>
+      <c r="C170" s="10"/>
+      <c r="D170" s="12"/>
+      <c r="E170" s="12"/>
+      <c r="F170" s="8"/>
+      <c r="G170" s="8"/>
     </row>
     <row r="171" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A171" s="11"/>
-      <c r="B171" s="11"/>
-      <c r="C171" s="13"/>
-      <c r="D171" s="15"/>
-      <c r="E171" s="15"/>
-      <c r="F171" s="11"/>
-      <c r="G171" s="11"/>
+      <c r="A171" s="8"/>
+      <c r="B171" s="8"/>
+      <c r="C171" s="10"/>
+      <c r="D171" s="12"/>
+      <c r="E171" s="12"/>
+      <c r="F171" s="8"/>
+      <c r="G171" s="8"/>
     </row>
     <row r="172" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A172" s="11"/>
-      <c r="B172" s="11"/>
-      <c r="C172" s="13"/>
-      <c r="D172" s="15"/>
-      <c r="E172" s="15"/>
-      <c r="F172" s="11"/>
-      <c r="G172" s="11"/>
+      <c r="A172" s="8"/>
+      <c r="B172" s="8"/>
+      <c r="C172" s="10"/>
+      <c r="D172" s="12"/>
+      <c r="E172" s="12"/>
+      <c r="F172" s="8"/>
+      <c r="G172" s="8"/>
     </row>
     <row r="173" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A173" s="11"/>
-      <c r="B173" s="11"/>
-      <c r="C173" s="13"/>
-      <c r="D173" s="15"/>
-      <c r="E173" s="15"/>
-      <c r="F173" s="11"/>
-      <c r="G173" s="11"/>
+      <c r="A173" s="8"/>
+      <c r="B173" s="8"/>
+      <c r="C173" s="10"/>
+      <c r="D173" s="12"/>
+      <c r="E173" s="12"/>
+      <c r="F173" s="8"/>
+      <c r="G173" s="8"/>
     </row>
     <row r="174" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A174" s="11"/>
-      <c r="B174" s="11"/>
-      <c r="C174" s="13"/>
-      <c r="D174" s="15"/>
-      <c r="E174" s="15"/>
-      <c r="F174" s="11"/>
-      <c r="G174" s="11"/>
+      <c r="A174" s="8"/>
+      <c r="B174" s="8"/>
+      <c r="C174" s="10"/>
+      <c r="D174" s="12"/>
+      <c r="E174" s="12"/>
+      <c r="F174" s="8"/>
+      <c r="G174" s="8"/>
     </row>
     <row r="175" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A175" s="11"/>
-      <c r="B175" s="11"/>
-      <c r="C175" s="13"/>
-      <c r="D175" s="15"/>
-      <c r="E175" s="15"/>
-      <c r="F175" s="11"/>
-      <c r="G175" s="11"/>
+      <c r="A175" s="8"/>
+      <c r="B175" s="8"/>
+      <c r="C175" s="10"/>
+      <c r="D175" s="12"/>
+      <c r="E175" s="12"/>
+      <c r="F175" s="8"/>
+      <c r="G175" s="8"/>
     </row>
     <row r="176" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A176" s="11"/>
-      <c r="B176" s="11"/>
-      <c r="C176" s="13"/>
-      <c r="D176" s="15"/>
-      <c r="E176" s="15"/>
-      <c r="F176" s="11"/>
-      <c r="G176" s="11"/>
+      <c r="A176" s="8"/>
+      <c r="B176" s="8"/>
+      <c r="C176" s="10"/>
+      <c r="D176" s="12"/>
+      <c r="E176" s="12"/>
+      <c r="F176" s="8"/>
+      <c r="G176" s="8"/>
     </row>
     <row r="177" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A177" s="11"/>
-      <c r="B177" s="11"/>
-      <c r="C177" s="13"/>
-      <c r="D177" s="15"/>
-      <c r="E177" s="15"/>
-      <c r="F177" s="11"/>
-      <c r="G177" s="11"/>
+      <c r="A177" s="8"/>
+      <c r="B177" s="8"/>
+      <c r="C177" s="10"/>
+      <c r="D177" s="12"/>
+      <c r="E177" s="12"/>
+      <c r="F177" s="8"/>
+      <c r="G177" s="8"/>
     </row>
     <row r="178" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A178" s="11"/>
-      <c r="B178" s="13"/>
-      <c r="C178" s="13"/>
-      <c r="D178" s="15"/>
-      <c r="E178" s="15"/>
-      <c r="F178" s="11"/>
-      <c r="G178" s="11"/>
+      <c r="A178" s="8"/>
+      <c r="B178" s="10"/>
+      <c r="C178" s="10"/>
+      <c r="D178" s="12"/>
+      <c r="E178" s="12"/>
+      <c r="F178" s="8"/>
+      <c r="G178" s="8"/>
     </row>
     <row r="179" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A179" s="11"/>
-      <c r="B179" s="11"/>
-      <c r="C179" s="13"/>
-      <c r="D179" s="15"/>
-      <c r="E179" s="15"/>
-      <c r="F179" s="11"/>
-      <c r="G179" s="11"/>
+      <c r="A179" s="8"/>
+      <c r="B179" s="8"/>
+      <c r="C179" s="10"/>
+      <c r="D179" s="12"/>
+      <c r="E179" s="12"/>
+      <c r="F179" s="8"/>
+      <c r="G179" s="8"/>
     </row>
     <row r="180" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A180" s="11"/>
-      <c r="B180" s="11"/>
-      <c r="C180" s="13"/>
-      <c r="D180" s="15"/>
-      <c r="E180" s="15"/>
-      <c r="F180" s="11"/>
-      <c r="G180" s="11"/>
+      <c r="A180" s="8"/>
+      <c r="B180" s="8"/>
+      <c r="C180" s="10"/>
+      <c r="D180" s="12"/>
+      <c r="E180" s="12"/>
+      <c r="F180" s="8"/>
+      <c r="G180" s="8"/>
     </row>
     <row r="181" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A181" s="11"/>
-      <c r="B181" s="11"/>
-      <c r="C181" s="13"/>
-      <c r="D181" s="15"/>
-      <c r="E181" s="15"/>
-      <c r="F181" s="11"/>
-      <c r="G181" s="11"/>
+      <c r="A181" s="8"/>
+      <c r="B181" s="8"/>
+      <c r="C181" s="10"/>
+      <c r="D181" s="12"/>
+      <c r="E181" s="12"/>
+      <c r="F181" s="8"/>
+      <c r="G181" s="8"/>
     </row>
     <row r="182" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A182" s="11"/>
-      <c r="B182" s="11"/>
-      <c r="C182" s="13"/>
-      <c r="D182" s="15"/>
-      <c r="E182" s="15"/>
-      <c r="F182" s="11"/>
-      <c r="G182" s="11"/>
+      <c r="A182" s="8"/>
+      <c r="B182" s="8"/>
+      <c r="C182" s="10"/>
+      <c r="D182" s="12"/>
+      <c r="E182" s="12"/>
+      <c r="F182" s="8"/>
+      <c r="G182" s="8"/>
     </row>
     <row r="183" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A183" s="11"/>
-      <c r="B183" s="11"/>
-      <c r="C183" s="13"/>
-      <c r="D183" s="15"/>
-      <c r="E183" s="15"/>
-      <c r="F183" s="11"/>
-      <c r="G183" s="11"/>
+      <c r="A183" s="8"/>
+      <c r="B183" s="8"/>
+      <c r="C183" s="10"/>
+      <c r="D183" s="12"/>
+      <c r="E183" s="12"/>
+      <c r="F183" s="8"/>
+      <c r="G183" s="8"/>
     </row>
     <row r="184" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A184" s="11"/>
-      <c r="B184" s="11"/>
-      <c r="C184" s="13"/>
-      <c r="D184" s="15"/>
-      <c r="E184" s="15"/>
-      <c r="F184" s="11"/>
-      <c r="G184" s="11"/>
+      <c r="A184" s="8"/>
+      <c r="B184" s="8"/>
+      <c r="C184" s="10"/>
+      <c r="D184" s="12"/>
+      <c r="E184" s="12"/>
+      <c r="F184" s="8"/>
+      <c r="G184" s="8"/>
     </row>
     <row r="185" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A185" s="11"/>
-      <c r="B185" s="11"/>
-      <c r="C185" s="13"/>
-      <c r="D185" s="15"/>
-      <c r="E185" s="15"/>
-      <c r="F185" s="11"/>
-      <c r="G185" s="11"/>
+      <c r="A185" s="8"/>
+      <c r="B185" s="8"/>
+      <c r="C185" s="10"/>
+      <c r="D185" s="12"/>
+      <c r="E185" s="12"/>
+      <c r="F185" s="8"/>
+      <c r="G185" s="8"/>
     </row>
     <row r="186" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A186" s="11"/>
-      <c r="B186" s="11"/>
-      <c r="C186" s="13"/>
-      <c r="D186" s="15"/>
-      <c r="E186" s="15"/>
-      <c r="F186" s="11"/>
-      <c r="G186" s="11"/>
+      <c r="A186" s="8"/>
+      <c r="B186" s="8"/>
+      <c r="C186" s="10"/>
+      <c r="D186" s="12"/>
+      <c r="E186" s="12"/>
+      <c r="F186" s="8"/>
+      <c r="G186" s="8"/>
     </row>
     <row r="187" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A187" s="11"/>
-      <c r="B187" s="11"/>
-      <c r="C187" s="13"/>
-      <c r="D187" s="15"/>
-      <c r="E187" s="15"/>
-      <c r="F187" s="11"/>
-      <c r="G187" s="11"/>
+      <c r="A187" s="8"/>
+      <c r="B187" s="8"/>
+      <c r="C187" s="10"/>
+      <c r="D187" s="12"/>
+      <c r="E187" s="12"/>
+      <c r="F187" s="8"/>
+      <c r="G187" s="8"/>
     </row>
     <row r="188" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A188" s="11"/>
-      <c r="B188" s="11"/>
-      <c r="C188" s="13"/>
-      <c r="D188" s="15"/>
-      <c r="E188" s="15"/>
-      <c r="F188" s="11"/>
-      <c r="G188" s="11"/>
+      <c r="A188" s="8"/>
+      <c r="B188" s="8"/>
+      <c r="C188" s="10"/>
+      <c r="D188" s="12"/>
+      <c r="E188" s="12"/>
+      <c r="F188" s="8"/>
+      <c r="G188" s="8"/>
     </row>
     <row r="189" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A189" s="11"/>
-      <c r="B189" s="11"/>
-      <c r="C189" s="13"/>
-      <c r="D189" s="15"/>
-      <c r="E189" s="15"/>
-      <c r="F189" s="11"/>
-      <c r="G189" s="11"/>
+      <c r="A189" s="8"/>
+      <c r="B189" s="8"/>
+      <c r="C189" s="10"/>
+      <c r="D189" s="12"/>
+      <c r="E189" s="12"/>
+      <c r="F189" s="8"/>
+      <c r="G189" s="8"/>
     </row>
     <row r="190" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A190" s="11"/>
-      <c r="B190" s="11"/>
-      <c r="C190" s="13"/>
-      <c r="D190" s="15"/>
-      <c r="E190" s="15"/>
-      <c r="F190" s="11"/>
-      <c r="G190" s="11"/>
+      <c r="A190" s="8"/>
+      <c r="B190" s="8"/>
+      <c r="C190" s="10"/>
+      <c r="D190" s="12"/>
+      <c r="E190" s="12"/>
+      <c r="F190" s="8"/>
+      <c r="G190" s="8"/>
     </row>
     <row r="191" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A191" s="11"/>
-      <c r="B191" s="11"/>
-      <c r="C191" s="13"/>
-      <c r="D191" s="15"/>
-      <c r="E191" s="15"/>
-      <c r="F191" s="11"/>
-      <c r="G191" s="11"/>
+      <c r="A191" s="8"/>
+      <c r="B191" s="8"/>
+      <c r="C191" s="10"/>
+      <c r="D191" s="12"/>
+      <c r="E191" s="12"/>
+      <c r="F191" s="8"/>
+      <c r="G191" s="8"/>
     </row>
     <row r="192" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A192" s="6"/>
-      <c r="B192" s="6"/>
-      <c r="C192" s="7"/>
-      <c r="D192" s="8"/>
-      <c r="E192" s="8"/>
-      <c r="F192" s="9"/>
-      <c r="G192" s="9"/>
+      <c r="A192" s="3"/>
+      <c r="B192" s="3"/>
+      <c r="C192" s="4"/>
+      <c r="D192" s="5"/>
+      <c r="E192" s="5"/>
+      <c r="F192" s="6"/>
+      <c r="G192" s="6"/>
     </row>
     <row r="193" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A193" s="6"/>
-      <c r="B193" s="6"/>
-      <c r="C193" s="7"/>
-      <c r="D193" s="8"/>
-      <c r="E193" s="8"/>
-      <c r="F193" s="9"/>
-      <c r="G193" s="9"/>
+      <c r="A193" s="3"/>
+      <c r="B193" s="3"/>
+      <c r="C193" s="4"/>
+      <c r="D193" s="5"/>
+      <c r="E193" s="5"/>
+      <c r="F193" s="6"/>
+      <c r="G193" s="6"/>
     </row>
     <row r="194" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A194" s="6"/>
-      <c r="B194" s="6"/>
-      <c r="C194" s="7"/>
-      <c r="D194" s="8"/>
-      <c r="E194" s="8"/>
-      <c r="F194" s="9"/>
-      <c r="G194" s="9"/>
+      <c r="A194" s="3"/>
+      <c r="B194" s="3"/>
+      <c r="C194" s="4"/>
+      <c r="D194" s="5"/>
+      <c r="E194" s="5"/>
+      <c r="F194" s="6"/>
+      <c r="G194" s="6"/>
     </row>
     <row r="195" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A195" s="6"/>
-      <c r="B195" s="6"/>
-      <c r="C195" s="7"/>
-      <c r="D195" s="8"/>
-      <c r="E195" s="8"/>
-      <c r="F195" s="9"/>
-      <c r="G195" s="9"/>
+      <c r="A195" s="3"/>
+      <c r="B195" s="3"/>
+      <c r="C195" s="4"/>
+      <c r="D195" s="5"/>
+      <c r="E195" s="5"/>
+      <c r="F195" s="6"/>
+      <c r="G195" s="6"/>
     </row>
     <row r="196" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A196" s="6"/>
-      <c r="B196" s="6"/>
-      <c r="C196" s="7"/>
-      <c r="D196" s="8"/>
-      <c r="E196" s="8"/>
-      <c r="F196" s="9"/>
-      <c r="G196" s="9"/>
+      <c r="A196" s="3"/>
+      <c r="B196" s="3"/>
+      <c r="C196" s="4"/>
+      <c r="D196" s="5"/>
+      <c r="E196" s="5"/>
+      <c r="F196" s="6"/>
+      <c r="G196" s="6"/>
     </row>
     <row r="197" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A197" s="6"/>
-      <c r="B197" s="6"/>
-      <c r="C197" s="7"/>
-      <c r="D197" s="8"/>
-      <c r="E197" s="8"/>
-      <c r="F197" s="9"/>
-      <c r="G197" s="9"/>
+      <c r="A197" s="3"/>
+      <c r="B197" s="3"/>
+      <c r="C197" s="4"/>
+      <c r="D197" s="5"/>
+      <c r="E197" s="5"/>
+      <c r="F197" s="6"/>
+      <c r="G197" s="6"/>
     </row>
     <row r="198" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A198" s="11"/>
-      <c r="B198" s="11"/>
-      <c r="C198" s="13"/>
-      <c r="D198" s="15"/>
-      <c r="E198" s="15"/>
-      <c r="F198" s="11"/>
-      <c r="G198" s="11"/>
+      <c r="A198" s="8"/>
+      <c r="B198" s="8"/>
+      <c r="C198" s="10"/>
+      <c r="D198" s="12"/>
+      <c r="E198" s="12"/>
+      <c r="F198" s="8"/>
+      <c r="G198" s="8"/>
     </row>
     <row r="199" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A199" s="11"/>
-      <c r="B199" s="11"/>
-      <c r="C199" s="13"/>
-      <c r="D199" s="15"/>
-      <c r="E199" s="15"/>
-      <c r="F199" s="11"/>
-      <c r="G199" s="11"/>
+      <c r="A199" s="8"/>
+      <c r="B199" s="8"/>
+      <c r="C199" s="10"/>
+      <c r="D199" s="12"/>
+      <c r="E199" s="12"/>
+      <c r="F199" s="8"/>
+      <c r="G199" s="8"/>
     </row>
     <row r="200" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A200" s="11"/>
-      <c r="B200" s="13"/>
-      <c r="C200" s="13"/>
-      <c r="D200" s="15"/>
-      <c r="E200" s="15"/>
-      <c r="F200" s="11"/>
-      <c r="G200" s="11"/>
+      <c r="A200" s="8"/>
+      <c r="B200" s="10"/>
+      <c r="C200" s="10"/>
+      <c r="D200" s="12"/>
+      <c r="E200" s="12"/>
+      <c r="F200" s="8"/>
+      <c r="G200" s="8"/>
     </row>
     <row r="201" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A201" s="11"/>
-      <c r="B201" s="11"/>
-      <c r="C201" s="13"/>
-      <c r="D201" s="15"/>
-      <c r="E201" s="15"/>
-      <c r="F201" s="11"/>
-      <c r="G201" s="11"/>
+      <c r="A201" s="8"/>
+      <c r="B201" s="8"/>
+      <c r="C201" s="10"/>
+      <c r="D201" s="12"/>
+      <c r="E201" s="12"/>
+      <c r="F201" s="8"/>
+      <c r="G201" s="8"/>
     </row>
     <row r="202" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A202" s="11"/>
-      <c r="B202" s="11"/>
-      <c r="C202" s="13"/>
-      <c r="D202" s="15"/>
-      <c r="E202" s="15"/>
-      <c r="F202" s="11"/>
-      <c r="G202" s="11"/>
+      <c r="A202" s="8"/>
+      <c r="B202" s="8"/>
+      <c r="C202" s="10"/>
+      <c r="D202" s="12"/>
+      <c r="E202" s="12"/>
+      <c r="F202" s="8"/>
+      <c r="G202" s="8"/>
     </row>
     <row r="203" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A203" s="11"/>
-      <c r="B203" s="11"/>
-      <c r="C203" s="13"/>
-      <c r="D203" s="15"/>
-      <c r="E203" s="15"/>
-      <c r="F203" s="11"/>
-      <c r="G203" s="11"/>
+      <c r="A203" s="8"/>
+      <c r="B203" s="8"/>
+      <c r="C203" s="10"/>
+      <c r="D203" s="12"/>
+      <c r="E203" s="12"/>
+      <c r="F203" s="8"/>
+      <c r="G203" s="8"/>
     </row>
     <row r="204" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A204" s="11"/>
-      <c r="B204" s="11"/>
-      <c r="C204" s="13"/>
-      <c r="D204" s="15"/>
-      <c r="E204" s="15"/>
-      <c r="F204" s="11"/>
-      <c r="G204" s="11"/>
+      <c r="A204" s="8"/>
+      <c r="B204" s="8"/>
+      <c r="C204" s="10"/>
+      <c r="D204" s="12"/>
+      <c r="E204" s="12"/>
+      <c r="F204" s="8"/>
+      <c r="G204" s="8"/>
     </row>
     <row r="205" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A205" s="11"/>
-      <c r="B205" s="11"/>
-      <c r="C205" s="13"/>
-      <c r="D205" s="15"/>
-      <c r="E205" s="15"/>
-      <c r="F205" s="11"/>
-      <c r="G205" s="11"/>
+      <c r="A205" s="8"/>
+      <c r="B205" s="8"/>
+      <c r="C205" s="10"/>
+      <c r="D205" s="12"/>
+      <c r="E205" s="12"/>
+      <c r="F205" s="8"/>
+      <c r="G205" s="8"/>
     </row>
     <row r="206" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A206" s="11"/>
-      <c r="B206" s="11"/>
-      <c r="C206" s="13"/>
-      <c r="D206" s="15"/>
-      <c r="E206" s="15"/>
-      <c r="F206" s="11"/>
-      <c r="G206" s="11"/>
+      <c r="A206" s="8"/>
+      <c r="B206" s="8"/>
+      <c r="C206" s="10"/>
+      <c r="D206" s="12"/>
+      <c r="E206" s="12"/>
+      <c r="F206" s="8"/>
+      <c r="G206" s="8"/>
     </row>
     <row r="207" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A207" s="11"/>
-      <c r="B207" s="11"/>
-      <c r="C207" s="13"/>
-      <c r="D207" s="15"/>
-      <c r="E207" s="15"/>
-      <c r="F207" s="11"/>
-      <c r="G207" s="11"/>
+      <c r="A207" s="8"/>
+      <c r="B207" s="8"/>
+      <c r="C207" s="10"/>
+      <c r="D207" s="12"/>
+      <c r="E207" s="12"/>
+      <c r="F207" s="8"/>
+      <c r="G207" s="8"/>
     </row>
     <row r="208" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A208" s="11"/>
-      <c r="B208" s="11"/>
-      <c r="C208" s="13"/>
-      <c r="D208" s="15"/>
-      <c r="E208" s="15"/>
-      <c r="F208" s="11"/>
-      <c r="G208" s="11"/>
+      <c r="A208" s="8"/>
+      <c r="B208" s="8"/>
+      <c r="C208" s="10"/>
+      <c r="D208" s="12"/>
+      <c r="E208" s="12"/>
+      <c r="F208" s="8"/>
+      <c r="G208" s="8"/>
     </row>
     <row r="209" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A209" s="11"/>
-      <c r="B209" s="11"/>
-      <c r="C209" s="13"/>
-      <c r="D209" s="15"/>
-      <c r="E209" s="15"/>
-      <c r="F209" s="11"/>
-      <c r="G209" s="11"/>
+      <c r="A209" s="8"/>
+      <c r="B209" s="8"/>
+      <c r="C209" s="10"/>
+      <c r="D209" s="12"/>
+      <c r="E209" s="12"/>
+      <c r="F209" s="8"/>
+      <c r="G209" s="8"/>
     </row>
     <row r="210" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A210" s="11"/>
-      <c r="B210" s="11"/>
-      <c r="C210" s="13"/>
-      <c r="D210" s="15"/>
-      <c r="E210" s="15"/>
-      <c r="F210" s="11"/>
-      <c r="G210" s="11"/>
+      <c r="A210" s="8"/>
+      <c r="B210" s="8"/>
+      <c r="C210" s="10"/>
+      <c r="D210" s="12"/>
+      <c r="E210" s="12"/>
+      <c r="F210" s="8"/>
+      <c r="G210" s="8"/>
     </row>
     <row r="211" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A211" s="11"/>
-      <c r="B211" s="11"/>
-      <c r="C211" s="13"/>
-      <c r="D211" s="15"/>
-      <c r="E211" s="15"/>
-      <c r="F211" s="11"/>
-      <c r="G211" s="11"/>
+      <c r="A211" s="8"/>
+      <c r="B211" s="8"/>
+      <c r="C211" s="10"/>
+      <c r="D211" s="12"/>
+      <c r="E211" s="12"/>
+      <c r="F211" s="8"/>
+      <c r="G211" s="8"/>
     </row>
     <row r="212" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A212" s="11"/>
-      <c r="B212" s="11"/>
-      <c r="C212" s="13"/>
-      <c r="D212" s="15"/>
-      <c r="E212" s="15"/>
-      <c r="F212" s="11"/>
-      <c r="G212" s="11"/>
+      <c r="A212" s="8"/>
+      <c r="B212" s="8"/>
+      <c r="C212" s="10"/>
+      <c r="D212" s="12"/>
+      <c r="E212" s="12"/>
+      <c r="F212" s="8"/>
+      <c r="G212" s="8"/>
     </row>
     <row r="213" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A213" s="11"/>
-      <c r="B213" s="11"/>
-      <c r="C213" s="13"/>
-      <c r="D213" s="15"/>
-      <c r="E213" s="15"/>
-      <c r="F213" s="11"/>
-      <c r="G213" s="11"/>
+      <c r="A213" s="8"/>
+      <c r="B213" s="8"/>
+      <c r="C213" s="10"/>
+      <c r="D213" s="12"/>
+      <c r="E213" s="12"/>
+      <c r="F213" s="8"/>
+      <c r="G213" s="8"/>
     </row>
     <row r="214" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A214" s="11"/>
-      <c r="B214" s="11"/>
-      <c r="C214" s="11"/>
-      <c r="D214" s="8"/>
-      <c r="E214" s="8"/>
-      <c r="F214" s="9"/>
-      <c r="G214" s="9"/>
+      <c r="A214" s="8"/>
+      <c r="B214" s="8"/>
+      <c r="C214" s="8"/>
+      <c r="D214" s="5"/>
+      <c r="E214" s="5"/>
+      <c r="F214" s="6"/>
+      <c r="G214" s="6"/>
     </row>
     <row r="215" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A215" s="11"/>
-      <c r="B215" s="11"/>
-      <c r="C215" s="11"/>
-      <c r="D215" s="8"/>
-      <c r="E215" s="8"/>
-      <c r="F215" s="9"/>
-      <c r="G215" s="9"/>
+      <c r="A215" s="8"/>
+      <c r="B215" s="8"/>
+      <c r="C215" s="8"/>
+      <c r="D215" s="5"/>
+      <c r="E215" s="5"/>
+      <c r="F215" s="6"/>
+      <c r="G215" s="6"/>
     </row>
     <row r="216" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A216" s="11"/>
-      <c r="B216" s="11"/>
-      <c r="C216" s="11"/>
-      <c r="D216" s="8"/>
-      <c r="E216" s="8"/>
-      <c r="F216" s="9"/>
-      <c r="G216" s="9"/>
+      <c r="A216" s="8"/>
+      <c r="B216" s="8"/>
+      <c r="C216" s="8"/>
+      <c r="D216" s="5"/>
+      <c r="E216" s="5"/>
+      <c r="F216" s="6"/>
+      <c r="G216" s="6"/>
     </row>
     <row r="217" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A217" s="11"/>
-      <c r="B217" s="11"/>
-      <c r="C217" s="11"/>
-      <c r="D217" s="8"/>
-      <c r="E217" s="8"/>
-      <c r="F217" s="9"/>
-      <c r="G217" s="9"/>
+      <c r="A217" s="8"/>
+      <c r="B217" s="8"/>
+      <c r="C217" s="8"/>
+      <c r="D217" s="5"/>
+      <c r="E217" s="5"/>
+      <c r="F217" s="6"/>
+      <c r="G217" s="6"/>
     </row>
     <row r="218" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A218" s="11"/>
-      <c r="B218" s="11"/>
-      <c r="C218" s="11"/>
-      <c r="D218" s="8"/>
-      <c r="E218" s="8"/>
-      <c r="F218" s="9"/>
-      <c r="G218" s="9"/>
+      <c r="A218" s="8"/>
+      <c r="B218" s="8"/>
+      <c r="C218" s="8"/>
+      <c r="D218" s="5"/>
+      <c r="E218" s="5"/>
+      <c r="F218" s="6"/>
+      <c r="G218" s="6"/>
     </row>
     <row r="219" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A219" s="11"/>
-      <c r="B219" s="11"/>
-      <c r="C219" s="11"/>
-      <c r="D219" s="8"/>
-      <c r="E219" s="8"/>
-      <c r="F219" s="9"/>
-      <c r="G219" s="9"/>
+      <c r="A219" s="8"/>
+      <c r="B219" s="8"/>
+      <c r="C219" s="8"/>
+      <c r="D219" s="5"/>
+      <c r="E219" s="5"/>
+      <c r="F219" s="6"/>
+      <c r="G219" s="6"/>
     </row>
     <row r="220" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A220" s="11"/>
-      <c r="B220" s="11"/>
-      <c r="C220" s="11"/>
-      <c r="D220" s="8"/>
-      <c r="E220" s="8"/>
-      <c r="F220" s="9"/>
-      <c r="G220" s="9"/>
+      <c r="A220" s="8"/>
+      <c r="B220" s="8"/>
+      <c r="C220" s="8"/>
+      <c r="D220" s="5"/>
+      <c r="E220" s="5"/>
+      <c r="F220" s="6"/>
+      <c r="G220" s="6"/>
     </row>
     <row r="221" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A221" s="11"/>
-      <c r="B221" s="11"/>
-      <c r="C221" s="11"/>
-      <c r="D221" s="8"/>
-      <c r="E221" s="8"/>
-      <c r="F221" s="9"/>
-      <c r="G221" s="9"/>
+      <c r="A221" s="8"/>
+      <c r="B221" s="8"/>
+      <c r="C221" s="8"/>
+      <c r="D221" s="5"/>
+      <c r="E221" s="5"/>
+      <c r="F221" s="6"/>
+      <c r="G221" s="6"/>
     </row>
     <row r="222" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A222" s="11"/>
-      <c r="B222" s="11"/>
-      <c r="C222" s="11"/>
-      <c r="D222" s="8"/>
-      <c r="E222" s="8"/>
-      <c r="F222" s="9"/>
-      <c r="G222" s="9"/>
+      <c r="A222" s="8"/>
+      <c r="B222" s="8"/>
+      <c r="C222" s="8"/>
+      <c r="D222" s="5"/>
+      <c r="E222" s="5"/>
+      <c r="F222" s="6"/>
+      <c r="G222" s="6"/>
     </row>
     <row r="223" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A223" s="11"/>
-      <c r="B223" s="11"/>
-      <c r="C223" s="11"/>
-      <c r="D223" s="8"/>
-      <c r="E223" s="8"/>
-      <c r="F223" s="9"/>
-      <c r="G223" s="9"/>
+      <c r="A223" s="8"/>
+      <c r="B223" s="8"/>
+      <c r="C223" s="8"/>
+      <c r="D223" s="5"/>
+      <c r="E223" s="5"/>
+      <c r="F223" s="6"/>
+      <c r="G223" s="6"/>
     </row>
     <row r="224" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A224" s="11"/>
-      <c r="B224" s="11"/>
-      <c r="C224" s="11"/>
-      <c r="D224" s="8"/>
-      <c r="E224" s="8"/>
-      <c r="F224" s="9"/>
-      <c r="G224" s="9"/>
+      <c r="A224" s="8"/>
+      <c r="B224" s="8"/>
+      <c r="C224" s="8"/>
+      <c r="D224" s="5"/>
+      <c r="E224" s="5"/>
+      <c r="F224" s="6"/>
+      <c r="G224" s="6"/>
     </row>
     <row r="225" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A225" s="11"/>
-      <c r="B225" s="11"/>
-      <c r="C225" s="11"/>
-      <c r="D225" s="8"/>
-      <c r="E225" s="8"/>
-      <c r="F225" s="9"/>
-      <c r="G225" s="9"/>
+      <c r="A225" s="8"/>
+      <c r="B225" s="8"/>
+      <c r="C225" s="8"/>
+      <c r="D225" s="5"/>
+      <c r="E225" s="5"/>
+      <c r="F225" s="6"/>
+      <c r="G225" s="6"/>
     </row>
     <row r="226" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A226" s="11"/>
-      <c r="B226" s="11"/>
-      <c r="C226" s="11"/>
-      <c r="D226" s="8"/>
-      <c r="E226" s="8"/>
-      <c r="F226" s="9"/>
-      <c r="G226" s="9"/>
+      <c r="A226" s="8"/>
+      <c r="B226" s="8"/>
+      <c r="C226" s="8"/>
+      <c r="D226" s="5"/>
+      <c r="E226" s="5"/>
+      <c r="F226" s="6"/>
+      <c r="G226" s="6"/>
     </row>
     <row r="227" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A227" s="11"/>
-      <c r="B227" s="11"/>
-      <c r="C227" s="11"/>
-      <c r="D227" s="8"/>
-      <c r="E227" s="8"/>
-      <c r="F227" s="9"/>
-      <c r="G227" s="9"/>
+      <c r="A227" s="8"/>
+      <c r="B227" s="8"/>
+      <c r="C227" s="8"/>
+      <c r="D227" s="5"/>
+      <c r="E227" s="5"/>
+      <c r="F227" s="6"/>
+      <c r="G227" s="6"/>
     </row>
     <row r="228" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A228" s="11"/>
-      <c r="B228" s="11"/>
-      <c r="C228" s="11"/>
-      <c r="D228" s="8"/>
-      <c r="E228" s="8"/>
-      <c r="F228" s="9"/>
-      <c r="G228" s="9"/>
+      <c r="A228" s="8"/>
+      <c r="B228" s="8"/>
+      <c r="C228" s="8"/>
+      <c r="D228" s="5"/>
+      <c r="E228" s="5"/>
+      <c r="F228" s="6"/>
+      <c r="G228" s="6"/>
     </row>
     <row r="229" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A229" s="11"/>
-      <c r="B229" s="11"/>
-      <c r="C229" s="11"/>
-      <c r="D229" s="8"/>
-      <c r="E229" s="8"/>
-      <c r="F229" s="9"/>
-      <c r="G229" s="9"/>
+      <c r="A229" s="8"/>
+      <c r="B229" s="8"/>
+      <c r="C229" s="8"/>
+      <c r="D229" s="5"/>
+      <c r="E229" s="5"/>
+      <c r="F229" s="6"/>
+      <c r="G229" s="6"/>
     </row>
     <row r="230" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A230" s="11"/>
-      <c r="B230" s="11"/>
-      <c r="C230" s="11"/>
-      <c r="D230" s="8"/>
-      <c r="E230" s="8"/>
-      <c r="F230" s="9"/>
-      <c r="G230" s="9"/>
+      <c r="A230" s="8"/>
+      <c r="B230" s="8"/>
+      <c r="C230" s="8"/>
+      <c r="D230" s="5"/>
+      <c r="E230" s="5"/>
+      <c r="F230" s="6"/>
+      <c r="G230" s="6"/>
     </row>
     <row r="231" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A231" s="11"/>
-      <c r="B231" s="11"/>
-      <c r="C231" s="11"/>
-      <c r="D231" s="8"/>
-      <c r="E231" s="8"/>
-      <c r="F231" s="9"/>
-      <c r="G231" s="9"/>
+      <c r="A231" s="8"/>
+      <c r="B231" s="8"/>
+      <c r="C231" s="8"/>
+      <c r="D231" s="5"/>
+      <c r="E231" s="5"/>
+      <c r="F231" s="6"/>
+      <c r="G231" s="6"/>
     </row>
     <row r="232" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A232" s="11"/>
-      <c r="B232" s="11"/>
-      <c r="C232" s="11"/>
-      <c r="D232" s="8"/>
-      <c r="E232" s="8"/>
-      <c r="F232" s="9"/>
-      <c r="G232" s="9"/>
+      <c r="A232" s="8"/>
+      <c r="B232" s="8"/>
+      <c r="C232" s="8"/>
+      <c r="D232" s="5"/>
+      <c r="E232" s="5"/>
+      <c r="F232" s="6"/>
+      <c r="G232" s="6"/>
     </row>
     <row r="233" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A233" s="11"/>
-      <c r="B233" s="11"/>
-      <c r="C233" s="11"/>
-      <c r="D233" s="8"/>
-      <c r="E233" s="8"/>
-      <c r="F233" s="9"/>
-      <c r="G233" s="9"/>
+      <c r="A233" s="8"/>
+      <c r="B233" s="8"/>
+      <c r="C233" s="8"/>
+      <c r="D233" s="5"/>
+      <c r="E233" s="5"/>
+      <c r="F233" s="6"/>
+      <c r="G233" s="6"/>
     </row>
     <row r="234" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A234" s="11"/>
-      <c r="B234" s="11"/>
-      <c r="C234" s="11"/>
-      <c r="D234" s="8"/>
-      <c r="E234" s="8"/>
-      <c r="F234" s="9"/>
-      <c r="G234" s="9"/>
+      <c r="A234" s="8"/>
+      <c r="B234" s="8"/>
+      <c r="C234" s="8"/>
+      <c r="D234" s="5"/>
+      <c r="E234" s="5"/>
+      <c r="F234" s="6"/>
+      <c r="G234" s="6"/>
     </row>
     <row r="235" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A235" s="11"/>
-      <c r="B235" s="11"/>
-      <c r="C235" s="11"/>
-      <c r="D235" s="8"/>
-      <c r="E235" s="8"/>
-      <c r="F235" s="9"/>
-      <c r="G235" s="9"/>
+      <c r="A235" s="8"/>
+      <c r="B235" s="8"/>
+      <c r="C235" s="8"/>
+      <c r="D235" s="5"/>
+      <c r="E235" s="5"/>
+      <c r="F235" s="6"/>
+      <c r="G235" s="6"/>
     </row>
     <row r="236" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A236" s="11"/>
-      <c r="B236" s="11"/>
-      <c r="C236" s="11"/>
-      <c r="D236" s="8"/>
-      <c r="E236" s="8"/>
-      <c r="F236" s="9"/>
-      <c r="G236" s="9"/>
+      <c r="A236" s="8"/>
+      <c r="B236" s="8"/>
+      <c r="C236" s="8"/>
+      <c r="D236" s="5"/>
+      <c r="E236" s="5"/>
+      <c r="F236" s="6"/>
+      <c r="G236" s="6"/>
     </row>
     <row r="237" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A237" s="11"/>
-      <c r="B237" s="11"/>
-      <c r="C237" s="11"/>
-      <c r="D237" s="8"/>
-      <c r="E237" s="8"/>
-      <c r="F237" s="9"/>
-      <c r="G237" s="9"/>
+      <c r="A237" s="8"/>
+      <c r="B237" s="8"/>
+      <c r="C237" s="8"/>
+      <c r="D237" s="5"/>
+      <c r="E237" s="5"/>
+      <c r="F237" s="6"/>
+      <c r="G237" s="6"/>
     </row>
     <row r="238" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A238" s="11"/>
-      <c r="B238" s="11"/>
-      <c r="C238" s="11"/>
-      <c r="D238" s="8"/>
-      <c r="E238" s="8"/>
-      <c r="F238" s="9"/>
-      <c r="G238" s="9"/>
+      <c r="A238" s="8"/>
+      <c r="B238" s="8"/>
+      <c r="C238" s="8"/>
+      <c r="D238" s="5"/>
+      <c r="E238" s="5"/>
+      <c r="F238" s="6"/>
+      <c r="G238" s="6"/>
     </row>
     <row r="239" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A239" s="11"/>
-      <c r="B239" s="11"/>
-      <c r="C239" s="11"/>
-      <c r="D239" s="8"/>
-      <c r="E239" s="8"/>
-      <c r="F239" s="9"/>
-      <c r="G239" s="9"/>
+      <c r="A239" s="8"/>
+      <c r="B239" s="8"/>
+      <c r="C239" s="8"/>
+      <c r="D239" s="5"/>
+      <c r="E239" s="5"/>
+      <c r="F239" s="6"/>
+      <c r="G239" s="6"/>
     </row>
     <row r="240" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A240" s="11"/>
-      <c r="B240" s="11"/>
-      <c r="C240" s="11"/>
-      <c r="D240" s="8"/>
-      <c r="E240" s="8"/>
-      <c r="F240" s="9"/>
-      <c r="G240" s="9"/>
+      <c r="A240" s="8"/>
+      <c r="B240" s="8"/>
+      <c r="C240" s="8"/>
+      <c r="D240" s="5"/>
+      <c r="E240" s="5"/>
+      <c r="F240" s="6"/>
+      <c r="G240" s="6"/>
     </row>
     <row r="241" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A241" s="11"/>
-      <c r="B241" s="11"/>
-      <c r="C241" s="11"/>
-      <c r="D241" s="8"/>
-      <c r="E241" s="8"/>
-      <c r="F241" s="9"/>
-      <c r="G241" s="9"/>
+      <c r="A241" s="8"/>
+      <c r="B241" s="8"/>
+      <c r="C241" s="8"/>
+      <c r="D241" s="5"/>
+      <c r="E241" s="5"/>
+      <c r="F241" s="6"/>
+      <c r="G241" s="6"/>
     </row>
     <row r="242" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A242" s="11"/>
-      <c r="B242" s="11"/>
-      <c r="C242" s="11"/>
-      <c r="D242" s="8"/>
-      <c r="E242" s="8"/>
-      <c r="F242" s="9"/>
-      <c r="G242" s="9"/>
+      <c r="A242" s="8"/>
+      <c r="B242" s="8"/>
+      <c r="C242" s="8"/>
+      <c r="D242" s="5"/>
+      <c r="E242" s="5"/>
+      <c r="F242" s="6"/>
+      <c r="G242" s="6"/>
     </row>
     <row r="243" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A243" s="11"/>
-      <c r="B243" s="11"/>
-      <c r="C243" s="11"/>
-      <c r="D243" s="8"/>
-      <c r="E243" s="8"/>
-      <c r="F243" s="9"/>
-      <c r="G243" s="9"/>
+      <c r="A243" s="8"/>
+      <c r="B243" s="8"/>
+      <c r="C243" s="8"/>
+      <c r="D243" s="5"/>
+      <c r="E243" s="5"/>
+      <c r="F243" s="6"/>
+      <c r="G243" s="6"/>
     </row>
     <row r="244" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A244" s="11"/>
-      <c r="B244" s="11"/>
-      <c r="C244" s="11"/>
-      <c r="D244" s="8"/>
-      <c r="E244" s="8"/>
-      <c r="F244" s="9"/>
-      <c r="G244" s="9"/>
+      <c r="A244" s="8"/>
+      <c r="B244" s="8"/>
+      <c r="C244" s="8"/>
+      <c r="D244" s="5"/>
+      <c r="E244" s="5"/>
+      <c r="F244" s="6"/>
+      <c r="G244" s="6"/>
     </row>
     <row r="245" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A245" s="11"/>
-      <c r="B245" s="11"/>
-      <c r="C245" s="11"/>
-      <c r="D245" s="8"/>
-      <c r="E245" s="8"/>
-      <c r="F245" s="9"/>
-      <c r="G245" s="9"/>
+      <c r="A245" s="8"/>
+      <c r="B245" s="8"/>
+      <c r="C245" s="8"/>
+      <c r="D245" s="5"/>
+      <c r="E245" s="5"/>
+      <c r="F245" s="6"/>
+      <c r="G245" s="6"/>
     </row>
     <row r="246" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A246" s="11"/>
-      <c r="B246" s="11"/>
-      <c r="C246" s="11"/>
-      <c r="D246" s="8"/>
-      <c r="E246" s="8"/>
-      <c r="F246" s="9"/>
-      <c r="G246" s="9"/>
+      <c r="A246" s="8"/>
+      <c r="B246" s="8"/>
+      <c r="C246" s="8"/>
+      <c r="D246" s="5"/>
+      <c r="E246" s="5"/>
+      <c r="F246" s="6"/>
+      <c r="G246" s="6"/>
     </row>
     <row r="247" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A247" s="11"/>
-      <c r="B247" s="11"/>
-      <c r="C247" s="11"/>
-      <c r="D247" s="8"/>
-      <c r="E247" s="8"/>
-      <c r="F247" s="9"/>
-      <c r="G247" s="9"/>
+      <c r="A247" s="8"/>
+      <c r="B247" s="8"/>
+      <c r="C247" s="8"/>
+      <c r="D247" s="5"/>
+      <c r="E247" s="5"/>
+      <c r="F247" s="6"/>
+      <c r="G247" s="6"/>
     </row>
     <row r="248" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A248" s="11"/>
-      <c r="B248" s="11"/>
-      <c r="C248" s="11"/>
-      <c r="D248" s="8"/>
-      <c r="E248" s="8"/>
-      <c r="F248" s="9"/>
-      <c r="G248" s="9"/>
+      <c r="A248" s="8"/>
+      <c r="B248" s="8"/>
+      <c r="C248" s="8"/>
+      <c r="D248" s="5"/>
+      <c r="E248" s="5"/>
+      <c r="F248" s="6"/>
+      <c r="G248" s="6"/>
     </row>
     <row r="249" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A249" s="11"/>
-      <c r="B249" s="11"/>
-      <c r="C249" s="11"/>
-      <c r="D249" s="8"/>
-      <c r="E249" s="8"/>
-      <c r="F249" s="9"/>
-      <c r="G249" s="9"/>
+      <c r="A249" s="8"/>
+      <c r="B249" s="8"/>
+      <c r="C249" s="8"/>
+      <c r="D249" s="5"/>
+      <c r="E249" s="5"/>
+      <c r="F249" s="6"/>
+      <c r="G249" s="6"/>
     </row>
     <row r="250" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A250" s="11"/>
-      <c r="B250" s="11"/>
-      <c r="C250" s="11"/>
-      <c r="D250" s="8"/>
-      <c r="E250" s="8"/>
-      <c r="F250" s="9"/>
-      <c r="G250" s="9"/>
+      <c r="A250" s="8"/>
+      <c r="B250" s="8"/>
+      <c r="C250" s="8"/>
+      <c r="D250" s="5"/>
+      <c r="E250" s="5"/>
+      <c r="F250" s="6"/>
+      <c r="G250" s="6"/>
     </row>
     <row r="251" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A251" s="11"/>
-      <c r="B251" s="11"/>
-      <c r="C251" s="11"/>
-      <c r="D251" s="8"/>
-      <c r="E251" s="8"/>
-      <c r="F251" s="9"/>
-      <c r="G251" s="9"/>
+      <c r="A251" s="8"/>
+      <c r="B251" s="8"/>
+      <c r="C251" s="8"/>
+      <c r="D251" s="5"/>
+      <c r="E251" s="5"/>
+      <c r="F251" s="6"/>
+      <c r="G251" s="6"/>
     </row>
     <row r="252" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A252" s="11"/>
-      <c r="B252" s="11"/>
-      <c r="C252" s="11"/>
-      <c r="D252" s="8"/>
-      <c r="E252" s="8"/>
-      <c r="F252" s="9"/>
-      <c r="G252" s="9"/>
+      <c r="A252" s="8"/>
+      <c r="B252" s="8"/>
+      <c r="C252" s="8"/>
+      <c r="D252" s="5"/>
+      <c r="E252" s="5"/>
+      <c r="F252" s="6"/>
+      <c r="G252" s="6"/>
     </row>
     <row r="253" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A253" s="11"/>
-      <c r="B253" s="11"/>
-      <c r="C253" s="11"/>
-      <c r="D253" s="8"/>
-      <c r="E253" s="8"/>
-      <c r="F253" s="9"/>
-      <c r="G253" s="9"/>
+      <c r="A253" s="8"/>
+      <c r="B253" s="8"/>
+      <c r="C253" s="8"/>
+      <c r="D253" s="5"/>
+      <c r="E253" s="5"/>
+      <c r="F253" s="6"/>
+      <c r="G253" s="6"/>
     </row>
     <row r="254" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A254" s="11"/>
-      <c r="B254" s="11"/>
-      <c r="C254" s="11"/>
-      <c r="D254" s="8"/>
-      <c r="E254" s="8"/>
-      <c r="F254" s="9"/>
-      <c r="G254" s="9"/>
+      <c r="A254" s="8"/>
+      <c r="B254" s="8"/>
+      <c r="C254" s="8"/>
+      <c r="D254" s="5"/>
+      <c r="E254" s="5"/>
+      <c r="F254" s="6"/>
+      <c r="G254" s="6"/>
     </row>
     <row r="255" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A255" s="11"/>
-      <c r="B255" s="11"/>
-      <c r="C255" s="11"/>
-      <c r="D255" s="8"/>
-      <c r="E255" s="8"/>
-      <c r="F255" s="9"/>
-      <c r="G255" s="9"/>
+      <c r="A255" s="8"/>
+      <c r="B255" s="8"/>
+      <c r="C255" s="8"/>
+      <c r="D255" s="5"/>
+      <c r="E255" s="5"/>
+      <c r="F255" s="6"/>
+      <c r="G255" s="6"/>
     </row>
     <row r="256" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A256" s="11"/>
-      <c r="B256" s="11"/>
-      <c r="C256" s="11"/>
-      <c r="D256" s="8"/>
-      <c r="E256" s="8"/>
-      <c r="F256" s="9"/>
-      <c r="G256" s="9"/>
+      <c r="A256" s="8"/>
+      <c r="B256" s="8"/>
+      <c r="C256" s="8"/>
+      <c r="D256" s="5"/>
+      <c r="E256" s="5"/>
+      <c r="F256" s="6"/>
+      <c r="G256" s="6"/>
     </row>
     <row r="257" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A257" s="11"/>
-      <c r="B257" s="11"/>
-      <c r="C257" s="11"/>
-      <c r="D257" s="8"/>
-      <c r="E257" s="8"/>
-      <c r="F257" s="9"/>
-      <c r="G257" s="9"/>
+      <c r="A257" s="8"/>
+      <c r="B257" s="8"/>
+      <c r="C257" s="8"/>
+      <c r="D257" s="5"/>
+      <c r="E257" s="5"/>
+      <c r="F257" s="6"/>
+      <c r="G257" s="6"/>
     </row>
     <row r="258" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A258" s="11"/>
-      <c r="B258" s="11"/>
-      <c r="C258" s="11"/>
-      <c r="D258" s="8"/>
-      <c r="E258" s="8"/>
-      <c r="F258" s="9"/>
-      <c r="G258" s="9"/>
+      <c r="A258" s="8"/>
+      <c r="B258" s="8"/>
+      <c r="C258" s="8"/>
+      <c r="D258" s="5"/>
+      <c r="E258" s="5"/>
+      <c r="F258" s="6"/>
+      <c r="G258" s="6"/>
     </row>
     <row r="259" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A259" s="11"/>
-      <c r="B259" s="11"/>
-      <c r="C259" s="11"/>
-      <c r="D259" s="8"/>
-      <c r="E259" s="8"/>
-      <c r="F259" s="9"/>
-      <c r="G259" s="9"/>
+      <c r="A259" s="8"/>
+      <c r="B259" s="8"/>
+      <c r="C259" s="8"/>
+      <c r="D259" s="5"/>
+      <c r="E259" s="5"/>
+      <c r="F259" s="6"/>
+      <c r="G259" s="6"/>
     </row>
     <row r="260" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A260" s="11"/>
-      <c r="B260" s="11"/>
-      <c r="C260" s="11"/>
-      <c r="D260" s="8"/>
-      <c r="E260" s="8"/>
-      <c r="F260" s="9"/>
-      <c r="G260" s="9"/>
+      <c r="A260" s="8"/>
+      <c r="B260" s="8"/>
+      <c r="C260" s="8"/>
+      <c r="D260" s="5"/>
+      <c r="E260" s="5"/>
+      <c r="F260" s="6"/>
+      <c r="G260" s="6"/>
     </row>
     <row r="261" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A261" s="11"/>
-      <c r="B261" s="11"/>
-      <c r="C261" s="11"/>
-      <c r="D261" s="8"/>
-      <c r="E261" s="8"/>
-      <c r="F261" s="9"/>
-      <c r="G261" s="9"/>
+      <c r="A261" s="8"/>
+      <c r="B261" s="8"/>
+      <c r="C261" s="8"/>
+      <c r="D261" s="5"/>
+      <c r="E261" s="5"/>
+      <c r="F261" s="6"/>
+      <c r="G261" s="6"/>
     </row>
     <row r="262" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A262" s="11"/>
-      <c r="B262" s="11"/>
-      <c r="C262" s="11"/>
-      <c r="D262" s="8"/>
-      <c r="E262" s="8"/>
-      <c r="F262" s="9"/>
-      <c r="G262" s="9"/>
+      <c r="A262" s="8"/>
+      <c r="B262" s="8"/>
+      <c r="C262" s="8"/>
+      <c r="D262" s="5"/>
+      <c r="E262" s="5"/>
+      <c r="F262" s="6"/>
+      <c r="G262" s="6"/>
     </row>
     <row r="263" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A263" s="11"/>
-      <c r="B263" s="11"/>
-      <c r="C263" s="11"/>
-      <c r="D263" s="8"/>
-      <c r="E263" s="8"/>
-      <c r="F263" s="9"/>
-      <c r="G263" s="9"/>
+      <c r="A263" s="8"/>
+      <c r="B263" s="8"/>
+      <c r="C263" s="8"/>
+      <c r="D263" s="5"/>
+      <c r="E263" s="5"/>
+      <c r="F263" s="6"/>
+      <c r="G263" s="6"/>
     </row>
     <row r="264" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A264" s="11"/>
-      <c r="B264" s="11"/>
-      <c r="C264" s="11"/>
-      <c r="D264" s="8"/>
-      <c r="E264" s="8"/>
-      <c r="F264" s="9"/>
-      <c r="G264" s="9"/>
+      <c r="A264" s="8"/>
+      <c r="B264" s="8"/>
+      <c r="C264" s="8"/>
+      <c r="D264" s="5"/>
+      <c r="E264" s="5"/>
+      <c r="F264" s="6"/>
+      <c r="G264" s="6"/>
     </row>
     <row r="265" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A265" s="11"/>
-      <c r="B265" s="11"/>
-      <c r="C265" s="11"/>
-      <c r="D265" s="8"/>
-      <c r="E265" s="8"/>
-      <c r="F265" s="9"/>
-      <c r="G265" s="9"/>
+      <c r="A265" s="8"/>
+      <c r="B265" s="8"/>
+      <c r="C265" s="8"/>
+      <c r="D265" s="5"/>
+      <c r="E265" s="5"/>
+      <c r="F265" s="6"/>
+      <c r="G265" s="6"/>
     </row>
     <row r="266" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A266" s="11"/>
-      <c r="B266" s="11"/>
-      <c r="C266" s="11"/>
-      <c r="D266" s="8"/>
-      <c r="E266" s="8"/>
-      <c r="F266" s="9"/>
-      <c r="G266" s="9"/>
+      <c r="A266" s="8"/>
+      <c r="B266" s="8"/>
+      <c r="C266" s="8"/>
+      <c r="D266" s="5"/>
+      <c r="E266" s="5"/>
+      <c r="F266" s="6"/>
+      <c r="G266" s="6"/>
     </row>
     <row r="267" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A267" s="11"/>
-      <c r="B267" s="11"/>
-      <c r="C267" s="11"/>
-      <c r="D267" s="8"/>
-      <c r="E267" s="8"/>
-      <c r="F267" s="9"/>
-      <c r="G267" s="9"/>
+      <c r="A267" s="8"/>
+      <c r="B267" s="8"/>
+      <c r="C267" s="8"/>
+      <c r="D267" s="5"/>
+      <c r="E267" s="5"/>
+      <c r="F267" s="6"/>
+      <c r="G267" s="6"/>
     </row>
     <row r="268" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A268" s="11"/>
-      <c r="B268" s="11"/>
-      <c r="C268" s="11"/>
-      <c r="D268" s="8"/>
-      <c r="E268" s="8"/>
-      <c r="F268" s="9"/>
-      <c r="G268" s="9"/>
+      <c r="A268" s="8"/>
+      <c r="B268" s="8"/>
+      <c r="C268" s="8"/>
+      <c r="D268" s="5"/>
+      <c r="E268" s="5"/>
+      <c r="F268" s="6"/>
+      <c r="G268" s="6"/>
     </row>
     <row r="269" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A269" s="11"/>
-      <c r="B269" s="11"/>
-      <c r="C269" s="11"/>
-      <c r="D269" s="8"/>
-      <c r="E269" s="8"/>
-      <c r="F269" s="9"/>
-      <c r="G269" s="9"/>
+      <c r="A269" s="8"/>
+      <c r="B269" s="8"/>
+      <c r="C269" s="8"/>
+      <c r="D269" s="5"/>
+      <c r="E269" s="5"/>
+      <c r="F269" s="6"/>
+      <c r="G269" s="6"/>
     </row>
     <row r="270" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A270" s="11"/>
-      <c r="B270" s="11"/>
-      <c r="C270" s="11"/>
-      <c r="D270" s="8"/>
-      <c r="E270" s="8"/>
-      <c r="F270" s="9"/>
-      <c r="G270" s="9"/>
+      <c r="A270" s="8"/>
+      <c r="B270" s="8"/>
+      <c r="C270" s="8"/>
+      <c r="D270" s="5"/>
+      <c r="E270" s="5"/>
+      <c r="F270" s="6"/>
+      <c r="G270" s="6"/>
     </row>
     <row r="271" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A271" s="11"/>
-      <c r="B271" s="11"/>
-      <c r="C271" s="11"/>
-      <c r="D271" s="8"/>
-      <c r="E271" s="8"/>
-      <c r="F271" s="9"/>
-      <c r="G271" s="9"/>
+      <c r="A271" s="8"/>
+      <c r="B271" s="8"/>
+      <c r="C271" s="8"/>
+      <c r="D271" s="5"/>
+      <c r="E271" s="5"/>
+      <c r="F271" s="6"/>
+      <c r="G271" s="6"/>
     </row>
     <row r="272" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A272" s="11"/>
-      <c r="B272" s="11"/>
-      <c r="C272" s="11"/>
-      <c r="D272" s="8"/>
-      <c r="E272" s="8"/>
-      <c r="F272" s="9"/>
-      <c r="G272" s="9"/>
+      <c r="A272" s="8"/>
+      <c r="B272" s="8"/>
+      <c r="C272" s="8"/>
+      <c r="D272" s="5"/>
+      <c r="E272" s="5"/>
+      <c r="F272" s="6"/>
+      <c r="G272" s="6"/>
     </row>
     <row r="273" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A273" s="11"/>
-      <c r="B273" s="11"/>
-      <c r="C273" s="11"/>
-      <c r="D273" s="8"/>
-      <c r="E273" s="8"/>
-      <c r="F273" s="9"/>
-      <c r="G273" s="9"/>
+      <c r="A273" s="8"/>
+      <c r="B273" s="8"/>
+      <c r="C273" s="8"/>
+      <c r="D273" s="5"/>
+      <c r="E273" s="5"/>
+      <c r="F273" s="6"/>
+      <c r="G273" s="6"/>
     </row>
     <row r="274" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A274" s="11"/>
-      <c r="B274" s="11"/>
-      <c r="C274" s="11"/>
-      <c r="D274" s="8"/>
-      <c r="E274" s="8"/>
-      <c r="F274" s="9"/>
-      <c r="G274" s="9"/>
+      <c r="A274" s="8"/>
+      <c r="B274" s="8"/>
+      <c r="C274" s="8"/>
+      <c r="D274" s="5"/>
+      <c r="E274" s="5"/>
+      <c r="F274" s="6"/>
+      <c r="G274" s="6"/>
     </row>
     <row r="275" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A275" s="11"/>
-      <c r="B275" s="11"/>
-      <c r="C275" s="11"/>
-      <c r="D275" s="8"/>
-      <c r="E275" s="8"/>
-      <c r="F275" s="9"/>
-      <c r="G275" s="9"/>
+      <c r="A275" s="8"/>
+      <c r="B275" s="8"/>
+      <c r="C275" s="8"/>
+      <c r="D275" s="5"/>
+      <c r="E275" s="5"/>
+      <c r="F275" s="6"/>
+      <c r="G275" s="6"/>
     </row>
     <row r="276" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A276" s="11"/>
-      <c r="B276" s="11"/>
-      <c r="C276" s="11"/>
-      <c r="D276" s="8"/>
-      <c r="E276" s="8"/>
-      <c r="F276" s="9"/>
-      <c r="G276" s="9"/>
+      <c r="A276" s="8"/>
+      <c r="B276" s="8"/>
+      <c r="C276" s="8"/>
+      <c r="D276" s="5"/>
+      <c r="E276" s="5"/>
+      <c r="F276" s="6"/>
+      <c r="G276" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -4505,6 +4787,9 @@
       <formula>2500</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" location="ctm_ref=www_hp_bs_lst"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>

--- a/scrapy_xc/spiders/tasks.xlsx
+++ b/scrapy_xc/spiders/tasks.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27610"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yujun/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liukaizhao/PycharmProjects/tutorial/scrapy_xc/spiders/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84572FB8-737D-ED46-917C-AF749796CCAD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -50,24 +51,23 @@
     <t>day_offset</t>
   </si>
   <si>
-    <t>国家会展中心上海洲际酒店</t>
+    <t>广州南丰朗豪酒店</t>
   </si>
   <si>
-    <t>洲际高级房</t>
+    <t>http://hotels.ctrip.com/hotel/512125.html?isFull=F#ctm_ref=hod_sr_lst_dl_n_1_1</t>
   </si>
   <si>
-    <t>http://hotels.ctrip.com/hotel/5310859.html#ctm_ref=www_hp_bs_lst</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>高级客房</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -104,14 +104,6 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="SimSun"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
@@ -154,15 +146,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -211,13 +200,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="67">
     <dxf>
@@ -1674,14 +1659,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IV276"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="37.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="68.83203125" style="1" customWidth="1"/>
@@ -1689,7 +1674,7 @@
     <col min="8" max="256" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:256" ht="21" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1712,21 +1697,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:256" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:256" ht="21" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>8</v>
-      </c>
       <c r="D2" s="14">
-        <v>43542</v>
+        <v>43541</v>
       </c>
       <c r="E2" s="14">
-        <v>43543</v>
+        <v>43546</v>
       </c>
       <c r="F2" s="13">
         <v>2500</v>
@@ -1984,7 +1969,7 @@
       <c r="IU2" s="15"/>
       <c r="IV2" s="15"/>
     </row>
-    <row r="3" spans="1:256" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:256" ht="21" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
@@ -1993,7 +1978,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:256" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:256" ht="21" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
@@ -2002,7 +1987,7 @@
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:256" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:256" ht="21" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="7"/>
@@ -2011,7 +1996,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:256" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:256" ht="21" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
@@ -2020,7 +2005,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:256" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:256" ht="21" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
@@ -2029,7 +2014,7 @@
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:256" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:256" ht="21" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
@@ -2038,7 +2023,7 @@
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:256" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:256" ht="21" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
@@ -2047,7 +2032,7 @@
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:256" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:256" ht="21" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="7"/>
@@ -2056,7 +2041,7 @@
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:256" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:256" ht="21" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -2065,7 +2050,7 @@
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:256" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:256" ht="21" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -2074,7 +2059,7 @@
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:256" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:256" ht="21" customHeight="1">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -2083,7 +2068,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:256" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:256" ht="21" customHeight="1">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -2092,7 +2077,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:256" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:256" ht="21" customHeight="1">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -2101,7 +2086,7 @@
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:256" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:256" ht="21" customHeight="1">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -2110,7 +2095,7 @@
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="21" customHeight="1">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -2119,7 +2104,7 @@
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="21" customHeight="1">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -2128,7 +2113,7 @@
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="21" customHeight="1">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -2137,7 +2122,7 @@
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="21" customHeight="1">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -2146,7 +2131,7 @@
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="21" customHeight="1">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -2155,7 +2140,7 @@
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
     </row>
-    <row r="22" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="21" customHeight="1">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -2164,7 +2149,7 @@
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
     </row>
-    <row r="23" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" ht="21" customHeight="1">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -2173,7 +2158,7 @@
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
     </row>
-    <row r="24" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="21" customHeight="1">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -2182,7 +2167,7 @@
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
     </row>
-    <row r="25" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" ht="21" customHeight="1">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -2191,7 +2176,7 @@
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
     </row>
-    <row r="26" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" ht="21" customHeight="1">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -2200,7 +2185,7 @@
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
     </row>
-    <row r="27" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" ht="21" customHeight="1">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -2209,7 +2194,7 @@
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
     </row>
-    <row r="28" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" ht="21" customHeight="1">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -2218,7 +2203,7 @@
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
     </row>
-    <row r="29" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" ht="21" customHeight="1">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -2227,7 +2212,7 @@
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
     </row>
-    <row r="30" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" ht="21" customHeight="1">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -2236,7 +2221,7 @@
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
     </row>
-    <row r="31" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" ht="21" customHeight="1">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -2245,7 +2230,7 @@
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
     </row>
-    <row r="32" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7" ht="21" customHeight="1">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -2254,7 +2239,7 @@
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
     </row>
-    <row r="33" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7" ht="21" customHeight="1">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -2263,7 +2248,7 @@
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
     </row>
-    <row r="34" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7" ht="21" customHeight="1">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -2272,7 +2257,7 @@
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
     </row>
-    <row r="35" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7" ht="21" customHeight="1">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -2281,7 +2266,7 @@
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
     </row>
-    <row r="36" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:7" ht="21" customHeight="1">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -2290,7 +2275,7 @@
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
     </row>
-    <row r="37" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7" ht="21" customHeight="1">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -2299,7 +2284,7 @@
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
     </row>
-    <row r="38" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7" ht="21" customHeight="1">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -2308,7 +2293,7 @@
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
     </row>
-    <row r="39" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:7" ht="21" customHeight="1">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -2317,7 +2302,7 @@
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
     </row>
-    <row r="40" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:7" ht="21" customHeight="1">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -2326,7 +2311,7 @@
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
     </row>
-    <row r="41" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:7" ht="21" customHeight="1">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -2335,7 +2320,7 @@
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
     </row>
-    <row r="42" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:7" ht="21" customHeight="1">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -2344,7 +2329,7 @@
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
     </row>
-    <row r="43" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:7" ht="21" customHeight="1">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -2353,7 +2338,7 @@
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
     </row>
-    <row r="44" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:7" ht="21" customHeight="1">
       <c r="A44" s="8"/>
       <c r="B44" s="3"/>
       <c r="C44" s="8"/>
@@ -2362,7 +2347,7 @@
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
     </row>
-    <row r="45" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:7" ht="21" customHeight="1">
       <c r="A45" s="8"/>
       <c r="B45" s="3"/>
       <c r="C45" s="8"/>
@@ -2371,7 +2356,7 @@
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
     </row>
-    <row r="46" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:7" ht="21" customHeight="1">
       <c r="A46" s="8"/>
       <c r="B46" s="3"/>
       <c r="C46" s="8"/>
@@ -2380,7 +2365,7 @@
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
     </row>
-    <row r="47" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:7" ht="21" customHeight="1">
       <c r="A47" s="8"/>
       <c r="B47" s="3"/>
       <c r="C47" s="8"/>
@@ -2389,7 +2374,7 @@
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
     </row>
-    <row r="48" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:7" ht="21" customHeight="1">
       <c r="A48" s="8"/>
       <c r="B48" s="3"/>
       <c r="C48" s="8"/>
@@ -2398,7 +2383,7 @@
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
     </row>
-    <row r="49" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:7" ht="21" customHeight="1">
       <c r="A49" s="8"/>
       <c r="B49" s="3"/>
       <c r="C49" s="8"/>
@@ -2407,7 +2392,7 @@
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
     </row>
-    <row r="50" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:7" ht="21" customHeight="1">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="6"/>
@@ -2416,7 +2401,7 @@
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
     </row>
-    <row r="51" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:7" ht="21" customHeight="1">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="6"/>
@@ -2425,7 +2410,7 @@
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
     </row>
-    <row r="52" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:7" ht="21" customHeight="1">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="6"/>
@@ -2434,7 +2419,7 @@
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
     </row>
-    <row r="53" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:7" ht="21" customHeight="1">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="6"/>
@@ -2443,7 +2428,7 @@
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
     </row>
-    <row r="54" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:7" ht="21" customHeight="1">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="6"/>
@@ -2452,7 +2437,7 @@
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
     </row>
-    <row r="55" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:7" ht="21" customHeight="1">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="6"/>
@@ -2461,7 +2446,7 @@
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
     </row>
-    <row r="56" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:7" ht="21" customHeight="1">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="6"/>
@@ -2470,7 +2455,7 @@
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
     </row>
-    <row r="57" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:7" ht="21" customHeight="1">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="6"/>
@@ -2479,7 +2464,7 @@
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
     </row>
-    <row r="58" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:7" ht="21" customHeight="1">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="6"/>
@@ -2488,7 +2473,7 @@
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
     </row>
-    <row r="59" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:7" ht="21" customHeight="1">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="6"/>
@@ -2497,7 +2482,7 @@
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
     </row>
-    <row r="60" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:7" ht="21" customHeight="1">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="6"/>
@@ -2506,7 +2491,7 @@
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
     </row>
-    <row r="61" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:7" ht="21" customHeight="1">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="6"/>
@@ -2515,7 +2500,7 @@
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
     </row>
-    <row r="62" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:7" ht="21" customHeight="1">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="6"/>
@@ -2524,7 +2509,7 @@
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
     </row>
-    <row r="63" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:7" ht="21" customHeight="1">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="6"/>
@@ -2533,7 +2518,7 @@
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
     </row>
-    <row r="64" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:7" ht="21" customHeight="1">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="6"/>
@@ -2542,7 +2527,7 @@
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
     </row>
-    <row r="65" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:7" ht="21" customHeight="1">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="6"/>
@@ -2551,7 +2536,7 @@
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
     </row>
-    <row r="66" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:7" ht="21" customHeight="1">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="6"/>
@@ -2560,7 +2545,7 @@
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
     </row>
-    <row r="67" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:7" ht="21" customHeight="1">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="6"/>
@@ -2569,7 +2554,7 @@
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
     </row>
-    <row r="68" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:7" ht="21" customHeight="1">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="6"/>
@@ -2578,7 +2563,7 @@
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
     </row>
-    <row r="69" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:7" ht="21" customHeight="1">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="6"/>
@@ -2587,7 +2572,7 @@
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
     </row>
-    <row r="70" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:7" ht="21" customHeight="1">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="6"/>
@@ -2596,7 +2581,7 @@
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
     </row>
-    <row r="71" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:7" ht="21" customHeight="1">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="6"/>
@@ -2605,7 +2590,7 @@
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
     </row>
-    <row r="72" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:7" ht="21" customHeight="1">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="6"/>
@@ -2614,7 +2599,7 @@
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
     </row>
-    <row r="73" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:7" ht="21" customHeight="1">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="6"/>
@@ -2623,7 +2608,7 @@
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
     </row>
-    <row r="74" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:7" ht="21" customHeight="1">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="6"/>
@@ -2632,7 +2617,7 @@
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
     </row>
-    <row r="75" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:7" ht="21" customHeight="1">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="6"/>
@@ -2641,7 +2626,7 @@
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
     </row>
-    <row r="76" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:7" ht="21" customHeight="1">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="6"/>
@@ -2650,7 +2635,7 @@
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
     </row>
-    <row r="77" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:7" ht="21" customHeight="1">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="6"/>
@@ -2659,7 +2644,7 @@
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
     </row>
-    <row r="78" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:7" ht="21" customHeight="1">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="6"/>
@@ -2668,7 +2653,7 @@
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
     </row>
-    <row r="79" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:7" ht="21" customHeight="1">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="6"/>
@@ -2677,7 +2662,7 @@
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
     </row>
-    <row r="80" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:7" ht="21" customHeight="1">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="6"/>
@@ -2686,7 +2671,7 @@
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
     </row>
-    <row r="81" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:7" ht="21" customHeight="1">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="6"/>
@@ -2695,7 +2680,7 @@
       <c r="F81" s="6"/>
       <c r="G81" s="6"/>
     </row>
-    <row r="82" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:7" ht="21" customHeight="1">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="6"/>
@@ -2704,7 +2689,7 @@
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
     </row>
-    <row r="83" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:7" ht="21" customHeight="1">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="6"/>
@@ -2713,7 +2698,7 @@
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
     </row>
-    <row r="84" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:7" ht="21" customHeight="1">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="6"/>
@@ -2722,7 +2707,7 @@
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
     </row>
-    <row r="85" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:7" ht="21" customHeight="1">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="6"/>
@@ -2731,7 +2716,7 @@
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
     </row>
-    <row r="86" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:7" ht="21" customHeight="1">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="6"/>
@@ -2740,7 +2725,7 @@
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
     </row>
-    <row r="87" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:7" ht="21" customHeight="1">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="6"/>
@@ -2749,7 +2734,7 @@
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
     </row>
-    <row r="88" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:7" ht="21" customHeight="1">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="6"/>
@@ -2758,7 +2743,7 @@
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
     </row>
-    <row r="89" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:7" ht="21" customHeight="1">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="6"/>
@@ -2767,7 +2752,7 @@
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
     </row>
-    <row r="90" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:7" ht="21" customHeight="1">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="6"/>
@@ -2776,7 +2761,7 @@
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
     </row>
-    <row r="91" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:7" ht="21" customHeight="1">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="6"/>
@@ -2785,7 +2770,7 @@
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
     </row>
-    <row r="92" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:7" ht="21" customHeight="1">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="6"/>
@@ -2794,7 +2779,7 @@
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
     </row>
-    <row r="93" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:7" ht="21" customHeight="1">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="6"/>
@@ -2803,7 +2788,7 @@
       <c r="F93" s="6"/>
       <c r="G93" s="6"/>
     </row>
-    <row r="94" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:7" ht="21" customHeight="1">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="6"/>
@@ -2812,7 +2797,7 @@
       <c r="F94" s="6"/>
       <c r="G94" s="6"/>
     </row>
-    <row r="95" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:7" ht="21" customHeight="1">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="6"/>
@@ -2821,7 +2806,7 @@
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
     </row>
-    <row r="96" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:7" ht="21" customHeight="1">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="6"/>
@@ -2830,7 +2815,7 @@
       <c r="F96" s="6"/>
       <c r="G96" s="6"/>
     </row>
-    <row r="97" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:7" ht="21" customHeight="1">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="6"/>
@@ -2839,7 +2824,7 @@
       <c r="F97" s="6"/>
       <c r="G97" s="6"/>
     </row>
-    <row r="98" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:7" ht="21" customHeight="1">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="6"/>
@@ -2848,7 +2833,7 @@
       <c r="F98" s="6"/>
       <c r="G98" s="6"/>
     </row>
-    <row r="99" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:7" ht="21" customHeight="1">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="6"/>
@@ -2857,7 +2842,7 @@
       <c r="F99" s="6"/>
       <c r="G99" s="6"/>
     </row>
-    <row r="100" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:7" ht="21" customHeight="1">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="6"/>
@@ -2866,7 +2851,7 @@
       <c r="F100" s="6"/>
       <c r="G100" s="6"/>
     </row>
-    <row r="101" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:7" ht="21" customHeight="1">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="4"/>
@@ -2875,7 +2860,7 @@
       <c r="F101" s="6"/>
       <c r="G101" s="6"/>
     </row>
-    <row r="102" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:7" ht="21" customHeight="1">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="4"/>
@@ -2884,7 +2869,7 @@
       <c r="F102" s="6"/>
       <c r="G102" s="6"/>
     </row>
-    <row r="103" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:7" ht="21" customHeight="1">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="7"/>
@@ -2893,7 +2878,7 @@
       <c r="F103" s="6"/>
       <c r="G103" s="6"/>
     </row>
-    <row r="104" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:7" ht="21" customHeight="1">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="10"/>
@@ -2902,7 +2887,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
     </row>
-    <row r="105" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:7" ht="21" customHeight="1">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="10"/>
@@ -2911,7 +2896,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
     </row>
-    <row r="106" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:7" ht="21" customHeight="1">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="10"/>
@@ -2920,7 +2905,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
     </row>
-    <row r="107" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:7" ht="21" customHeight="1">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="10"/>
@@ -2929,7 +2914,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
     </row>
-    <row r="108" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:7" ht="21" customHeight="1">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="10"/>
@@ -2938,7 +2923,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
     </row>
-    <row r="109" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:7" ht="21" customHeight="1">
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="10"/>
@@ -2947,7 +2932,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
     </row>
-    <row r="110" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:7" ht="21" customHeight="1">
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
       <c r="C110" s="10"/>
@@ -2956,7 +2941,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
     </row>
-    <row r="111" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:7" ht="21" customHeight="1">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="10"/>
@@ -2965,7 +2950,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
     </row>
-    <row r="112" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:7" ht="21" customHeight="1">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="10"/>
@@ -2974,7 +2959,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
     </row>
-    <row r="113" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:7" ht="21" customHeight="1">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -2983,7 +2968,7 @@
       <c r="F113" s="10"/>
       <c r="G113" s="10"/>
     </row>
-    <row r="114" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:7" ht="21" customHeight="1">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -2992,7 +2977,7 @@
       <c r="F114" s="10"/>
       <c r="G114" s="10"/>
     </row>
-    <row r="115" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:7" ht="21" customHeight="1">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -3001,7 +2986,7 @@
       <c r="F115" s="10"/>
       <c r="G115" s="10"/>
     </row>
-    <row r="116" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:7" ht="21" customHeight="1">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -3010,7 +2995,7 @@
       <c r="F116" s="10"/>
       <c r="G116" s="10"/>
     </row>
-    <row r="117" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:7" ht="21" customHeight="1">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -3019,7 +3004,7 @@
       <c r="F117" s="10"/>
       <c r="G117" s="10"/>
     </row>
-    <row r="118" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:7" ht="21" customHeight="1">
       <c r="A118" s="8"/>
       <c r="B118" s="3"/>
       <c r="C118" s="8"/>
@@ -3028,7 +3013,7 @@
       <c r="F118" s="10"/>
       <c r="G118" s="10"/>
     </row>
-    <row r="119" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:7" ht="21" customHeight="1">
       <c r="A119" s="8"/>
       <c r="B119" s="3"/>
       <c r="C119" s="8"/>
@@ -3037,7 +3022,7 @@
       <c r="F119" s="10"/>
       <c r="G119" s="10"/>
     </row>
-    <row r="120" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:7" ht="21" customHeight="1">
       <c r="A120" s="8"/>
       <c r="B120" s="3"/>
       <c r="C120" s="8"/>
@@ -3046,7 +3031,7 @@
       <c r="F120" s="10"/>
       <c r="G120" s="10"/>
     </row>
-    <row r="121" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:7" ht="21" customHeight="1">
       <c r="A121" s="8"/>
       <c r="B121" s="3"/>
       <c r="C121" s="8"/>
@@ -3055,7 +3040,7 @@
       <c r="F121" s="10"/>
       <c r="G121" s="10"/>
     </row>
-    <row r="122" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:7" ht="21" customHeight="1">
       <c r="A122" s="8"/>
       <c r="B122" s="3"/>
       <c r="C122" s="8"/>
@@ -3064,7 +3049,7 @@
       <c r="F122" s="10"/>
       <c r="G122" s="10"/>
     </row>
-    <row r="123" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:7" ht="21" customHeight="1">
       <c r="A123" s="8"/>
       <c r="B123" s="3"/>
       <c r="C123" s="8"/>
@@ -3073,7 +3058,7 @@
       <c r="F123" s="10"/>
       <c r="G123" s="10"/>
     </row>
-    <row r="124" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:7" ht="21" customHeight="1">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="4"/>
@@ -3082,7 +3067,7 @@
       <c r="F124" s="6"/>
       <c r="G124" s="6"/>
     </row>
-    <row r="125" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:7" ht="21" customHeight="1">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="4"/>
@@ -3091,7 +3076,7 @@
       <c r="F125" s="6"/>
       <c r="G125" s="6"/>
     </row>
-    <row r="126" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:7" ht="21" customHeight="1">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="4"/>
@@ -3100,7 +3085,7 @@
       <c r="F126" s="6"/>
       <c r="G126" s="6"/>
     </row>
-    <row r="127" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:7" ht="21" customHeight="1">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="4"/>
@@ -3109,7 +3094,7 @@
       <c r="F127" s="6"/>
       <c r="G127" s="6"/>
     </row>
-    <row r="128" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:7" ht="21" customHeight="1">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="7"/>
@@ -3118,7 +3103,7 @@
       <c r="F128" s="6"/>
       <c r="G128" s="6"/>
     </row>
-    <row r="129" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:7" ht="21" customHeight="1">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="4"/>
@@ -3127,7 +3112,7 @@
       <c r="F129" s="6"/>
       <c r="G129" s="6"/>
     </row>
-    <row r="130" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:7" ht="21" customHeight="1">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="4"/>
@@ -3136,7 +3121,7 @@
       <c r="F130" s="6"/>
       <c r="G130" s="6"/>
     </row>
-    <row r="131" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:7" ht="21" customHeight="1">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="4"/>
@@ -3145,7 +3130,7 @@
       <c r="F131" s="6"/>
       <c r="G131" s="6"/>
     </row>
-    <row r="132" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:7" ht="21" customHeight="1">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="4"/>
@@ -3154,7 +3139,7 @@
       <c r="F132" s="6"/>
       <c r="G132" s="6"/>
     </row>
-    <row r="133" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:7" ht="21" customHeight="1">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="4"/>
@@ -3163,7 +3148,7 @@
       <c r="F133" s="6"/>
       <c r="G133" s="6"/>
     </row>
-    <row r="134" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:7" ht="21" customHeight="1">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="4"/>
@@ -3172,7 +3157,7 @@
       <c r="F134" s="6"/>
       <c r="G134" s="6"/>
     </row>
-    <row r="135" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:7" ht="21" customHeight="1">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="4"/>
@@ -3181,7 +3166,7 @@
       <c r="F135" s="6"/>
       <c r="G135" s="6"/>
     </row>
-    <row r="136" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:7" ht="21" customHeight="1">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="4"/>
@@ -3190,7 +3175,7 @@
       <c r="F136" s="6"/>
       <c r="G136" s="6"/>
     </row>
-    <row r="137" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:7" ht="21" customHeight="1">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="4"/>
@@ -3199,7 +3184,7 @@
       <c r="F137" s="6"/>
       <c r="G137" s="6"/>
     </row>
-    <row r="138" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:7" ht="21" customHeight="1">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="4"/>
@@ -3208,7 +3193,7 @@
       <c r="F138" s="6"/>
       <c r="G138" s="6"/>
     </row>
-    <row r="139" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:7" ht="21" customHeight="1">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="4"/>
@@ -3217,7 +3202,7 @@
       <c r="F139" s="6"/>
       <c r="G139" s="6"/>
     </row>
-    <row r="140" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:7" ht="21" customHeight="1">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="4"/>
@@ -3226,7 +3211,7 @@
       <c r="F140" s="6"/>
       <c r="G140" s="6"/>
     </row>
-    <row r="141" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:7" ht="21" customHeight="1">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="4"/>
@@ -3235,7 +3220,7 @@
       <c r="F141" s="6"/>
       <c r="G141" s="6"/>
     </row>
-    <row r="142" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:7" ht="21" customHeight="1">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="7"/>
@@ -3244,7 +3229,7 @@
       <c r="F142" s="6"/>
       <c r="G142" s="6"/>
     </row>
-    <row r="143" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:7" ht="21" customHeight="1">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="4"/>
@@ -3253,7 +3238,7 @@
       <c r="F143" s="6"/>
       <c r="G143" s="6"/>
     </row>
-    <row r="144" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:7" ht="21" customHeight="1">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="4"/>
@@ -3262,7 +3247,7 @@
       <c r="F144" s="6"/>
       <c r="G144" s="6"/>
     </row>
-    <row r="145" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:7" ht="21" customHeight="1">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="4"/>
@@ -3271,7 +3256,7 @@
       <c r="F145" s="6"/>
       <c r="G145" s="6"/>
     </row>
-    <row r="146" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:7" ht="21" customHeight="1">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="4"/>
@@ -3280,7 +3265,7 @@
       <c r="F146" s="6"/>
       <c r="G146" s="6"/>
     </row>
-    <row r="147" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:7" ht="21" customHeight="1">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="7"/>
@@ -3289,7 +3274,7 @@
       <c r="F147" s="6"/>
       <c r="G147" s="6"/>
     </row>
-    <row r="148" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:7" ht="21" customHeight="1">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="4"/>
@@ -3298,7 +3283,7 @@
       <c r="F148" s="6"/>
       <c r="G148" s="6"/>
     </row>
-    <row r="149" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:7" ht="21" customHeight="1">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="4"/>
@@ -3307,7 +3292,7 @@
       <c r="F149" s="6"/>
       <c r="G149" s="6"/>
     </row>
-    <row r="150" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:7" ht="21" customHeight="1">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="4"/>
@@ -3316,7 +3301,7 @@
       <c r="F150" s="6"/>
       <c r="G150" s="6"/>
     </row>
-    <row r="151" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:7" ht="21" customHeight="1">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="4"/>
@@ -3325,7 +3310,7 @@
       <c r="F151" s="6"/>
       <c r="G151" s="6"/>
     </row>
-    <row r="152" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:7" ht="21" customHeight="1">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="4"/>
@@ -3334,7 +3319,7 @@
       <c r="F152" s="6"/>
       <c r="G152" s="6"/>
     </row>
-    <row r="153" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:7" ht="21" customHeight="1">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="4"/>
@@ -3343,7 +3328,7 @@
       <c r="F153" s="6"/>
       <c r="G153" s="6"/>
     </row>
-    <row r="154" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:7" ht="21" customHeight="1">
       <c r="A154" s="8"/>
       <c r="B154" s="8"/>
       <c r="C154" s="10"/>
@@ -3352,7 +3337,7 @@
       <c r="F154" s="8"/>
       <c r="G154" s="8"/>
     </row>
-    <row r="155" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:7" ht="21" customHeight="1">
       <c r="A155" s="8"/>
       <c r="B155" s="8"/>
       <c r="C155" s="10"/>
@@ -3361,7 +3346,7 @@
       <c r="F155" s="8"/>
       <c r="G155" s="8"/>
     </row>
-    <row r="156" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:7" ht="21" customHeight="1">
       <c r="A156" s="8"/>
       <c r="B156" s="8"/>
       <c r="C156" s="10"/>
@@ -3370,7 +3355,7 @@
       <c r="F156" s="8"/>
       <c r="G156" s="8"/>
     </row>
-    <row r="157" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:7" ht="21" customHeight="1">
       <c r="A157" s="8"/>
       <c r="B157" s="8"/>
       <c r="C157" s="10"/>
@@ -3379,7 +3364,7 @@
       <c r="F157" s="8"/>
       <c r="G157" s="8"/>
     </row>
-    <row r="158" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:7" ht="21" customHeight="1">
       <c r="A158" s="8"/>
       <c r="B158" s="8"/>
       <c r="C158" s="10"/>
@@ -3388,7 +3373,7 @@
       <c r="F158" s="8"/>
       <c r="G158" s="8"/>
     </row>
-    <row r="159" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:7" ht="21" customHeight="1">
       <c r="A159" s="8"/>
       <c r="B159" s="8"/>
       <c r="C159" s="10"/>
@@ -3397,7 +3382,7 @@
       <c r="F159" s="8"/>
       <c r="G159" s="8"/>
     </row>
-    <row r="160" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:7" ht="21" customHeight="1">
       <c r="A160" s="8"/>
       <c r="B160" s="8"/>
       <c r="C160" s="10"/>
@@ -3406,7 +3391,7 @@
       <c r="F160" s="8"/>
       <c r="G160" s="8"/>
     </row>
-    <row r="161" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:7" ht="21" customHeight="1">
       <c r="A161" s="8"/>
       <c r="B161" s="8"/>
       <c r="C161" s="10"/>
@@ -3415,7 +3400,7 @@
       <c r="F161" s="8"/>
       <c r="G161" s="8"/>
     </row>
-    <row r="162" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:7" ht="21" customHeight="1">
       <c r="A162" s="8"/>
       <c r="B162" s="8"/>
       <c r="C162" s="10"/>
@@ -3424,7 +3409,7 @@
       <c r="F162" s="8"/>
       <c r="G162" s="8"/>
     </row>
-    <row r="163" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:7" ht="21" customHeight="1">
       <c r="A163" s="8"/>
       <c r="B163" s="8"/>
       <c r="C163" s="10"/>
@@ -3433,7 +3418,7 @@
       <c r="F163" s="8"/>
       <c r="G163" s="8"/>
     </row>
-    <row r="164" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:7" ht="21" customHeight="1">
       <c r="A164" s="8"/>
       <c r="B164" s="8"/>
       <c r="C164" s="10"/>
@@ -3442,7 +3427,7 @@
       <c r="F164" s="8"/>
       <c r="G164" s="8"/>
     </row>
-    <row r="165" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:7" ht="21" customHeight="1">
       <c r="A165" s="8"/>
       <c r="B165" s="8"/>
       <c r="C165" s="10"/>
@@ -3451,7 +3436,7 @@
       <c r="F165" s="8"/>
       <c r="G165" s="8"/>
     </row>
-    <row r="166" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:7" ht="21" customHeight="1">
       <c r="A166" s="8"/>
       <c r="B166" s="8"/>
       <c r="C166" s="10"/>
@@ -3460,7 +3445,7 @@
       <c r="F166" s="8"/>
       <c r="G166" s="8"/>
     </row>
-    <row r="167" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:7" ht="21" customHeight="1">
       <c r="A167" s="8"/>
       <c r="B167" s="8"/>
       <c r="C167" s="10"/>
@@ -3469,7 +3454,7 @@
       <c r="F167" s="8"/>
       <c r="G167" s="8"/>
     </row>
-    <row r="168" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:7" ht="21" customHeight="1">
       <c r="A168" s="8"/>
       <c r="B168" s="8"/>
       <c r="C168" s="10"/>
@@ -3478,7 +3463,7 @@
       <c r="F168" s="8"/>
       <c r="G168" s="8"/>
     </row>
-    <row r="169" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:7" ht="21" customHeight="1">
       <c r="A169" s="8"/>
       <c r="B169" s="8"/>
       <c r="C169" s="10"/>
@@ -3487,7 +3472,7 @@
       <c r="F169" s="8"/>
       <c r="G169" s="8"/>
     </row>
-    <row r="170" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:7" ht="21" customHeight="1">
       <c r="A170" s="8"/>
       <c r="B170" s="8"/>
       <c r="C170" s="10"/>
@@ -3496,7 +3481,7 @@
       <c r="F170" s="8"/>
       <c r="G170" s="8"/>
     </row>
-    <row r="171" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:7" ht="21" customHeight="1">
       <c r="A171" s="8"/>
       <c r="B171" s="8"/>
       <c r="C171" s="10"/>
@@ -3505,7 +3490,7 @@
       <c r="F171" s="8"/>
       <c r="G171" s="8"/>
     </row>
-    <row r="172" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:7" ht="21" customHeight="1">
       <c r="A172" s="8"/>
       <c r="B172" s="8"/>
       <c r="C172" s="10"/>
@@ -3514,7 +3499,7 @@
       <c r="F172" s="8"/>
       <c r="G172" s="8"/>
     </row>
-    <row r="173" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:7" ht="21" customHeight="1">
       <c r="A173" s="8"/>
       <c r="B173" s="8"/>
       <c r="C173" s="10"/>
@@ -3523,7 +3508,7 @@
       <c r="F173" s="8"/>
       <c r="G173" s="8"/>
     </row>
-    <row r="174" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:7" ht="21" customHeight="1">
       <c r="A174" s="8"/>
       <c r="B174" s="8"/>
       <c r="C174" s="10"/>
@@ -3532,7 +3517,7 @@
       <c r="F174" s="8"/>
       <c r="G174" s="8"/>
     </row>
-    <row r="175" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:7" ht="21" customHeight="1">
       <c r="A175" s="8"/>
       <c r="B175" s="8"/>
       <c r="C175" s="10"/>
@@ -3541,7 +3526,7 @@
       <c r="F175" s="8"/>
       <c r="G175" s="8"/>
     </row>
-    <row r="176" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:7" ht="21" customHeight="1">
       <c r="A176" s="8"/>
       <c r="B176" s="8"/>
       <c r="C176" s="10"/>
@@ -3550,7 +3535,7 @@
       <c r="F176" s="8"/>
       <c r="G176" s="8"/>
     </row>
-    <row r="177" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:7" ht="21" customHeight="1">
       <c r="A177" s="8"/>
       <c r="B177" s="8"/>
       <c r="C177" s="10"/>
@@ -3559,7 +3544,7 @@
       <c r="F177" s="8"/>
       <c r="G177" s="8"/>
     </row>
-    <row r="178" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:7" ht="21" customHeight="1">
       <c r="A178" s="8"/>
       <c r="B178" s="10"/>
       <c r="C178" s="10"/>
@@ -3568,7 +3553,7 @@
       <c r="F178" s="8"/>
       <c r="G178" s="8"/>
     </row>
-    <row r="179" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:7" ht="21" customHeight="1">
       <c r="A179" s="8"/>
       <c r="B179" s="8"/>
       <c r="C179" s="10"/>
@@ -3577,7 +3562,7 @@
       <c r="F179" s="8"/>
       <c r="G179" s="8"/>
     </row>
-    <row r="180" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:7" ht="21" customHeight="1">
       <c r="A180" s="8"/>
       <c r="B180" s="8"/>
       <c r="C180" s="10"/>
@@ -3586,7 +3571,7 @@
       <c r="F180" s="8"/>
       <c r="G180" s="8"/>
     </row>
-    <row r="181" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:7" ht="21" customHeight="1">
       <c r="A181" s="8"/>
       <c r="B181" s="8"/>
       <c r="C181" s="10"/>
@@ -3595,7 +3580,7 @@
       <c r="F181" s="8"/>
       <c r="G181" s="8"/>
     </row>
-    <row r="182" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:7" ht="21" customHeight="1">
       <c r="A182" s="8"/>
       <c r="B182" s="8"/>
       <c r="C182" s="10"/>
@@ -3604,7 +3589,7 @@
       <c r="F182" s="8"/>
       <c r="G182" s="8"/>
     </row>
-    <row r="183" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:7" ht="21" customHeight="1">
       <c r="A183" s="8"/>
       <c r="B183" s="8"/>
       <c r="C183" s="10"/>
@@ -3613,7 +3598,7 @@
       <c r="F183" s="8"/>
       <c r="G183" s="8"/>
     </row>
-    <row r="184" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:7" ht="21" customHeight="1">
       <c r="A184" s="8"/>
       <c r="B184" s="8"/>
       <c r="C184" s="10"/>
@@ -3622,7 +3607,7 @@
       <c r="F184" s="8"/>
       <c r="G184" s="8"/>
     </row>
-    <row r="185" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:7" ht="21" customHeight="1">
       <c r="A185" s="8"/>
       <c r="B185" s="8"/>
       <c r="C185" s="10"/>
@@ -3631,7 +3616,7 @@
       <c r="F185" s="8"/>
       <c r="G185" s="8"/>
     </row>
-    <row r="186" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:7" ht="21" customHeight="1">
       <c r="A186" s="8"/>
       <c r="B186" s="8"/>
       <c r="C186" s="10"/>
@@ -3640,7 +3625,7 @@
       <c r="F186" s="8"/>
       <c r="G186" s="8"/>
     </row>
-    <row r="187" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:7" ht="21" customHeight="1">
       <c r="A187" s="8"/>
       <c r="B187" s="8"/>
       <c r="C187" s="10"/>
@@ -3649,7 +3634,7 @@
       <c r="F187" s="8"/>
       <c r="G187" s="8"/>
     </row>
-    <row r="188" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:7" ht="21" customHeight="1">
       <c r="A188" s="8"/>
       <c r="B188" s="8"/>
       <c r="C188" s="10"/>
@@ -3658,7 +3643,7 @@
       <c r="F188" s="8"/>
       <c r="G188" s="8"/>
     </row>
-    <row r="189" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:7" ht="21" customHeight="1">
       <c r="A189" s="8"/>
       <c r="B189" s="8"/>
       <c r="C189" s="10"/>
@@ -3667,7 +3652,7 @@
       <c r="F189" s="8"/>
       <c r="G189" s="8"/>
     </row>
-    <row r="190" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:7" ht="21" customHeight="1">
       <c r="A190" s="8"/>
       <c r="B190" s="8"/>
       <c r="C190" s="10"/>
@@ -3676,7 +3661,7 @@
       <c r="F190" s="8"/>
       <c r="G190" s="8"/>
     </row>
-    <row r="191" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:7" ht="21" customHeight="1">
       <c r="A191" s="8"/>
       <c r="B191" s="8"/>
       <c r="C191" s="10"/>
@@ -3685,7 +3670,7 @@
       <c r="F191" s="8"/>
       <c r="G191" s="8"/>
     </row>
-    <row r="192" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:7" ht="21" customHeight="1">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="4"/>
@@ -3694,7 +3679,7 @@
       <c r="F192" s="6"/>
       <c r="G192" s="6"/>
     </row>
-    <row r="193" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:7" ht="21" customHeight="1">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="4"/>
@@ -3703,7 +3688,7 @@
       <c r="F193" s="6"/>
       <c r="G193" s="6"/>
     </row>
-    <row r="194" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:7" ht="21" customHeight="1">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="4"/>
@@ -3712,7 +3697,7 @@
       <c r="F194" s="6"/>
       <c r="G194" s="6"/>
     </row>
-    <row r="195" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:7" ht="21" customHeight="1">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="4"/>
@@ -3721,7 +3706,7 @@
       <c r="F195" s="6"/>
       <c r="G195" s="6"/>
     </row>
-    <row r="196" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:7" ht="21" customHeight="1">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="4"/>
@@ -3730,7 +3715,7 @@
       <c r="F196" s="6"/>
       <c r="G196" s="6"/>
     </row>
-    <row r="197" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:7" ht="21" customHeight="1">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="4"/>
@@ -3739,7 +3724,7 @@
       <c r="F197" s="6"/>
       <c r="G197" s="6"/>
     </row>
-    <row r="198" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:7" ht="21" customHeight="1">
       <c r="A198" s="8"/>
       <c r="B198" s="8"/>
       <c r="C198" s="10"/>
@@ -3748,7 +3733,7 @@
       <c r="F198" s="8"/>
       <c r="G198" s="8"/>
     </row>
-    <row r="199" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:7" ht="21" customHeight="1">
       <c r="A199" s="8"/>
       <c r="B199" s="8"/>
       <c r="C199" s="10"/>
@@ -3757,7 +3742,7 @@
       <c r="F199" s="8"/>
       <c r="G199" s="8"/>
     </row>
-    <row r="200" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:7" ht="21" customHeight="1">
       <c r="A200" s="8"/>
       <c r="B200" s="10"/>
       <c r="C200" s="10"/>
@@ -3766,7 +3751,7 @@
       <c r="F200" s="8"/>
       <c r="G200" s="8"/>
     </row>
-    <row r="201" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:7" ht="21" customHeight="1">
       <c r="A201" s="8"/>
       <c r="B201" s="8"/>
       <c r="C201" s="10"/>
@@ -3775,7 +3760,7 @@
       <c r="F201" s="8"/>
       <c r="G201" s="8"/>
     </row>
-    <row r="202" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:7" ht="21" customHeight="1">
       <c r="A202" s="8"/>
       <c r="B202" s="8"/>
       <c r="C202" s="10"/>
@@ -3784,7 +3769,7 @@
       <c r="F202" s="8"/>
       <c r="G202" s="8"/>
     </row>
-    <row r="203" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:7" ht="21" customHeight="1">
       <c r="A203" s="8"/>
       <c r="B203" s="8"/>
       <c r="C203" s="10"/>
@@ -3793,7 +3778,7 @@
       <c r="F203" s="8"/>
       <c r="G203" s="8"/>
     </row>
-    <row r="204" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:7" ht="21" customHeight="1">
       <c r="A204" s="8"/>
       <c r="B204" s="8"/>
       <c r="C204" s="10"/>
@@ -3802,7 +3787,7 @@
       <c r="F204" s="8"/>
       <c r="G204" s="8"/>
     </row>
-    <row r="205" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:7" ht="21" customHeight="1">
       <c r="A205" s="8"/>
       <c r="B205" s="8"/>
       <c r="C205" s="10"/>
@@ -3811,7 +3796,7 @@
       <c r="F205" s="8"/>
       <c r="G205" s="8"/>
     </row>
-    <row r="206" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:7" ht="21" customHeight="1">
       <c r="A206" s="8"/>
       <c r="B206" s="8"/>
       <c r="C206" s="10"/>
@@ -3820,7 +3805,7 @@
       <c r="F206" s="8"/>
       <c r="G206" s="8"/>
     </row>
-    <row r="207" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:7" ht="21" customHeight="1">
       <c r="A207" s="8"/>
       <c r="B207" s="8"/>
       <c r="C207" s="10"/>
@@ -3829,7 +3814,7 @@
       <c r="F207" s="8"/>
       <c r="G207" s="8"/>
     </row>
-    <row r="208" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:7" ht="21" customHeight="1">
       <c r="A208" s="8"/>
       <c r="B208" s="8"/>
       <c r="C208" s="10"/>
@@ -3838,7 +3823,7 @@
       <c r="F208" s="8"/>
       <c r="G208" s="8"/>
     </row>
-    <row r="209" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:7" ht="21" customHeight="1">
       <c r="A209" s="8"/>
       <c r="B209" s="8"/>
       <c r="C209" s="10"/>
@@ -3847,7 +3832,7 @@
       <c r="F209" s="8"/>
       <c r="G209" s="8"/>
     </row>
-    <row r="210" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:7" ht="21" customHeight="1">
       <c r="A210" s="8"/>
       <c r="B210" s="8"/>
       <c r="C210" s="10"/>
@@ -3856,7 +3841,7 @@
       <c r="F210" s="8"/>
       <c r="G210" s="8"/>
     </row>
-    <row r="211" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:7" ht="21" customHeight="1">
       <c r="A211" s="8"/>
       <c r="B211" s="8"/>
       <c r="C211" s="10"/>
@@ -3865,7 +3850,7 @@
       <c r="F211" s="8"/>
       <c r="G211" s="8"/>
     </row>
-    <row r="212" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:7" ht="21" customHeight="1">
       <c r="A212" s="8"/>
       <c r="B212" s="8"/>
       <c r="C212" s="10"/>
@@ -3874,7 +3859,7 @@
       <c r="F212" s="8"/>
       <c r="G212" s="8"/>
     </row>
-    <row r="213" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:7" ht="21" customHeight="1">
       <c r="A213" s="8"/>
       <c r="B213" s="8"/>
       <c r="C213" s="10"/>
@@ -3883,7 +3868,7 @@
       <c r="F213" s="8"/>
       <c r="G213" s="8"/>
     </row>
-    <row r="214" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:7" ht="21" customHeight="1">
       <c r="A214" s="8"/>
       <c r="B214" s="8"/>
       <c r="C214" s="8"/>
@@ -3892,7 +3877,7 @@
       <c r="F214" s="6"/>
       <c r="G214" s="6"/>
     </row>
-    <row r="215" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:7" ht="21" customHeight="1">
       <c r="A215" s="8"/>
       <c r="B215" s="8"/>
       <c r="C215" s="8"/>
@@ -3901,7 +3886,7 @@
       <c r="F215" s="6"/>
       <c r="G215" s="6"/>
     </row>
-    <row r="216" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:7" ht="21" customHeight="1">
       <c r="A216" s="8"/>
       <c r="B216" s="8"/>
       <c r="C216" s="8"/>
@@ -3910,7 +3895,7 @@
       <c r="F216" s="6"/>
       <c r="G216" s="6"/>
     </row>
-    <row r="217" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:7" ht="21" customHeight="1">
       <c r="A217" s="8"/>
       <c r="B217" s="8"/>
       <c r="C217" s="8"/>
@@ -3919,7 +3904,7 @@
       <c r="F217" s="6"/>
       <c r="G217" s="6"/>
     </row>
-    <row r="218" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:7" ht="21" customHeight="1">
       <c r="A218" s="8"/>
       <c r="B218" s="8"/>
       <c r="C218" s="8"/>
@@ -3928,7 +3913,7 @@
       <c r="F218" s="6"/>
       <c r="G218" s="6"/>
     </row>
-    <row r="219" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:7" ht="21" customHeight="1">
       <c r="A219" s="8"/>
       <c r="B219" s="8"/>
       <c r="C219" s="8"/>
@@ -3937,7 +3922,7 @@
       <c r="F219" s="6"/>
       <c r="G219" s="6"/>
     </row>
-    <row r="220" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:7" ht="21" customHeight="1">
       <c r="A220" s="8"/>
       <c r="B220" s="8"/>
       <c r="C220" s="8"/>
@@ -3946,7 +3931,7 @@
       <c r="F220" s="6"/>
       <c r="G220" s="6"/>
     </row>
-    <row r="221" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:7" ht="21" customHeight="1">
       <c r="A221" s="8"/>
       <c r="B221" s="8"/>
       <c r="C221" s="8"/>
@@ -3955,7 +3940,7 @@
       <c r="F221" s="6"/>
       <c r="G221" s="6"/>
     </row>
-    <row r="222" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:7" ht="21" customHeight="1">
       <c r="A222" s="8"/>
       <c r="B222" s="8"/>
       <c r="C222" s="8"/>
@@ -3964,7 +3949,7 @@
       <c r="F222" s="6"/>
       <c r="G222" s="6"/>
     </row>
-    <row r="223" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:7" ht="21" customHeight="1">
       <c r="A223" s="8"/>
       <c r="B223" s="8"/>
       <c r="C223" s="8"/>
@@ -3973,7 +3958,7 @@
       <c r="F223" s="6"/>
       <c r="G223" s="6"/>
     </row>
-    <row r="224" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:7" ht="21" customHeight="1">
       <c r="A224" s="8"/>
       <c r="B224" s="8"/>
       <c r="C224" s="8"/>
@@ -3982,7 +3967,7 @@
       <c r="F224" s="6"/>
       <c r="G224" s="6"/>
     </row>
-    <row r="225" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:7" ht="21" customHeight="1">
       <c r="A225" s="8"/>
       <c r="B225" s="8"/>
       <c r="C225" s="8"/>
@@ -3991,7 +3976,7 @@
       <c r="F225" s="6"/>
       <c r="G225" s="6"/>
     </row>
-    <row r="226" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:7" ht="21" customHeight="1">
       <c r="A226" s="8"/>
       <c r="B226" s="8"/>
       <c r="C226" s="8"/>
@@ -4000,7 +3985,7 @@
       <c r="F226" s="6"/>
       <c r="G226" s="6"/>
     </row>
-    <row r="227" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:7" ht="21" customHeight="1">
       <c r="A227" s="8"/>
       <c r="B227" s="8"/>
       <c r="C227" s="8"/>
@@ -4009,7 +3994,7 @@
       <c r="F227" s="6"/>
       <c r="G227" s="6"/>
     </row>
-    <row r="228" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:7" ht="21" customHeight="1">
       <c r="A228" s="8"/>
       <c r="B228" s="8"/>
       <c r="C228" s="8"/>
@@ -4018,7 +4003,7 @@
       <c r="F228" s="6"/>
       <c r="G228" s="6"/>
     </row>
-    <row r="229" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:7" ht="21" customHeight="1">
       <c r="A229" s="8"/>
       <c r="B229" s="8"/>
       <c r="C229" s="8"/>
@@ -4027,7 +4012,7 @@
       <c r="F229" s="6"/>
       <c r="G229" s="6"/>
     </row>
-    <row r="230" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:7" ht="21" customHeight="1">
       <c r="A230" s="8"/>
       <c r="B230" s="8"/>
       <c r="C230" s="8"/>
@@ -4036,7 +4021,7 @@
       <c r="F230" s="6"/>
       <c r="G230" s="6"/>
     </row>
-    <row r="231" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:7" ht="21" customHeight="1">
       <c r="A231" s="8"/>
       <c r="B231" s="8"/>
       <c r="C231" s="8"/>
@@ -4045,7 +4030,7 @@
       <c r="F231" s="6"/>
       <c r="G231" s="6"/>
     </row>
-    <row r="232" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:7" ht="21" customHeight="1">
       <c r="A232" s="8"/>
       <c r="B232" s="8"/>
       <c r="C232" s="8"/>
@@ -4054,7 +4039,7 @@
       <c r="F232" s="6"/>
       <c r="G232" s="6"/>
     </row>
-    <row r="233" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:7" ht="21" customHeight="1">
       <c r="A233" s="8"/>
       <c r="B233" s="8"/>
       <c r="C233" s="8"/>
@@ -4063,7 +4048,7 @@
       <c r="F233" s="6"/>
       <c r="G233" s="6"/>
     </row>
-    <row r="234" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:7" ht="21" customHeight="1">
       <c r="A234" s="8"/>
       <c r="B234" s="8"/>
       <c r="C234" s="8"/>
@@ -4072,7 +4057,7 @@
       <c r="F234" s="6"/>
       <c r="G234" s="6"/>
     </row>
-    <row r="235" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:7" ht="21" customHeight="1">
       <c r="A235" s="8"/>
       <c r="B235" s="8"/>
       <c r="C235" s="8"/>
@@ -4081,7 +4066,7 @@
       <c r="F235" s="6"/>
       <c r="G235" s="6"/>
     </row>
-    <row r="236" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:7" ht="21" customHeight="1">
       <c r="A236" s="8"/>
       <c r="B236" s="8"/>
       <c r="C236" s="8"/>
@@ -4090,7 +4075,7 @@
       <c r="F236" s="6"/>
       <c r="G236" s="6"/>
     </row>
-    <row r="237" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:7" ht="21" customHeight="1">
       <c r="A237" s="8"/>
       <c r="B237" s="8"/>
       <c r="C237" s="8"/>
@@ -4099,7 +4084,7 @@
       <c r="F237" s="6"/>
       <c r="G237" s="6"/>
     </row>
-    <row r="238" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:7" ht="21" customHeight="1">
       <c r="A238" s="8"/>
       <c r="B238" s="8"/>
       <c r="C238" s="8"/>
@@ -4108,7 +4093,7 @@
       <c r="F238" s="6"/>
       <c r="G238" s="6"/>
     </row>
-    <row r="239" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:7" ht="21" customHeight="1">
       <c r="A239" s="8"/>
       <c r="B239" s="8"/>
       <c r="C239" s="8"/>
@@ -4117,7 +4102,7 @@
       <c r="F239" s="6"/>
       <c r="G239" s="6"/>
     </row>
-    <row r="240" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:7" ht="21" customHeight="1">
       <c r="A240" s="8"/>
       <c r="B240" s="8"/>
       <c r="C240" s="8"/>
@@ -4126,7 +4111,7 @@
       <c r="F240" s="6"/>
       <c r="G240" s="6"/>
     </row>
-    <row r="241" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:7" ht="21" customHeight="1">
       <c r="A241" s="8"/>
       <c r="B241" s="8"/>
       <c r="C241" s="8"/>
@@ -4135,7 +4120,7 @@
       <c r="F241" s="6"/>
       <c r="G241" s="6"/>
     </row>
-    <row r="242" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:7" ht="21" customHeight="1">
       <c r="A242" s="8"/>
       <c r="B242" s="8"/>
       <c r="C242" s="8"/>
@@ -4144,7 +4129,7 @@
       <c r="F242" s="6"/>
       <c r="G242" s="6"/>
     </row>
-    <row r="243" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:7" ht="21" customHeight="1">
       <c r="A243" s="8"/>
       <c r="B243" s="8"/>
       <c r="C243" s="8"/>
@@ -4153,7 +4138,7 @@
       <c r="F243" s="6"/>
       <c r="G243" s="6"/>
     </row>
-    <row r="244" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:7" ht="21" customHeight="1">
       <c r="A244" s="8"/>
       <c r="B244" s="8"/>
       <c r="C244" s="8"/>
@@ -4162,7 +4147,7 @@
       <c r="F244" s="6"/>
       <c r="G244" s="6"/>
     </row>
-    <row r="245" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:7" ht="21" customHeight="1">
       <c r="A245" s="8"/>
       <c r="B245" s="8"/>
       <c r="C245" s="8"/>
@@ -4171,7 +4156,7 @@
       <c r="F245" s="6"/>
       <c r="G245" s="6"/>
     </row>
-    <row r="246" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:7" ht="21" customHeight="1">
       <c r="A246" s="8"/>
       <c r="B246" s="8"/>
       <c r="C246" s="8"/>
@@ -4180,7 +4165,7 @@
       <c r="F246" s="6"/>
       <c r="G246" s="6"/>
     </row>
-    <row r="247" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:7" ht="21" customHeight="1">
       <c r="A247" s="8"/>
       <c r="B247" s="8"/>
       <c r="C247" s="8"/>
@@ -4189,7 +4174,7 @@
       <c r="F247" s="6"/>
       <c r="G247" s="6"/>
     </row>
-    <row r="248" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:7" ht="21" customHeight="1">
       <c r="A248" s="8"/>
       <c r="B248" s="8"/>
       <c r="C248" s="8"/>
@@ -4198,7 +4183,7 @@
       <c r="F248" s="6"/>
       <c r="G248" s="6"/>
     </row>
-    <row r="249" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:7" ht="21" customHeight="1">
       <c r="A249" s="8"/>
       <c r="B249" s="8"/>
       <c r="C249" s="8"/>
@@ -4207,7 +4192,7 @@
       <c r="F249" s="6"/>
       <c r="G249" s="6"/>
     </row>
-    <row r="250" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:7" ht="21" customHeight="1">
       <c r="A250" s="8"/>
       <c r="B250" s="8"/>
       <c r="C250" s="8"/>
@@ -4216,7 +4201,7 @@
       <c r="F250" s="6"/>
       <c r="G250" s="6"/>
     </row>
-    <row r="251" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:7" ht="21" customHeight="1">
       <c r="A251" s="8"/>
       <c r="B251" s="8"/>
       <c r="C251" s="8"/>
@@ -4225,7 +4210,7 @@
       <c r="F251" s="6"/>
       <c r="G251" s="6"/>
     </row>
-    <row r="252" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:7" ht="21" customHeight="1">
       <c r="A252" s="8"/>
       <c r="B252" s="8"/>
       <c r="C252" s="8"/>
@@ -4234,7 +4219,7 @@
       <c r="F252" s="6"/>
       <c r="G252" s="6"/>
     </row>
-    <row r="253" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:7" ht="21" customHeight="1">
       <c r="A253" s="8"/>
       <c r="B253" s="8"/>
       <c r="C253" s="8"/>
@@ -4243,7 +4228,7 @@
       <c r="F253" s="6"/>
       <c r="G253" s="6"/>
     </row>
-    <row r="254" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:7" ht="21" customHeight="1">
       <c r="A254" s="8"/>
       <c r="B254" s="8"/>
       <c r="C254" s="8"/>
@@ -4252,7 +4237,7 @@
       <c r="F254" s="6"/>
       <c r="G254" s="6"/>
     </row>
-    <row r="255" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:7" ht="21" customHeight="1">
       <c r="A255" s="8"/>
       <c r="B255" s="8"/>
       <c r="C255" s="8"/>
@@ -4261,7 +4246,7 @@
       <c r="F255" s="6"/>
       <c r="G255" s="6"/>
     </row>
-    <row r="256" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:7" ht="21" customHeight="1">
       <c r="A256" s="8"/>
       <c r="B256" s="8"/>
       <c r="C256" s="8"/>
@@ -4270,7 +4255,7 @@
       <c r="F256" s="6"/>
       <c r="G256" s="6"/>
     </row>
-    <row r="257" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:7" ht="21" customHeight="1">
       <c r="A257" s="8"/>
       <c r="B257" s="8"/>
       <c r="C257" s="8"/>
@@ -4279,7 +4264,7 @@
       <c r="F257" s="6"/>
       <c r="G257" s="6"/>
     </row>
-    <row r="258" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:7" ht="21" customHeight="1">
       <c r="A258" s="8"/>
       <c r="B258" s="8"/>
       <c r="C258" s="8"/>
@@ -4288,7 +4273,7 @@
       <c r="F258" s="6"/>
       <c r="G258" s="6"/>
     </row>
-    <row r="259" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:7" ht="21" customHeight="1">
       <c r="A259" s="8"/>
       <c r="B259" s="8"/>
       <c r="C259" s="8"/>
@@ -4297,7 +4282,7 @@
       <c r="F259" s="6"/>
       <c r="G259" s="6"/>
     </row>
-    <row r="260" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:7" ht="21" customHeight="1">
       <c r="A260" s="8"/>
       <c r="B260" s="8"/>
       <c r="C260" s="8"/>
@@ -4306,7 +4291,7 @@
       <c r="F260" s="6"/>
       <c r="G260" s="6"/>
     </row>
-    <row r="261" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:7" ht="21" customHeight="1">
       <c r="A261" s="8"/>
       <c r="B261" s="8"/>
       <c r="C261" s="8"/>
@@ -4315,7 +4300,7 @@
       <c r="F261" s="6"/>
       <c r="G261" s="6"/>
     </row>
-    <row r="262" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:7" ht="21" customHeight="1">
       <c r="A262" s="8"/>
       <c r="B262" s="8"/>
       <c r="C262" s="8"/>
@@ -4324,7 +4309,7 @@
       <c r="F262" s="6"/>
       <c r="G262" s="6"/>
     </row>
-    <row r="263" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:7" ht="21" customHeight="1">
       <c r="A263" s="8"/>
       <c r="B263" s="8"/>
       <c r="C263" s="8"/>
@@ -4333,7 +4318,7 @@
       <c r="F263" s="6"/>
       <c r="G263" s="6"/>
     </row>
-    <row r="264" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:7" ht="21" customHeight="1">
       <c r="A264" s="8"/>
       <c r="B264" s="8"/>
       <c r="C264" s="8"/>
@@ -4342,7 +4327,7 @@
       <c r="F264" s="6"/>
       <c r="G264" s="6"/>
     </row>
-    <row r="265" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:7" ht="21" customHeight="1">
       <c r="A265" s="8"/>
       <c r="B265" s="8"/>
       <c r="C265" s="8"/>
@@ -4351,7 +4336,7 @@
       <c r="F265" s="6"/>
       <c r="G265" s="6"/>
     </row>
-    <row r="266" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:7" ht="21" customHeight="1">
       <c r="A266" s="8"/>
       <c r="B266" s="8"/>
       <c r="C266" s="8"/>
@@ -4360,7 +4345,7 @@
       <c r="F266" s="6"/>
       <c r="G266" s="6"/>
     </row>
-    <row r="267" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:7" ht="21" customHeight="1">
       <c r="A267" s="8"/>
       <c r="B267" s="8"/>
       <c r="C267" s="8"/>
@@ -4369,7 +4354,7 @@
       <c r="F267" s="6"/>
       <c r="G267" s="6"/>
     </row>
-    <row r="268" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:7" ht="21" customHeight="1">
       <c r="A268" s="8"/>
       <c r="B268" s="8"/>
       <c r="C268" s="8"/>
@@ -4378,7 +4363,7 @@
       <c r="F268" s="6"/>
       <c r="G268" s="6"/>
     </row>
-    <row r="269" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:7" ht="21" customHeight="1">
       <c r="A269" s="8"/>
       <c r="B269" s="8"/>
       <c r="C269" s="8"/>
@@ -4387,7 +4372,7 @@
       <c r="F269" s="6"/>
       <c r="G269" s="6"/>
     </row>
-    <row r="270" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:7" ht="21" customHeight="1">
       <c r="A270" s="8"/>
       <c r="B270" s="8"/>
       <c r="C270" s="8"/>
@@ -4396,7 +4381,7 @@
       <c r="F270" s="6"/>
       <c r="G270" s="6"/>
     </row>
-    <row r="271" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:7" ht="21" customHeight="1">
       <c r="A271" s="8"/>
       <c r="B271" s="8"/>
       <c r="C271" s="8"/>
@@ -4405,7 +4390,7 @@
       <c r="F271" s="6"/>
       <c r="G271" s="6"/>
     </row>
-    <row r="272" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:7" ht="21" customHeight="1">
       <c r="A272" s="8"/>
       <c r="B272" s="8"/>
       <c r="C272" s="8"/>
@@ -4414,7 +4399,7 @@
       <c r="F272" s="6"/>
       <c r="G272" s="6"/>
     </row>
-    <row r="273" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:7" ht="21" customHeight="1">
       <c r="A273" s="8"/>
       <c r="B273" s="8"/>
       <c r="C273" s="8"/>
@@ -4423,7 +4408,7 @@
       <c r="F273" s="6"/>
       <c r="G273" s="6"/>
     </row>
-    <row r="274" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:7" ht="21" customHeight="1">
       <c r="A274" s="8"/>
       <c r="B274" s="8"/>
       <c r="C274" s="8"/>
@@ -4432,7 +4417,7 @@
       <c r="F274" s="6"/>
       <c r="G274" s="6"/>
     </row>
-    <row r="275" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:7" ht="21" customHeight="1">
       <c r="A275" s="8"/>
       <c r="B275" s="8"/>
       <c r="C275" s="8"/>
@@ -4441,7 +4426,7 @@
       <c r="F275" s="6"/>
       <c r="G275" s="6"/>
     </row>
-    <row r="276" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:7" ht="21" customHeight="1">
       <c r="A276" s="8"/>
       <c r="B276" s="8"/>
       <c r="C276" s="8"/>
@@ -4787,9 +4772,6 @@
       <formula>2500</formula>
     </cfRule>
   </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" location="ctm_ref=www_hp_bs_lst"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>

--- a/scrapy_xc/spiders/tasks.xlsx
+++ b/scrapy_xc/spiders/tasks.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27610"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yujun/pro/tutorial/scrapy_xc/spiders/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liukaizhao/PycharmProjects/tutorial/scrapy_xc/spiders/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5BC80D6-3778-CB49-9D7C-E13FFC2BE600}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28700" windowHeight="13060"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28700" windowHeight="13060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -53,17 +54,18 @@
     <t>广州南丰朗豪酒店</t>
   </si>
   <si>
-    <t>http://hotels.ctrip.com/hotel/512125.html?isFull=F#ctm_ref=hod_sr_lst_dl_n_1_1</t>
+    <t>高级客房</t>
   </si>
   <si>
-    <t>高级客房</t>
+    <t>http://hotels.ctrip.com/hotel/512125.html?isFull=F#ctm_ref=hod_sr_lst_dl_n_1_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -74,12 +76,21 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -121,12 +132,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -148,9 +162,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7"/>
@@ -225,6 +243,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1268,14 +1289,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G74"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="68.83203125" style="1" customWidth="1"/>
@@ -1283,7 +1304,7 @@
     <col min="8" max="256" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="21" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1306,21 +1327,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="21" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="D2" s="5">
-        <v>43541</v>
+        <v>43544</v>
       </c>
       <c r="E2" s="5">
-        <v>43546</v>
+        <v>43545</v>
       </c>
       <c r="F2" s="4">
         <v>2500</v>
@@ -1329,7 +1350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="21" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
@@ -1338,7 +1359,7 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="21" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
@@ -1347,7 +1368,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="21" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
@@ -1356,7 +1377,7 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="21" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
@@ -1365,7 +1386,7 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="21" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
@@ -1374,7 +1395,7 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="21" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
@@ -1383,7 +1404,7 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="21" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
@@ -1392,7 +1413,7 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="21" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
@@ -1401,7 +1422,7 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="21" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
@@ -1410,7 +1431,7 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="21" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
@@ -1419,7 +1440,7 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="21" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
@@ -1428,7 +1449,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="21" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
@@ -1437,7 +1458,7 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="21" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
@@ -1446,7 +1467,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="21" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
@@ -1455,7 +1476,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="21" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
@@ -1464,7 +1485,7 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="21" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
@@ -1473,7 +1494,7 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="21" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
@@ -1482,7 +1503,7 @@
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="21" customHeight="1">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
@@ -1491,7 +1512,7 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="21" customHeight="1">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
@@ -1500,7 +1521,7 @@
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="21" customHeight="1">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
@@ -1509,7 +1530,7 @@
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" ht="21" customHeight="1">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="6"/>
@@ -1518,7 +1539,7 @@
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="21" customHeight="1">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
@@ -1527,7 +1548,7 @@
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" ht="21" customHeight="1">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="4"/>
@@ -1536,7 +1557,7 @@
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" ht="21" customHeight="1">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="4"/>
@@ -1545,7 +1566,7 @@
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" ht="21" customHeight="1">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="4"/>
@@ -1554,7 +1575,7 @@
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" ht="21" customHeight="1">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="4"/>
@@ -1563,7 +1584,7 @@
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" ht="21" customHeight="1">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="4"/>
@@ -1572,7 +1593,7 @@
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" ht="21" customHeight="1">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="4"/>
@@ -1581,7 +1602,7 @@
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" ht="21" customHeight="1">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="4"/>
@@ -1590,7 +1611,7 @@
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7" ht="21" customHeight="1">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="4"/>
@@ -1599,7 +1620,7 @@
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7" ht="21" customHeight="1">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="4"/>
@@ -1608,7 +1629,7 @@
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7" ht="21" customHeight="1">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="4"/>
@@ -1617,7 +1638,7 @@
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7" ht="21" customHeight="1">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="4"/>
@@ -1626,7 +1647,7 @@
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:7" ht="21" customHeight="1">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="4"/>
@@ -1635,7 +1656,7 @@
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7" ht="21" customHeight="1">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="4"/>
@@ -1644,7 +1665,7 @@
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7" ht="21" customHeight="1">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="4"/>
@@ -1653,7 +1674,7 @@
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
     </row>
-    <row r="39" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:7" ht="21" customHeight="1">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="4"/>
@@ -1662,7 +1683,7 @@
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
     </row>
-    <row r="40" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:7" ht="21" customHeight="1">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="4"/>
@@ -1671,7 +1692,7 @@
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:7" ht="21" customHeight="1">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="4"/>
@@ -1680,7 +1701,7 @@
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:7" ht="21" customHeight="1">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="4"/>
@@ -1689,7 +1710,7 @@
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
     </row>
-    <row r="43" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:7" ht="21" customHeight="1">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="4"/>
@@ -1698,7 +1719,7 @@
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
     </row>
-    <row r="44" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:7" ht="21" customHeight="1">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="4"/>
@@ -1707,7 +1728,7 @@
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
     </row>
-    <row r="45" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:7" ht="21" customHeight="1">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="4"/>
@@ -1716,7 +1737,7 @@
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
     </row>
-    <row r="46" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:7" ht="21" customHeight="1">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="4"/>
@@ -1725,7 +1746,7 @@
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
     </row>
-    <row r="47" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:7" ht="21" customHeight="1">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="4"/>
@@ -1734,7 +1755,7 @@
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
     </row>
-    <row r="48" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:7" ht="21" customHeight="1">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="4"/>
@@ -1743,7 +1764,7 @@
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
     </row>
-    <row r="49" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:7" ht="21" customHeight="1">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="4"/>
@@ -1752,7 +1773,7 @@
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
     </row>
-    <row r="50" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:7" ht="21" customHeight="1">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="4"/>
@@ -1761,7 +1782,7 @@
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
     </row>
-    <row r="51" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:7" ht="21" customHeight="1">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="4"/>
@@ -1770,7 +1791,7 @@
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
     </row>
-    <row r="52" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:7" ht="21" customHeight="1">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="4"/>
@@ -1779,7 +1800,7 @@
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
     </row>
-    <row r="53" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:7" ht="21" customHeight="1">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="4"/>
@@ -1788,7 +1809,7 @@
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
     </row>
-    <row r="54" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:7" ht="21" customHeight="1">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="4"/>
@@ -1797,7 +1818,7 @@
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
     </row>
-    <row r="55" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:7" ht="21" customHeight="1">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="6"/>
@@ -1806,7 +1827,7 @@
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
     </row>
-    <row r="56" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:7" ht="21" customHeight="1">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="4"/>
@@ -1815,7 +1836,7 @@
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
     </row>
-    <row r="57" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:7" ht="21" customHeight="1">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="4"/>
@@ -1824,7 +1845,7 @@
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
     </row>
-    <row r="58" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:7" ht="21" customHeight="1">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="4"/>
@@ -1833,7 +1854,7 @@
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
     </row>
-    <row r="59" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:7" ht="21" customHeight="1">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="4"/>
@@ -1842,7 +1863,7 @@
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
     </row>
-    <row r="60" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:7" ht="21" customHeight="1">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="4"/>
@@ -1851,7 +1872,7 @@
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
     </row>
-    <row r="61" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:7" ht="21" customHeight="1">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="4"/>
@@ -1860,7 +1881,7 @@
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
     </row>
-    <row r="62" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:7" ht="21" customHeight="1">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="4"/>
@@ -1869,7 +1890,7 @@
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
     </row>
-    <row r="63" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:7" ht="21" customHeight="1">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="4"/>
@@ -1878,7 +1899,7 @@
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
     </row>
-    <row r="64" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:7" ht="21" customHeight="1">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="4"/>
@@ -1887,7 +1908,7 @@
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
     </row>
-    <row r="65" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:7" ht="21" customHeight="1">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="4"/>
@@ -1896,7 +1917,7 @@
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
     </row>
-    <row r="66" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:7" ht="21" customHeight="1">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="4"/>
@@ -1905,7 +1926,7 @@
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
     </row>
-    <row r="67" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:7" ht="21" customHeight="1">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="4"/>
@@ -1914,7 +1935,7 @@
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
     </row>
-    <row r="68" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:7" ht="21" customHeight="1">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="4"/>
@@ -1923,7 +1944,7 @@
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
     </row>
-    <row r="69" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:7" ht="21" customHeight="1">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="4"/>
@@ -1932,7 +1953,7 @@
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
     </row>
-    <row r="70" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:7" ht="21" customHeight="1">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="4"/>
@@ -1941,7 +1962,7 @@
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
     </row>
-    <row r="71" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:7" ht="21" customHeight="1">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="4"/>
@@ -1950,7 +1971,7 @@
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
     </row>
-    <row r="72" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:7" ht="21" customHeight="1">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="4"/>
@@ -1959,7 +1980,7 @@
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
     </row>
-    <row r="73" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:7" ht="21" customHeight="1">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="4"/>
@@ -1968,7 +1989,7 @@
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
     </row>
-    <row r="74" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:7" ht="21" customHeight="1">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="4"/>
@@ -1979,6 +2000,9 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" location="ctm_ref=hod_sr_lst_dl_n_1_1" xr:uid="{8714C645-A47C-904E-A8FD-B2144C566BF0}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>

--- a/scrapy_xc/spiders/tasks.xlsx
+++ b/scrapy_xc/spiders/tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liukaizhao/PycharmProjects/tutorial/scrapy_xc/spiders/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5BC80D6-3778-CB49-9D7C-E13FFC2BE600}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D4BB35-926A-EE4A-9F33-81AD4F947634}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28700" windowHeight="13060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,14 +51,13 @@
     <t>day_offset</t>
   </si>
   <si>
-    <t>广州南丰朗豪酒店</t>
+    <t>广州雅诗阁服务公寓</t>
   </si>
   <si>
-    <t>高级客房</t>
+    <t>http://hotels.ctrip.com/hotel/456162.html?isFull=F#ctm_ref=hod_sr_lst_dl_n_2_9</t>
   </si>
   <si>
-    <t>http://hotels.ctrip.com/hotel/512125.html?isFull=F#ctm_ref=hod_sr_lst_dl_n_1_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>一房豪华套房</t>
   </si>
 </sst>
 </file>
@@ -86,10 +85,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
+      <color indexed="8"/>
+      <name val="SimSun"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
@@ -132,15 +130,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -162,13 +157,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1293,7 +1290,7 @@
   <dimension ref="A1:G74"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21" customHeight="1"/>
@@ -1328,25 +1325,25 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="21" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>8</v>
+      <c r="D2" s="8">
+        <v>50856</v>
       </c>
-      <c r="D2" s="5">
-        <v>43544</v>
+      <c r="E2" s="8">
+        <v>50857</v>
       </c>
-      <c r="E2" s="5">
-        <v>43545</v>
-      </c>
-      <c r="F2" s="4">
+      <c r="F2" s="7">
         <v>2500</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="7">
         <v>1</v>
       </c>
     </row>
@@ -2000,9 +1997,6 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" location="ctm_ref=hod_sr_lst_dl_n_1_1" xr:uid="{8714C645-A47C-904E-A8FD-B2144C566BF0}"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
